--- a/HW4/純市值選股(每月初調整).xlsx
+++ b/HW4/純市值選股(每月初調整).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\MPTIS\HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MPTIS\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7059FE64-6BDB-4F89-A4F1-5BE99182BC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51E3D00-D6F6-41ED-A044-A6B7F1F1558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,11 @@
     <t>400追蹤日報酬%</t>
   </si>
   <si>
-    <t>300追蹤日報酬%</t>
+    <t>250追蹤日報酬%</t>
   </si>
   <si>
-    <t>250追蹤日報酬%</t>
+    <t>350追蹤日報酬%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -380,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="D735" sqref="D735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -404,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -421,7 +422,7 @@
         <v>0.672480032674724</v>
       </c>
       <c r="D2" s="1">
-        <v>0.67022436042953504</v>
+        <v>0.67753017169045404</v>
       </c>
       <c r="E2" s="1">
         <v>0.67038675500671296</v>
@@ -438,7 +439,7 @@
         <v>0.87851426557635404</v>
       </c>
       <c r="D3" s="1">
-        <v>0.89809374988771495</v>
+        <v>0.88668157178064499</v>
       </c>
       <c r="E3" s="1">
         <v>0.91549142005228701</v>
@@ -455,7 +456,7 @@
         <v>0.39136238903954601</v>
       </c>
       <c r="D4" s="1">
-        <v>0.38108185264564698</v>
+        <v>0.39051404630275</v>
       </c>
       <c r="E4" s="1">
         <v>0.37733130573009699</v>
@@ -472,7 +473,7 @@
         <v>0.303428958289787</v>
       </c>
       <c r="D5" s="1">
-        <v>0.30450670148098902</v>
+        <v>0.31032434972237899</v>
       </c>
       <c r="E5" s="1">
         <v>0.31053578900076101</v>
@@ -489,7 +490,7 @@
         <v>0.385481068625326</v>
       </c>
       <c r="D6" s="1">
-        <v>0.41048045071056</v>
+        <v>0.39309027741796798</v>
       </c>
       <c r="E6" s="1">
         <v>0.43525974060769401</v>
@@ -506,7 +507,7 @@
         <v>1.20255134160108E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>1.9276673711196401E-2</v>
+        <v>1.43926678895903E-2</v>
       </c>
       <c r="E7" s="1">
         <v>1.6415238783411001E-2</v>
@@ -523,7 +524,7 @@
         <v>-0.80227565160702496</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.82367951286434904</v>
+        <v>-0.81669780838876305</v>
       </c>
       <c r="E8" s="1">
         <v>-0.83236995521556401</v>
@@ -540,7 +541,7 @@
         <v>-0.20848932667669601</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.20912263460958999</v>
+        <v>-0.21519183822607599</v>
       </c>
       <c r="E9" s="1">
         <v>-0.20683386937759499</v>
@@ -557,7 +558,7 @@
         <v>0.678949805155732</v>
       </c>
       <c r="D10" s="1">
-        <v>0.68006610781769095</v>
+        <v>0.68118528680852797</v>
       </c>
       <c r="E10" s="1">
         <v>0.67628113650876698</v>
@@ -574,7 +575,7 @@
         <v>0.65823631610427402</v>
       </c>
       <c r="D11" s="1">
-        <v>0.67241486008423501</v>
+        <v>0.66861220444456004</v>
       </c>
       <c r="E11" s="1">
         <v>0.68296453532738</v>
@@ -591,7 +592,7 @@
         <v>0.26739707387992301</v>
       </c>
       <c r="D12" s="1">
-        <v>0.255678556443174</v>
+        <v>0.268489747097717</v>
       </c>
       <c r="E12" s="1">
         <v>0.24283031729194099</v>
@@ -608,7 +609,7 @@
         <v>0.134042410133418</v>
       </c>
       <c r="D13" s="1">
-        <v>0.13033512888453</v>
+        <v>0.133264671424802</v>
       </c>
       <c r="E13" s="1">
         <v>0.12694810519364</v>
@@ -625,7 +626,7 @@
         <v>0.65980870635931699</v>
       </c>
       <c r="D14" s="1">
-        <v>0.69792680284709496</v>
+        <v>0.67613295801289597</v>
       </c>
       <c r="E14" s="1">
         <v>0.72310620648548196</v>
@@ -642,7 +643,7 @@
         <v>0.76484569357061705</v>
       </c>
       <c r="D15" s="1">
-        <v>0.79719347271293906</v>
+        <v>0.78083423747674297</v>
       </c>
       <c r="E15" s="1">
         <v>0.81598188558276896</v>
@@ -659,7 +660,7 @@
         <v>0.77506887203744101</v>
       </c>
       <c r="D16" s="1">
-        <v>0.78588827824712604</v>
+        <v>0.78181293157043896</v>
       </c>
       <c r="E16" s="1">
         <v>0.79277966263682698</v>
@@ -676,7 +677,7 @@
         <v>0.2490518945537</v>
       </c>
       <c r="D17" s="1">
-        <v>0.26724089233008302</v>
+        <v>0.249819201132051</v>
       </c>
       <c r="E17" s="1">
         <v>0.27757897223551098</v>
@@ -693,7 +694,7 @@
         <v>-0.98732282221725098</v>
       </c>
       <c r="D18" s="1">
-        <v>-1.0247613343761</v>
+        <v>-1.00589513631381</v>
       </c>
       <c r="E18" s="1">
         <v>-1.04830932278421</v>
@@ -710,7 +711,7 @@
         <v>0.183436072421055</v>
       </c>
       <c r="D19" s="1">
-        <v>0.199944313994109</v>
+        <v>0.19096000598988</v>
       </c>
       <c r="E19" s="1">
         <v>0.20842834358939799</v>
@@ -727,7 +728,7 @@
         <v>-0.211569577813081</v>
       </c>
       <c r="D20" s="1">
-        <v>-0.22047331019790201</v>
+        <v>-0.21574098288121199</v>
       </c>
       <c r="E20" s="1">
         <v>-0.23044018604986599</v>
@@ -744,7 +745,7 @@
         <v>0.707573661903388</v>
       </c>
       <c r="D21" s="1">
-        <v>0.73286043092493602</v>
+        <v>0.71694528850549299</v>
       </c>
       <c r="E21" s="1">
         <v>0.74638437798485402</v>
@@ -761,7 +762,7 @@
         <v>-1.3393259338543699</v>
       </c>
       <c r="D22" s="1">
-        <v>-1.3488926066456699</v>
+        <v>-1.34283919656018</v>
       </c>
       <c r="E22" s="1">
         <v>-1.3605467716927699</v>
@@ -778,7 +779,7 @@
         <v>0.268748136247415</v>
       </c>
       <c r="D23" s="1">
-        <v>0.275694793845283</v>
+        <v>0.27415261627829202</v>
       </c>
       <c r="E23" s="1">
         <v>0.27753173136366899</v>
@@ -795,7 +796,7 @@
         <v>0.58420889118265695</v>
       </c>
       <c r="D24" s="1">
-        <v>0.59314582470504995</v>
+        <v>0.58964653809446099</v>
       </c>
       <c r="E24" s="1">
         <v>0.60742619191788105</v>
@@ -812,7 +813,7 @@
         <v>-0.33730617016412701</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.34798839128633502</v>
+        <v>-0.34148690413537702</v>
       </c>
       <c r="E25" s="1">
         <v>-0.35936176320958602</v>
@@ -829,7 +830,7 @@
         <v>-1.6368748498068599</v>
       </c>
       <c r="D26" s="1">
-        <v>-1.65147827059742</v>
+        <v>-1.6443059277910701</v>
       </c>
       <c r="E26" s="1">
         <v>-1.6641748036633599</v>
@@ -846,7 +847,7 @@
         <v>-4.9605793491758901</v>
       </c>
       <c r="D27" s="1">
-        <v>-4.9199085261433204</v>
+        <v>-4.9551609194059099</v>
       </c>
       <c r="E27" s="1">
         <v>-4.9179021388043704</v>
@@ -863,7 +864,7 @@
         <v>1.4555952692199501</v>
       </c>
       <c r="D28" s="1">
-        <v>1.4589877702920999</v>
+        <v>1.45935328775461</v>
       </c>
       <c r="E28" s="1">
         <v>1.4547356544897501</v>
@@ -880,7 +881,7 @@
         <v>-0.21514420800127099</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.211023231943265</v>
+        <v>-0.21462123728284699</v>
       </c>
       <c r="E29" s="1">
         <v>-0.204623378660647</v>
@@ -897,7 +898,7 @@
         <v>-1.49887912916852</v>
       </c>
       <c r="D30" s="1">
-        <v>-1.5064979848426701</v>
+        <v>-1.50649096151605</v>
       </c>
       <c r="E30" s="1">
         <v>-1.5139138450257099</v>
@@ -914,7 +915,7 @@
         <v>0.43770443784026197</v>
       </c>
       <c r="D31" s="1">
-        <v>0.44297991625767402</v>
+        <v>0.44265827429111199</v>
       </c>
       <c r="E31" s="1">
         <v>0.44159948974145702</v>
@@ -931,7 +932,7 @@
         <v>2.8408928257819102</v>
       </c>
       <c r="D32" s="1">
-        <v>2.8411291322390699</v>
+        <v>2.8453401396584099</v>
       </c>
       <c r="E32" s="1">
         <v>2.8479781936263699</v>
@@ -948,7 +949,7 @@
         <v>-0.566292960438459</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.61142525040607498</v>
+        <v>-0.58683825067543005</v>
       </c>
       <c r="E33" s="1">
         <v>-0.63330560235687905</v>
@@ -965,7 +966,7 @@
         <v>1.2589875476655501</v>
       </c>
       <c r="D34" s="1">
-        <v>1.27311310065456</v>
+        <v>1.26478029990048</v>
       </c>
       <c r="E34" s="1">
         <v>1.2830982825355199</v>
@@ -982,7 +983,7 @@
         <v>0.39072875820578701</v>
       </c>
       <c r="D35" s="1">
-        <v>0.38427842519109501</v>
+        <v>0.39196285511953</v>
       </c>
       <c r="E35" s="1">
         <v>0.37900046532255499</v>
@@ -999,7 +1000,7 @@
         <v>-0.19727064384857901</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.204507625026742</v>
+        <v>-0.19995701142309699</v>
       </c>
       <c r="E36" s="1">
         <v>-0.20663976340955501</v>
@@ -1016,7 +1017,7 @@
         <v>-0.30518819758931498</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.32881023361948702</v>
+        <v>-0.31569350143170599</v>
       </c>
       <c r="E37" s="1">
         <v>-0.34795958080601302</v>
@@ -1033,7 +1034,7 @@
         <v>-0.86122951608485299</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.86966062858858195</v>
+        <v>-0.86387288104050497</v>
       </c>
       <c r="E38" s="1">
         <v>-0.87381412694433103</v>
@@ -1050,7 +1051,7 @@
         <v>-0.50720775812396002</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.50276144516592902</v>
+        <v>-0.50360908510782498</v>
       </c>
       <c r="E39" s="1">
         <v>-0.494945334211845</v>
@@ -1067,7 +1068,7 @@
         <v>1.3689325381137301</v>
       </c>
       <c r="D40" s="1">
-        <v>1.3930340797463401</v>
+        <v>1.3765097442090699</v>
       </c>
       <c r="E40" s="1">
         <v>1.4099659764142201</v>
@@ -1084,7 +1085,7 @@
         <v>-0.37751394163678398</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.38145311916952901</v>
+        <v>-0.37921882780903998</v>
       </c>
       <c r="E41" s="1">
         <v>-0.37691491960694901</v>
@@ -1101,7 +1102,7 @@
         <v>0.71305698803585604</v>
       </c>
       <c r="D42" s="1">
-        <v>0.71069318886067101</v>
+        <v>0.70994134968904399</v>
       </c>
       <c r="E42" s="1">
         <v>0.71930216505975597</v>
@@ -1118,7 +1119,7 @@
         <v>0.40520326173492999</v>
       </c>
       <c r="D43" s="1">
-        <v>0.41481227624614803</v>
+        <v>0.40798599489673898</v>
       </c>
       <c r="E43" s="1">
         <v>0.41839154887417601</v>
@@ -1135,7 +1136,7 @@
         <v>1.33743642860282</v>
       </c>
       <c r="D44" s="1">
-        <v>1.3632107029101601</v>
+        <v>1.3520417839893799</v>
       </c>
       <c r="E44" s="1">
         <v>1.3723759746123501</v>
@@ -1152,7 +1153,7 @@
         <v>0.88359654348154304</v>
       </c>
       <c r="D45" s="1">
-        <v>0.88662391538782503</v>
+        <v>0.88537504297924996</v>
       </c>
       <c r="E45" s="1">
         <v>0.892551617143722</v>
@@ -1169,7 +1170,7 @@
         <v>-0.55072736957816304</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.57468973563048997</v>
+        <v>-0.55838416838831195</v>
       </c>
       <c r="E46" s="1">
         <v>-0.59207199705979696</v>
@@ -1186,7 +1187,7 @@
         <v>-0.19629851697874701</v>
       </c>
       <c r="D47" s="1">
-        <v>-0.20894442860628101</v>
+        <v>-0.20291440581211201</v>
       </c>
       <c r="E47" s="1">
         <v>-0.22019102224383</v>
@@ -1203,7 +1204,7 @@
         <v>9.5852428056980396E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>0.104050788182408</v>
+        <v>9.9438569534104806E-2</v>
       </c>
       <c r="E48" s="1">
         <v>0.1088979174416</v>
@@ -1220,7 +1221,7 @@
         <v>0.18634957629844301</v>
       </c>
       <c r="D49" s="1">
-        <v>0.18287101454853999</v>
+        <v>0.181870915143752</v>
       </c>
       <c r="E49" s="1">
         <v>0.18049876605689799</v>
@@ -1237,7 +1238,7 @@
         <v>-0.34317311653598498</v>
       </c>
       <c r="D50" s="1">
-        <v>-0.348283788917781</v>
+        <v>-0.349229089462056</v>
       </c>
       <c r="E50" s="1">
         <v>-0.35725421647321498</v>
@@ -1254,7 +1255,7 @@
         <v>-4.6467822595459299E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>-6.2199084870126903E-2</v>
+        <v>-5.4203266780860897E-2</v>
       </c>
       <c r="E51" s="1">
         <v>-7.4576774447777605E-2</v>
@@ -1271,7 +1272,7 @@
         <v>8.6784964838573005E-3</v>
       </c>
       <c r="D52" s="1">
-        <v>3.73329287866844E-2</v>
+        <v>2.3969362458608499E-2</v>
       </c>
       <c r="E52" s="1">
         <v>5.3126841854732598E-2</v>
@@ -1288,7 +1289,7 @@
         <v>-1.6815455313954399</v>
       </c>
       <c r="D53" s="1">
-        <v>-1.6944193381169601</v>
+        <v>-1.6855536144046399</v>
       </c>
       <c r="E53" s="1">
         <v>-1.7014436540233699</v>
@@ -1305,7 +1306,7 @@
         <v>0.14330216701462201</v>
       </c>
       <c r="D54" s="1">
-        <v>0.13612255908742299</v>
+        <v>0.14040951479185401</v>
       </c>
       <c r="E54" s="1">
         <v>0.12628382068732499</v>
@@ -1322,7 +1323,7 @@
         <v>1.38322247970932</v>
       </c>
       <c r="D55" s="1">
-        <v>1.39294237742647</v>
+        <v>1.39242636354056</v>
       </c>
       <c r="E55" s="1">
         <v>1.4018363145098101</v>
@@ -1339,7 +1340,7 @@
         <v>-1.1767999961481299</v>
       </c>
       <c r="D56" s="1">
-        <v>-1.2004835714123401</v>
+        <v>-1.1898009683409501</v>
       </c>
       <c r="E56" s="1">
         <v>-1.2272073665516099</v>
@@ -1356,7 +1357,7 @@
         <v>-0.19452462628743999</v>
       </c>
       <c r="D57" s="1">
-        <v>-0.21735955253766401</v>
+        <v>-0.202568972298351</v>
       </c>
       <c r="E57" s="1">
         <v>-0.22955707944088799</v>
@@ -1373,7 +1374,7 @@
         <v>0.60401390772507901</v>
       </c>
       <c r="D58" s="1">
-        <v>0.60467198337433203</v>
+        <v>0.60814407097541601</v>
       </c>
       <c r="E58" s="1">
         <v>0.61298311885004197</v>
@@ -1390,7 +1391,7 @@
         <v>9.4763540140580499E-2</v>
       </c>
       <c r="D59" s="1">
-        <v>6.8578297275538699E-2</v>
+        <v>8.3644936696604097E-2</v>
       </c>
       <c r="E59" s="1">
         <v>5.8733523180184398E-2</v>
@@ -1407,7 +1408,7 @@
         <v>-0.31482689079307702</v>
       </c>
       <c r="D60" s="1">
-        <v>-0.33272771100983101</v>
+        <v>-0.32551868873698803</v>
       </c>
       <c r="E60" s="1">
         <v>-0.34191424033005002</v>
@@ -1424,7 +1425,7 @@
         <v>-0.62704400304490204</v>
       </c>
       <c r="D61" s="1">
-        <v>-0.63808497145572995</v>
+        <v>-0.63488699561974704</v>
       </c>
       <c r="E61" s="1">
         <v>-0.65094202585235705</v>
@@ -1441,7 +1442,7 @@
         <v>0.69089223713617898</v>
       </c>
       <c r="D62" s="1">
-        <v>0.69803836950468101</v>
+        <v>0.69387825822753602</v>
       </c>
       <c r="E62" s="1">
         <v>0.69590471417741995</v>
@@ -1458,7 +1459,7 @@
         <v>0.35225333507281997</v>
       </c>
       <c r="D63" s="1">
-        <v>0.37525023047353601</v>
+        <v>0.36272715519112803</v>
       </c>
       <c r="E63" s="1">
         <v>0.38320723952020702</v>
@@ -1475,7 +1476,7 @@
         <v>0.46361403331148698</v>
       </c>
       <c r="D64" s="1">
-        <v>0.45587869250096802</v>
+        <v>0.45705866625309099</v>
       </c>
       <c r="E64" s="1">
         <v>0.44182202609231203</v>
@@ -1492,7 +1493,7 @@
         <v>-0.195969313478986</v>
       </c>
       <c r="D65" s="1">
-        <v>-0.209113763115372</v>
+        <v>-0.20563874715463201</v>
       </c>
       <c r="E65" s="1">
         <v>-0.22417245282094</v>
@@ -1509,7 +1510,7 @@
         <v>5.9914101928207703E-2</v>
       </c>
       <c r="D66" s="1">
-        <v>6.1342586443975403E-2</v>
+        <v>6.0845372286921398E-2</v>
       </c>
       <c r="E66" s="1">
         <v>6.6691877569341904E-2</v>
@@ -1526,7 +1527,7 @@
         <v>-0.124885604172829</v>
       </c>
       <c r="D67" s="1">
-        <v>-0.120909174702085</v>
+        <v>-0.12192653959971</v>
       </c>
       <c r="E67" s="1">
         <v>-0.112296747673308</v>
@@ -1543,7 +1544,7 @@
         <v>-1.3088869525181801</v>
       </c>
       <c r="D68" s="1">
-        <v>-1.30273194417311</v>
+        <v>-1.3092738236663199</v>
       </c>
       <c r="E68" s="1">
         <v>-1.30565625252661</v>
@@ -1560,7 +1561,7 @@
         <v>0.35435867226692902</v>
       </c>
       <c r="D69" s="1">
-        <v>0.354992932894165</v>
+        <v>0.356370377348666</v>
       </c>
       <c r="E69" s="1">
         <v>0.35846028620703302</v>
@@ -1577,7 +1578,7 @@
         <v>1.17101523021566</v>
       </c>
       <c r="D70" s="1">
-        <v>1.18597777334757</v>
+        <v>1.1798487263569399</v>
       </c>
       <c r="E70" s="1">
         <v>1.1870660358079199</v>
@@ -1594,7 +1595,7 @@
         <v>-1.8421144732900101</v>
       </c>
       <c r="D71" s="1">
-        <v>-1.8934709061134001</v>
+        <v>-1.8686373832755701</v>
       </c>
       <c r="E71" s="1">
         <v>-1.92800535312821</v>
@@ -1611,7 +1612,7 @@
         <v>-0.79701464863553095</v>
       </c>
       <c r="D72" s="1">
-        <v>-0.79700277782307904</v>
+        <v>-0.80033933298188698</v>
       </c>
       <c r="E72" s="1">
         <v>-0.80382238236924797</v>
@@ -1628,7 +1629,7 @@
         <v>-1.0534848387747899</v>
       </c>
       <c r="D73" s="1">
-        <v>-1.0237538519713201</v>
+        <v>-1.04290764162834</v>
       </c>
       <c r="E73" s="1">
         <v>-1.0085248759585199</v>
@@ -1645,7 +1646,7 @@
         <v>-0.223746016726693</v>
       </c>
       <c r="D74" s="1">
-        <v>-0.23686025502220301</v>
+        <v>-0.230795813117429</v>
       </c>
       <c r="E74" s="1">
         <v>-0.25100692886333598</v>
@@ -1662,7 +1663,7 @@
         <v>-0.61967695947242996</v>
       </c>
       <c r="D75" s="1">
-        <v>-0.58317616589111299</v>
+        <v>-0.603949015485156</v>
       </c>
       <c r="E75" s="1">
         <v>-0.55841708003943202</v>
@@ -1679,7 +1680,7 @@
         <v>0.61101107606314198</v>
       </c>
       <c r="D76" s="1">
-        <v>0.60597098121925397</v>
+        <v>0.60980173717809205</v>
       </c>
       <c r="E76" s="1">
         <v>0.60598947795846403</v>
@@ -1696,7 +1697,7 @@
         <v>1.1443395970916601</v>
       </c>
       <c r="D77" s="1">
-        <v>1.1600452343710399</v>
+        <v>1.1500850233994899</v>
       </c>
       <c r="E77" s="1">
         <v>1.1640778599637001</v>
@@ -1713,7 +1714,7 @@
         <v>-0.34849113312394397</v>
       </c>
       <c r="D78" s="1">
-        <v>-0.35620508636004999</v>
+        <v>-0.35133273676641302</v>
       </c>
       <c r="E78" s="1">
         <v>-0.361165257060372</v>
@@ -1730,7 +1731,7 @@
         <v>-1.02031991819002</v>
       </c>
       <c r="D79" s="1">
-        <v>-1.0414208472100599</v>
+        <v>-1.03359519217545</v>
       </c>
       <c r="E79" s="1">
         <v>-1.05126182411052</v>
@@ -1747,7 +1748,7 @@
         <v>0.17110462716847</v>
       </c>
       <c r="D80" s="1">
-        <v>0.17666645167516701</v>
+        <v>0.175970289019835</v>
       </c>
       <c r="E80" s="1">
         <v>0.18798687025409999</v>
@@ -1764,7 +1765,7 @@
         <v>0.76076316872581096</v>
       </c>
       <c r="D81" s="1">
-        <v>0.75933664119127098</v>
+        <v>0.759609532442164</v>
       </c>
       <c r="E81" s="1">
         <v>0.76660174728530595</v>
@@ -1781,7 +1782,7 @@
         <v>0.84977616401651102</v>
       </c>
       <c r="D82" s="1">
-        <v>0.857487999516241</v>
+        <v>0.86024938502706405</v>
       </c>
       <c r="E82" s="1">
         <v>0.879240555898535</v>
@@ -1798,7 +1799,7 @@
         <v>0.12842305881049401</v>
       </c>
       <c r="D83" s="1">
-        <v>0.113807373093087</v>
+        <v>0.126521456954164</v>
       </c>
       <c r="E83" s="1">
         <v>0.11210256337067501</v>
@@ -1815,7 +1816,7 @@
         <v>0.52559230705596605</v>
       </c>
       <c r="D84" s="1">
-        <v>0.51232561552492795</v>
+        <v>0.52156100472226496</v>
       </c>
       <c r="E84" s="1">
         <v>0.51381643648273601</v>
@@ -1832,7 +1833,7 @@
         <v>0.99825791834213395</v>
       </c>
       <c r="D85" s="1">
-        <v>1.0263773815444199</v>
+        <v>1.0143325247878101</v>
       </c>
       <c r="E85" s="1">
         <v>1.0506478195134199</v>
@@ -1849,7 +1850,7 @@
         <v>0.91344376872821798</v>
       </c>
       <c r="D86" s="1">
-        <v>0.90885483953502599</v>
+        <v>0.92102066929991699</v>
       </c>
       <c r="E86" s="1">
         <v>0.92281815179433802</v>
@@ -1866,7 +1867,7 @@
         <v>-0.72877910692634096</v>
       </c>
       <c r="D87" s="1">
-        <v>-0.76385727505574197</v>
+        <v>-0.73822488223499305</v>
       </c>
       <c r="E87" s="1">
         <v>-0.787102809694886</v>
@@ -1883,7 +1884,7 @@
         <v>0.20792964279141499</v>
       </c>
       <c r="D88" s="1">
-        <v>0.21517888334243501</v>
+        <v>0.21598434917620299</v>
       </c>
       <c r="E88" s="1">
         <v>0.22410481278404401</v>
@@ -1900,7 +1901,7 @@
         <v>-0.61660787157907004</v>
       </c>
       <c r="D89" s="1">
-        <v>-0.62689652286883601</v>
+        <v>-0.62276046433707899</v>
       </c>
       <c r="E89" s="1">
         <v>-0.63747358457910897</v>
@@ -1917,7 +1918,7 @@
         <v>-5.44418686034773E-2</v>
       </c>
       <c r="D90" s="1">
-        <v>-6.7770158404860406E-2</v>
+        <v>-5.8021444238247503E-2</v>
       </c>
       <c r="E90" s="1">
         <v>-7.2433101008962206E-2</v>
@@ -1934,7 +1935,7 @@
         <v>1.26979684275994</v>
       </c>
       <c r="D91" s="1">
-        <v>1.27513772765585</v>
+        <v>1.2786497749919901</v>
       </c>
       <c r="E91" s="1">
         <v>1.2727427017409201</v>
@@ -1951,7 +1952,7 @@
         <v>-0.25237380362080702</v>
       </c>
       <c r="D92" s="1">
-        <v>-0.25664477041300499</v>
+        <v>-0.255817838962203</v>
       </c>
       <c r="E92" s="1">
         <v>-0.26572422376291299</v>
@@ -1968,7 +1969,7 @@
         <v>-0.50553168441629004</v>
       </c>
       <c r="D93" s="1">
-        <v>-0.52176256051825698</v>
+        <v>-0.50919718483832199</v>
       </c>
       <c r="E93" s="1">
         <v>-0.52725636233578599</v>
@@ -1985,7 +1986,7 @@
         <v>0.442481385991564</v>
       </c>
       <c r="D94" s="1">
-        <v>0.43457036545077798</v>
+        <v>0.43720140917007599</v>
       </c>
       <c r="E94" s="1">
         <v>0.43736917367159101</v>
@@ -2002,7 +2003,7 @@
         <v>4.2118152978821898E-2</v>
       </c>
       <c r="D95" s="1">
-        <v>3.2864112787435597E-2</v>
+        <v>4.2357518124263999E-2</v>
       </c>
       <c r="E95" s="1">
         <v>2.89491731645759E-2</v>
@@ -2019,7 +2020,7 @@
         <v>0.41291798728596302</v>
       </c>
       <c r="D96" s="1">
-        <v>0.38570378886607698</v>
+        <v>0.40944670406931899</v>
       </c>
       <c r="E96" s="1">
         <v>0.37251030417383102</v>
@@ -2036,7 +2037,7 @@
         <v>-0.237708349062349</v>
       </c>
       <c r="D97" s="1">
-        <v>-0.244319680238652</v>
+        <v>-0.23314721318019199</v>
       </c>
       <c r="E97" s="1">
         <v>-0.2440936030926</v>
@@ -2053,7 +2054,7 @@
         <v>-1.38186648959928</v>
       </c>
       <c r="D98" s="1">
-        <v>-1.4371601449331499</v>
+        <v>-1.4011774857669601</v>
       </c>
       <c r="E98" s="1">
         <v>-1.4630846159893001</v>
@@ -2070,7 +2071,7 @@
         <v>0.48749635230015698</v>
       </c>
       <c r="D99" s="1">
-        <v>0.49341933635084501</v>
+        <v>0.48637395779290998</v>
       </c>
       <c r="E99" s="1">
         <v>0.49385371529653999</v>
@@ -2087,7 +2088,7 @@
         <v>0.70855104379328804</v>
       </c>
       <c r="D100" s="1">
-        <v>0.69914599483698603</v>
+        <v>0.70526188004394397</v>
       </c>
       <c r="E100" s="1">
         <v>0.70579270150046203</v>
@@ -2104,7 +2105,7 @@
         <v>1.5025750772750801</v>
       </c>
       <c r="D101" s="1">
-        <v>1.51365752128896</v>
+        <v>1.5133957661426301</v>
       </c>
       <c r="E101" s="1">
         <v>1.5261745041107799</v>
@@ -2121,7 +2122,7 @@
         <v>-9.5698468696604005E-2</v>
       </c>
       <c r="D102" s="1">
-        <v>-8.7659219211708495E-2</v>
+        <v>-9.3951048373255797E-2</v>
       </c>
       <c r="E102" s="1">
         <v>-8.3432149519053395E-2</v>
@@ -2138,7 +2139,7 @@
         <v>0.92160699877371</v>
       </c>
       <c r="D103" s="1">
-        <v>0.92211359418368799</v>
+        <v>0.923902592059483</v>
       </c>
       <c r="E103" s="1">
         <v>0.92239109143817199</v>
@@ -2155,7 +2156,7 @@
         <v>0.45157050076337502</v>
       </c>
       <c r="D104" s="1">
-        <v>0.45365361586723002</v>
+        <v>0.45547419381035897</v>
       </c>
       <c r="E104" s="1">
         <v>0.45646860316823001</v>
@@ -2172,7 +2173,7 @@
         <v>-0.89121852241330202</v>
       </c>
       <c r="D105" s="1">
-        <v>-0.91807115861865596</v>
+        <v>-0.90248347787778105</v>
       </c>
       <c r="E105" s="1">
         <v>-0.93985105388172996</v>
@@ -2189,7 +2190,7 @@
         <v>-7.7953113642583394E-2</v>
       </c>
       <c r="D106" s="1">
-        <v>-8.3855324585617202E-2</v>
+        <v>-8.0510631917031006E-2</v>
       </c>
       <c r="E106" s="1">
         <v>-9.0417545811711797E-2</v>
@@ -2206,7 +2207,7 @@
         <v>-5.6248513310220002E-2</v>
       </c>
       <c r="D107" s="1">
-        <v>-6.4153277817793702E-2</v>
+        <v>-5.8093436212343898E-2</v>
       </c>
       <c r="E107" s="1">
         <v>-7.1819447410864407E-2</v>
@@ -2223,7 +2224,7 @@
         <v>0.28666372723932099</v>
       </c>
       <c r="D108" s="1">
-        <v>0.296595818139199</v>
+        <v>0.293334905355502</v>
       </c>
       <c r="E108" s="1">
         <v>0.31108452392490299</v>
@@ -2240,7 +2241,7 @@
         <v>-1.48650833080003</v>
       </c>
       <c r="D109" s="1">
-        <v>-1.5261201389355501</v>
+        <v>-1.5074893463911401</v>
       </c>
       <c r="E109" s="1">
         <v>-1.5529027786924401</v>
@@ -2257,7 +2258,7 @@
         <v>0.72368301634392795</v>
       </c>
       <c r="D110" s="1">
-        <v>0.73791836747807804</v>
+        <v>0.73104056905208803</v>
       </c>
       <c r="E110" s="1">
         <v>0.75759822863447301</v>
@@ -2274,7 +2275,7 @@
         <v>-1.70895145676412</v>
       </c>
       <c r="D111" s="1">
-        <v>-1.73308785449206</v>
+        <v>-1.7195130663834699</v>
       </c>
       <c r="E111" s="1">
         <v>-1.7537195702376001</v>
@@ -2291,7 +2292,7 @@
         <v>0.264470894875516</v>
       </c>
       <c r="D112" s="1">
-        <v>0.29548706759295301</v>
+        <v>0.27905617930175403</v>
       </c>
       <c r="E112" s="1">
         <v>0.31656588695441601</v>
@@ -2308,7 +2309,7 @@
         <v>0.14197360121942501</v>
       </c>
       <c r="D113" s="1">
-        <v>0.131251512837748</v>
+        <v>0.13393099948259299</v>
       </c>
       <c r="E113" s="1">
         <v>0.120063074213358</v>
@@ -2325,7 +2326,7 @@
         <v>-0.366030052328919</v>
       </c>
       <c r="D114" s="1">
-        <v>-0.35112350733790298</v>
+        <v>-0.36106060192134198</v>
       </c>
       <c r="E114" s="1">
         <v>-0.33852860077608299</v>
@@ -2342,7 +2343,7 @@
         <v>-0.41814832094723903</v>
       </c>
       <c r="D115" s="1">
-        <v>-0.41296087984865398</v>
+        <v>-0.41528343796317502</v>
       </c>
       <c r="E115" s="1">
         <v>-0.40539934082304602</v>
@@ -2359,7 +2360,7 @@
         <v>-0.23784341697818601</v>
       </c>
       <c r="D116" s="1">
-        <v>-0.23018753354872101</v>
+        <v>-0.23374258152560501</v>
       </c>
       <c r="E116" s="1">
         <v>-0.22763161676698901</v>
@@ -2376,7 +2377,7 @@
         <v>-0.39666023995822097</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.39885159775371498</v>
+        <v>-0.40266390933238799</v>
       </c>
       <c r="E117" s="1">
         <v>-0.401292442982288</v>
@@ -2393,7 +2394,7 @@
         <v>-0.39786642074225398</v>
       </c>
       <c r="D118" s="1">
-        <v>-0.40496999362541702</v>
+        <v>-0.40059338974438202</v>
       </c>
       <c r="E118" s="1">
         <v>-0.40794400334312902</v>
@@ -2410,7 +2411,7 @@
         <v>1.7895614237433499</v>
       </c>
       <c r="D119" s="1">
-        <v>1.8199080950975599</v>
+        <v>1.8022794133320501</v>
       </c>
       <c r="E119" s="1">
         <v>1.83144752413262</v>
@@ -2427,7 +2428,7 @@
         <v>-0.43408451684815003</v>
       </c>
       <c r="D120" s="1">
-        <v>-0.43361776553329501</v>
+        <v>-0.43570195261076999</v>
       </c>
       <c r="E120" s="1">
         <v>-0.43691697251221501</v>
@@ -2444,7 +2445,7 @@
         <v>-0.467898303752109</v>
       </c>
       <c r="D121" s="1">
-        <v>-0.44384376279529197</v>
+        <v>-0.46094566977840001</v>
       </c>
       <c r="E121" s="1">
         <v>-0.42307633089331198</v>
@@ -2461,7 +2462,7 @@
         <v>0.33122852454694302</v>
       </c>
       <c r="D122" s="1">
-        <v>0.34570794111130798</v>
+        <v>0.33637995360074802</v>
       </c>
       <c r="E122" s="1">
         <v>0.35178183494023302</v>
@@ -2478,7 +2479,7 @@
         <v>-0.83202686697837502</v>
       </c>
       <c r="D123" s="1">
-        <v>-0.81902561749971603</v>
+        <v>-0.82631995829911298</v>
       </c>
       <c r="E123" s="1">
         <v>-0.80932270447635901</v>
@@ -2495,7 +2496,7 @@
         <v>6.6133223731634702E-3</v>
       </c>
       <c r="D124" s="1">
-        <v>1.2248488540379099E-2</v>
+        <v>1.13507158461187E-2</v>
       </c>
       <c r="E124" s="1">
         <v>9.4008578679345492E-3</v>
@@ -2512,7 +2513,7 @@
         <v>1.2824825308794701</v>
       </c>
       <c r="D125" s="1">
-        <v>1.29799787701841</v>
+        <v>1.29227922347164</v>
       </c>
       <c r="E125" s="1">
         <v>1.3158365774773899</v>
@@ -2529,7 +2530,7 @@
         <v>0.58458531729385599</v>
       </c>
       <c r="D126" s="1">
-        <v>0.58339746827604</v>
+        <v>0.58785804398961905</v>
       </c>
       <c r="E126" s="1">
         <v>0.58043651537044805</v>
@@ -2546,7 +2547,7 @@
         <v>-0.56131497518919404</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.56653855903582195</v>
+        <v>-0.56294644773679903</v>
       </c>
       <c r="E127" s="1">
         <v>-0.56781918521849495</v>
@@ -2563,7 +2564,7 @@
         <v>0.72045927009056998</v>
       </c>
       <c r="D128" s="1">
-        <v>0.72205206047390202</v>
+        <v>0.72079183394215396</v>
       </c>
       <c r="E128" s="1">
         <v>0.72153626374105295</v>
@@ -2580,7 +2581,7 @@
         <v>1.2689319085163</v>
       </c>
       <c r="D129" s="1">
-        <v>1.27771651748895</v>
+        <v>1.2736034147239299</v>
       </c>
       <c r="E129" s="1">
         <v>1.2926863047060899</v>
@@ -2597,7 +2598,7 @@
         <v>-0.42605584741524299</v>
       </c>
       <c r="D130" s="1">
-        <v>-0.45430083265198901</v>
+        <v>-0.444140959061255</v>
       </c>
       <c r="E130" s="1">
         <v>-0.47293760805142199</v>
@@ -2614,7 +2615,7 @@
         <v>-0.29130518244333398</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.28799413145525199</v>
+        <v>-0.29268441496648201</v>
       </c>
       <c r="E131" s="1">
         <v>-0.28451953133991298</v>
@@ -2631,7 +2632,7 @@
         <v>0.68050656685914201</v>
       </c>
       <c r="D132" s="1">
-        <v>0.69284939831564296</v>
+        <v>0.69251712710994995</v>
       </c>
       <c r="E132" s="1">
         <v>0.69311913137127201</v>
@@ -2648,7 +2649,7 @@
         <v>-8.5996154892421794E-3</v>
       </c>
       <c r="D133" s="1">
-        <v>-4.3542568108731498E-3</v>
+        <v>-9.3475397503878007E-3</v>
       </c>
       <c r="E133" s="1">
         <v>-6.7449366612421799E-3</v>
@@ -2665,7 +2666,7 @@
         <v>0.98375287740529105</v>
       </c>
       <c r="D134" s="1">
-        <v>1.01863025927901</v>
+        <v>1.0024044372368099</v>
       </c>
       <c r="E134" s="1">
         <v>1.04382396790341</v>
@@ -2682,7 +2683,7 @@
         <v>0.31240489179824099</v>
       </c>
       <c r="D135" s="1">
-        <v>0.33972989026122402</v>
+        <v>0.32547789316292097</v>
       </c>
       <c r="E135" s="1">
         <v>0.35747666552409801</v>
@@ -2699,7 +2700,7 @@
         <v>0.43318604228553698</v>
       </c>
       <c r="D136" s="1">
-        <v>0.42098346229008698</v>
+        <v>0.427526312695929</v>
       </c>
       <c r="E136" s="1">
         <v>0.41808026229822498</v>
@@ -2716,7 +2717,7 @@
         <v>-0.109674318833078</v>
       </c>
       <c r="D137" s="1">
-        <v>-0.126595872063232</v>
+        <v>-0.12089430506875</v>
       </c>
       <c r="E137" s="1">
         <v>-0.139070175359991</v>
@@ -2733,7 +2734,7 @@
         <v>0.51809103656952404</v>
       </c>
       <c r="D138" s="1">
-        <v>0.52117643619368703</v>
+        <v>0.52228404165808096</v>
       </c>
       <c r="E138" s="1">
         <v>0.52251211438508705</v>
@@ -2750,7 +2751,7 @@
         <v>0.60459472935962699</v>
       </c>
       <c r="D139" s="1">
-        <v>0.61227873838338698</v>
+        <v>0.60950417676577995</v>
       </c>
       <c r="E139" s="1">
         <v>0.61814331463900596</v>
@@ -2767,7 +2768,7 @@
         <v>-0.26463861128661198</v>
       </c>
       <c r="D140" s="1">
-        <v>-0.25807177211739901</v>
+        <v>-0.259966477936317</v>
       </c>
       <c r="E140" s="1">
         <v>-0.25773591602641199</v>
@@ -2784,7 +2785,7 @@
         <v>0.29693755383203901</v>
       </c>
       <c r="D141" s="1">
-        <v>0.28894101725570398</v>
+        <v>0.29518258929128799</v>
       </c>
       <c r="E141" s="1">
         <v>0.285795772067928</v>
@@ -2801,7 +2802,7 @@
         <v>0.50462075896496394</v>
       </c>
       <c r="D142" s="1">
-        <v>0.49737200533496101</v>
+        <v>0.50031093925667702</v>
       </c>
       <c r="E142" s="1">
         <v>0.49795791328632499</v>
@@ -2818,7 +2819,7 @@
         <v>-1.4286060815200301</v>
       </c>
       <c r="D143" s="1">
-        <v>-1.44184571312993</v>
+        <v>-1.4343080360468301</v>
       </c>
       <c r="E143" s="1">
         <v>-1.44580826422961</v>
@@ -2835,7 +2836,7 @@
         <v>0.79602969491683295</v>
       </c>
       <c r="D144" s="1">
-        <v>0.79814496683728597</v>
+        <v>0.80020599188577202</v>
       </c>
       <c r="E144" s="1">
         <v>0.80302518075704199</v>
@@ -2852,7 +2853,7 @@
         <v>9.9555402229573695E-2</v>
       </c>
       <c r="D145" s="1">
-        <v>8.4803634441073403E-2</v>
+        <v>9.0252730235959006E-2</v>
       </c>
       <c r="E145" s="1">
         <v>8.24366662788317E-2</v>
@@ -2869,7 +2870,7 @@
         <v>-0.40012259170576597</v>
       </c>
       <c r="D146" s="1">
-        <v>-0.40543018995685598</v>
+        <v>-0.40175416860355601</v>
       </c>
       <c r="E146" s="1">
         <v>-0.40621241554827198</v>
@@ -2886,7 +2887,7 @@
         <v>0.89626770690768098</v>
       </c>
       <c r="D147" s="1">
-        <v>0.91749596453875404</v>
+        <v>0.90450329034476895</v>
       </c>
       <c r="E147" s="1">
         <v>0.93392573112583099</v>
@@ -2903,7 +2904,7 @@
         <v>-0.34624438104420402</v>
       </c>
       <c r="D148" s="1">
-        <v>-0.35238776826247198</v>
+        <v>-0.34943012780677901</v>
       </c>
       <c r="E148" s="1">
         <v>-0.36012231426599201</v>
@@ -2920,7 +2921,7 @@
         <v>-0.28586161297954399</v>
       </c>
       <c r="D149" s="1">
-        <v>-0.27057058462607098</v>
+        <v>-0.28034167720521302</v>
       </c>
       <c r="E149" s="1">
         <v>-0.26515128167860402</v>
@@ -2937,7 +2938,7 @@
         <v>-2.1066528392810202</v>
       </c>
       <c r="D150" s="1">
-        <v>-2.0761048568464999</v>
+        <v>-2.0949743713923001</v>
       </c>
       <c r="E150" s="1">
         <v>-2.06316780009807</v>
@@ -2954,7 +2955,7 @@
         <v>0.73288239188010096</v>
       </c>
       <c r="D151" s="1">
-        <v>0.73665314737385401</v>
+        <v>0.73435426719546204</v>
       </c>
       <c r="E151" s="1">
         <v>0.73562120124671304</v>
@@ -2971,7 +2972,7 @@
         <v>-0.989976826047539</v>
       </c>
       <c r="D152" s="1">
-        <v>-0.98411717265148901</v>
+        <v>-0.99398267261149398</v>
       </c>
       <c r="E152" s="1">
         <v>-0.97933477002226699</v>
@@ -2988,7 +2989,7 @@
         <v>-0.26349507891846302</v>
       </c>
       <c r="D153" s="1">
-        <v>-0.27201964907024201</v>
+        <v>-0.26706194446526998</v>
       </c>
       <c r="E153" s="1">
         <v>-0.27465404328158799</v>
@@ -3005,7 +3006,7 @@
         <v>8.4441583693277797E-2</v>
       </c>
       <c r="D154" s="1">
-        <v>8.3834158046624405E-2</v>
+        <v>8.6853276846041993E-2</v>
       </c>
       <c r="E154" s="1">
         <v>9.1021062527979896E-2</v>
@@ -3022,7 +3023,7 @@
         <v>9.4280596406200998E-2</v>
       </c>
       <c r="D155" s="1">
-        <v>0.110061434338716</v>
+        <v>0.10353430162711</v>
       </c>
       <c r="E155" s="1">
         <v>0.11760627308372799</v>
@@ -3039,7 +3040,7 @@
         <v>0.95176757994661099</v>
       </c>
       <c r="D156" s="1">
-        <v>0.96462784757105802</v>
+        <v>0.95676195428553801</v>
       </c>
       <c r="E156" s="1">
         <v>0.97549357700640205</v>
@@ -3056,7 +3057,7 @@
         <v>0.1579959441263</v>
       </c>
       <c r="D157" s="1">
-        <v>0.16241772694492199</v>
+        <v>0.16089825431228399</v>
       </c>
       <c r="E157" s="1">
         <v>0.16823991277995901</v>
@@ -3073,7 +3074,7 @@
         <v>0.58237779488746499</v>
       </c>
       <c r="D158" s="1">
-        <v>0.59931074934893303</v>
+        <v>0.58776095831094899</v>
       </c>
       <c r="E158" s="1">
         <v>0.59986244853317605</v>
@@ -3090,7 +3091,7 @@
         <v>-0.484535301402437</v>
       </c>
       <c r="D159" s="1">
-        <v>-0.47312940430450501</v>
+        <v>-0.47944336540878002</v>
       </c>
       <c r="E159" s="1">
         <v>-0.473965404684</v>
@@ -3107,7 +3108,7 @@
         <v>0.87386629100413604</v>
       </c>
       <c r="D160" s="1">
-        <v>0.86791414325874405</v>
+        <v>0.87065872862693305</v>
       </c>
       <c r="E160" s="1">
         <v>0.85980108534740896</v>
@@ -3124,7 +3125,7 @@
         <v>0.85067487830190502</v>
       </c>
       <c r="D161" s="1">
-        <v>0.86400450774567905</v>
+        <v>0.856698287665831</v>
       </c>
       <c r="E161" s="1">
         <v>0.87771783822235006</v>
@@ -3141,7 +3142,7 @@
         <v>1.03978817868564</v>
       </c>
       <c r="D162" s="1">
-        <v>1.0493688379010999</v>
+        <v>1.0426202726673499</v>
       </c>
       <c r="E162" s="1">
         <v>1.05888102357791</v>
@@ -3158,7 +3159,7 @@
         <v>-3.8251199916194897E-2</v>
       </c>
       <c r="D163" s="1">
-        <v>-4.3467903910573903E-2</v>
+        <v>-4.0452449499275199E-2</v>
       </c>
       <c r="E163" s="1">
         <v>-4.5393583349106897E-2</v>
@@ -3175,7 +3176,7 @@
         <v>-0.30774322705490398</v>
       </c>
       <c r="D164" s="1">
-        <v>-0.33267438533912402</v>
+        <v>-0.31548017182182903</v>
       </c>
       <c r="E164" s="1">
         <v>-0.34410607019938699</v>
@@ -3192,7 +3193,7 @@
         <v>-0.87606867283766099</v>
       </c>
       <c r="D165" s="1">
-        <v>-0.87224211015708297</v>
+        <v>-0.87447295272836001</v>
       </c>
       <c r="E165" s="1">
         <v>-0.86898620882648103</v>
@@ -3209,7 +3210,7 @@
         <v>0.53780048760182797</v>
       </c>
       <c r="D166" s="1">
-        <v>0.53906076359942401</v>
+        <v>0.54108860943658499</v>
       </c>
       <c r="E166" s="1">
         <v>0.54255248646993703</v>
@@ -3226,7 +3227,7 @@
         <v>-0.21937942691475901</v>
       </c>
       <c r="D167" s="1">
-        <v>-0.218237748018588</v>
+        <v>-0.223948322380145</v>
       </c>
       <c r="E167" s="1">
         <v>-0.21525637048589499</v>
@@ -3243,7 +3244,7 @@
         <v>-0.63433941813999495</v>
       </c>
       <c r="D168" s="1">
-        <v>-0.63727051943317903</v>
+        <v>-0.64037176960620701</v>
       </c>
       <c r="E168" s="1">
         <v>-0.63956610074904496</v>
@@ -3260,7 +3261,7 @@
         <v>-0.63131068829793002</v>
       </c>
       <c r="D169" s="1">
-        <v>-0.585800238588014</v>
+        <v>-0.61049290315608395</v>
       </c>
       <c r="E169" s="1">
         <v>-0.55850763190937003</v>
@@ -3277,7 +3278,7 @@
         <v>-1.0730907582645099</v>
       </c>
       <c r="D170" s="1">
-        <v>-1.0258992418844799</v>
+        <v>-1.0528075247017601</v>
       </c>
       <c r="E170" s="1">
         <v>-1.0060556823150499</v>
@@ -3294,7 +3295,7 @@
         <v>0.224020425936858</v>
       </c>
       <c r="D171" s="1">
-        <v>0.206888553159912</v>
+        <v>0.21627954630276899</v>
       </c>
       <c r="E171" s="1">
         <v>0.19587560110039101</v>
@@ -3311,7 +3312,7 @@
         <v>-0.25889861070185299</v>
       </c>
       <c r="D172" s="1">
-        <v>-0.25251362779631598</v>
+        <v>-0.25705728792771698</v>
       </c>
       <c r="E172" s="1">
         <v>-0.24650468929351599</v>
@@ -3328,7 +3329,7 @@
         <v>-8.04658957527047E-3</v>
       </c>
       <c r="D173" s="1">
-        <v>-3.19489395233283E-2</v>
+        <v>-1.5755950647755E-2</v>
       </c>
       <c r="E173" s="1">
         <v>-4.1111210099763797E-2</v>
@@ -3345,7 +3346,7 @@
         <v>1.33261624374552</v>
       </c>
       <c r="D174" s="1">
-        <v>1.32003418011963</v>
+        <v>1.3293074843435899</v>
       </c>
       <c r="E174" s="1">
         <v>1.3287395541787601</v>
@@ -3362,7 +3363,7 @@
         <v>-0.38558783343725</v>
       </c>
       <c r="D175" s="1">
-        <v>-0.39108033192150798</v>
+        <v>-0.390552336528393</v>
       </c>
       <c r="E175" s="1">
         <v>-0.39959763968596401</v>
@@ -3379,7 +3380,7 @@
         <v>-0.62913876432557503</v>
       </c>
       <c r="D176" s="1">
-        <v>-0.62609306550352095</v>
+        <v>-0.62422166757852404</v>
       </c>
       <c r="E176" s="1">
         <v>-0.62043779128070797</v>
@@ -3396,7 +3397,7 @@
         <v>0.90315258297282597</v>
       </c>
       <c r="D177" s="1">
-        <v>0.90684560056071595</v>
+        <v>0.90717801619951299</v>
       </c>
       <c r="E177" s="1">
         <v>0.91450851371541797</v>
@@ -3413,7 +3414,7 @@
         <v>-0.20349284423792499</v>
       </c>
       <c r="D178" s="1">
-        <v>-0.18514914833126001</v>
+        <v>-0.19332614562434999</v>
       </c>
       <c r="E178" s="1">
         <v>-0.17644169570959001</v>
@@ -3430,7 +3431,7 @@
         <v>1.3398707791965101</v>
       </c>
       <c r="D179" s="1">
-        <v>1.3508591496542901</v>
+        <v>1.34440629712547</v>
       </c>
       <c r="E179" s="1">
         <v>1.3511792930376301</v>
@@ -3447,7 +3448,7 @@
         <v>5.4955441372980002E-2</v>
       </c>
       <c r="D180" s="1">
-        <v>3.1420701719920702E-2</v>
+        <v>4.7086316374069202E-2</v>
       </c>
       <c r="E180" s="1">
         <v>2.6600379432506802E-2</v>
@@ -3464,7 +3465,7 @@
         <v>-4.64611152042467E-2</v>
       </c>
       <c r="D181" s="1">
-        <v>-4.2411600627747501E-2</v>
+        <v>-4.6728950993223599E-2</v>
       </c>
       <c r="E181" s="1">
         <v>-5.4646264272167698E-2</v>
@@ -3481,7 +3482,7 @@
         <v>0.56994452176710297</v>
       </c>
       <c r="D182" s="1">
-        <v>0.58507237291441305</v>
+        <v>0.57504345526438405</v>
       </c>
       <c r="E182" s="1">
         <v>0.60587947274806597</v>
@@ -3498,7 +3499,7 @@
         <v>-0.253044524104792</v>
       </c>
       <c r="D183" s="1">
-        <v>-0.25351305573828598</v>
+        <v>-0.25383536044062999</v>
       </c>
       <c r="E183" s="1">
         <v>-0.24908571506586899</v>
@@ -3515,7 +3516,7 @@
         <v>0.41243067549636198</v>
       </c>
       <c r="D184" s="1">
-        <v>0.39481064234784602</v>
+        <v>0.40461575409802197</v>
       </c>
       <c r="E184" s="1">
         <v>0.39175031704645602</v>
@@ -3532,7 +3533,7 @@
         <v>-1.2515076517066801</v>
       </c>
       <c r="D185" s="1">
-        <v>-1.27388811219515</v>
+        <v>-1.2653988173505499</v>
       </c>
       <c r="E185" s="1">
         <v>-1.29539176808089</v>
@@ -3549,7 +3550,7 @@
         <v>-0.51152417997368804</v>
       </c>
       <c r="D186" s="1">
-        <v>-0.497063447520325</v>
+        <v>-0.50518332113714604</v>
       </c>
       <c r="E186" s="1">
         <v>-0.48974734462646602</v>
@@ -3566,7 +3567,7 @@
         <v>-1.3783536205034099</v>
       </c>
       <c r="D187" s="1">
-        <v>-1.3938680577561999</v>
+        <v>-1.3850855107220501</v>
       </c>
       <c r="E187" s="1">
         <v>-1.41119319340959</v>
@@ -3583,7 +3584,7 @@
         <v>-1.8745160018093801</v>
       </c>
       <c r="D188" s="1">
-        <v>-1.8449345963563599</v>
+        <v>-1.86216143583084</v>
       </c>
       <c r="E188" s="1">
         <v>-1.84458022946393</v>
@@ -3600,7 +3601,7 @@
         <v>-0.62018089731496495</v>
       </c>
       <c r="D189" s="1">
-        <v>-0.62924552203295203</v>
+        <v>-0.62824964223068303</v>
       </c>
       <c r="E189" s="1">
         <v>-0.63296823470195895</v>
@@ -3617,7 +3618,7 @@
         <v>0.15331882087750201</v>
       </c>
       <c r="D190" s="1">
-        <v>0.18003800843283399</v>
+        <v>0.16429535734994</v>
       </c>
       <c r="E190" s="1">
         <v>0.18438979341106199</v>
@@ -3634,7 +3635,7 @@
         <v>-6.2978807343934102</v>
       </c>
       <c r="D191" s="1">
-        <v>-6.2795701857201101</v>
+        <v>-6.2893780234019001</v>
       </c>
       <c r="E191" s="1">
         <v>-6.2820357606879096</v>
@@ -3651,7 +3652,7 @@
         <v>2.5467361539380202</v>
       </c>
       <c r="D192" s="1">
-        <v>2.57934777164887</v>
+        <v>2.5635007327393802</v>
       </c>
       <c r="E192" s="1">
         <v>2.59427876366945</v>
@@ -3668,7 +3669,7 @@
         <v>-1.52306519614487</v>
       </c>
       <c r="D193" s="1">
-        <v>-1.56377881188751</v>
+        <v>-1.5436060300698999</v>
       </c>
       <c r="E193" s="1">
         <v>-1.58414051820597</v>
@@ -3685,7 +3686,7 @@
         <v>0.82687342781666695</v>
       </c>
       <c r="D194" s="1">
-        <v>0.841973308307849</v>
+        <v>0.82903990467265698</v>
       </c>
       <c r="E194" s="1">
         <v>0.856700777405761</v>
@@ -3702,7 +3703,7 @@
         <v>-3.6772778176906502E-2</v>
       </c>
       <c r="D195" s="1">
-        <v>-4.5278834043170402E-2</v>
+        <v>-4.1941844630518303E-2</v>
       </c>
       <c r="E195" s="1">
         <v>-5.3408402408971802E-2</v>
@@ -3719,7 +3720,7 @@
         <v>-0.237024866179047</v>
       </c>
       <c r="D196" s="1">
-        <v>-0.23838038347714599</v>
+        <v>-0.23765351011497601</v>
       </c>
       <c r="E196" s="1">
         <v>-0.233246134749335</v>
@@ -3736,7 +3737,7 @@
         <v>-0.32597419691893198</v>
       </c>
       <c r="D197" s="1">
-        <v>-0.32691092082045697</v>
+        <v>-0.32365026637550398</v>
       </c>
       <c r="E197" s="1">
         <v>-0.32211126195311601</v>
@@ -3753,7 +3754,7 @@
         <v>0.51492837508741696</v>
       </c>
       <c r="D198" s="1">
-        <v>0.50815707358614304</v>
+        <v>0.50814948433259299</v>
       </c>
       <c r="E198" s="1">
         <v>0.50503646427776205</v>
@@ -3770,7 +3771,7 @@
         <v>-1.93800456378733</v>
       </c>
       <c r="D199" s="1">
-        <v>-1.94485329461453</v>
+        <v>-1.9463525201301699</v>
       </c>
       <c r="E199" s="1">
         <v>-1.9509660955027099</v>
@@ -3787,7 +3788,7 @@
         <v>-0.137042658159412</v>
       </c>
       <c r="D200" s="1">
-        <v>-0.125753246686507</v>
+        <v>-0.13166914346314801</v>
       </c>
       <c r="E200" s="1">
         <v>-0.117947315741258</v>
@@ -3804,7 +3805,7 @@
         <v>-2.3075026418612401</v>
       </c>
       <c r="D201" s="1">
-        <v>-2.2817654455824199</v>
+        <v>-2.3046228801651201</v>
       </c>
       <c r="E201" s="1">
         <v>-2.2674541248458802</v>
@@ -3821,7 +3822,7 @@
         <v>-0.62372808826369497</v>
       </c>
       <c r="D202" s="1">
-        <v>-0.61673963030968504</v>
+        <v>-0.61830349068707802</v>
       </c>
       <c r="E202" s="1">
         <v>-0.61831037111360199</v>
@@ -3838,7 +3839,7 @@
         <v>0.25393008616259799</v>
       </c>
       <c r="D203" s="1">
-        <v>0.26441345532393601</v>
+        <v>0.260016811626396</v>
       </c>
       <c r="E203" s="1">
         <v>0.27076265792788001</v>
@@ -3855,7 +3856,7 @@
         <v>0.17250024229556801</v>
       </c>
       <c r="D204" s="1">
-        <v>0.17817460913171301</v>
+        <v>0.17374586280554799</v>
       </c>
       <c r="E204" s="1">
         <v>0.19028970999013001</v>
@@ -3872,7 +3873,7 @@
         <v>2.9915503866700699</v>
       </c>
       <c r="D205" s="1">
-        <v>3.0057243835969301</v>
+        <v>3.00401153964805</v>
       </c>
       <c r="E205" s="1">
         <v>3.01872092231973</v>
@@ -3889,7 +3890,7 @@
         <v>0.48410377143137301</v>
       </c>
       <c r="D206" s="1">
-        <v>0.45467667313157401</v>
+        <v>0.46984780766595202</v>
       </c>
       <c r="E206" s="1">
         <v>0.42459587758216699</v>
@@ -3906,7 +3907,7 @@
         <v>0.657876371351788</v>
       </c>
       <c r="D207" s="1">
-        <v>0.65050364658466098</v>
+        <v>0.65587203349351797</v>
       </c>
       <c r="E207" s="1">
         <v>0.64141460851659204</v>
@@ -3923,7 +3924,7 @@
         <v>-0.21858941087703199</v>
       </c>
       <c r="D208" s="1">
-        <v>-0.217669602222578</v>
+        <v>-0.218302838515124</v>
       </c>
       <c r="E208" s="1">
         <v>-0.22730778607989</v>
@@ -3940,7 +3941,7 @@
         <v>-0.77564886714403902</v>
       </c>
       <c r="D209" s="1">
-        <v>-0.77415396200433595</v>
+        <v>-0.77645620266870696</v>
       </c>
       <c r="E209" s="1">
         <v>-0.76306179237585403</v>
@@ -3957,7 +3958,7 @@
         <v>0.84892645858959903</v>
       </c>
       <c r="D210" s="1">
-        <v>0.82859553744547298</v>
+        <v>0.84354853867791302</v>
       </c>
       <c r="E210" s="1">
         <v>0.80263052873989704</v>
@@ -3974,7 +3975,7 @@
         <v>0.292659773214277</v>
       </c>
       <c r="D211" s="1">
-        <v>0.29619120813518701</v>
+        <v>0.29350063574035601</v>
       </c>
       <c r="E211" s="1">
         <v>0.29432670819113299</v>
@@ -3991,7 +3992,7 @@
         <v>-1.19504098084281</v>
       </c>
       <c r="D212" s="1">
-        <v>-1.2180949903637099</v>
+        <v>-1.20780513819957</v>
       </c>
       <c r="E212" s="1">
         <v>-1.2431722081344001</v>
@@ -4008,7 +4009,7 @@
         <v>2.3942483654702001E-2</v>
       </c>
       <c r="D213" s="1">
-        <v>3.3604256922305099E-2</v>
+        <v>2.74282876232235E-2</v>
       </c>
       <c r="E213" s="1">
         <v>3.6637208250467797E-2</v>
@@ -4025,7 +4026,7 @@
         <v>-0.63341366815987099</v>
       </c>
       <c r="D214" s="1">
-        <v>-0.64997196098195098</v>
+        <v>-0.64149454912154302</v>
       </c>
       <c r="E214" s="1">
         <v>-0.65839652719363095</v>
@@ -4042,7 +4043,7 @@
         <v>7.5653438980024398E-2</v>
       </c>
       <c r="D215" s="1">
-        <v>6.7017503032560405E-2</v>
+        <v>6.9241102873530205E-2</v>
       </c>
       <c r="E215" s="1">
         <v>5.6650019649944802E-2</v>
@@ -4059,7 +4060,7 @@
         <v>0.415358252279592</v>
       </c>
       <c r="D216" s="1">
-        <v>0.42496052390710398</v>
+        <v>0.41885009736579898</v>
       </c>
       <c r="E216" s="1">
         <v>0.41759647003006201</v>
@@ -4076,7 +4077,7 @@
         <v>-0.32281553142129399</v>
       </c>
       <c r="D217" s="1">
-        <v>-0.35281505700091398</v>
+        <v>-0.33454082161299398</v>
       </c>
       <c r="E217" s="1">
         <v>-0.37607127343768298</v>
@@ -4093,7 +4094,7 @@
         <v>0.25367482630936999</v>
       </c>
       <c r="D218" s="1">
-        <v>0.22248444041159701</v>
+        <v>0.24520130463179701</v>
       </c>
       <c r="E218" s="1">
         <v>0.20833188986822601</v>
@@ -4110,7 +4111,7 @@
         <v>-0.98582785124842098</v>
       </c>
       <c r="D219" s="1">
-        <v>-1.00321106988616</v>
+        <v>-0.992705346898755</v>
       </c>
       <c r="E219" s="1">
         <v>-1.0098257254976699</v>
@@ -4127,7 +4128,7 @@
         <v>-5.0193793286209799E-2</v>
       </c>
       <c r="D220" s="1">
-        <v>-5.37348569614573E-2</v>
+        <v>-5.3869158738651703E-2</v>
       </c>
       <c r="E220" s="1">
         <v>-6.6140398834120803E-2</v>
@@ -4144,7 +4145,7 @@
         <v>-0.32209168524611997</v>
       </c>
       <c r="D221" s="1">
-        <v>-0.311701014926002</v>
+        <v>-0.31525660667051197</v>
       </c>
       <c r="E221" s="1">
         <v>-0.313698793521408</v>
@@ -4161,7 +4162,7 @@
         <v>-0.43013037857194503</v>
       </c>
       <c r="D222" s="1">
-        <v>-0.42048324106858398</v>
+        <v>-0.42816914675940498</v>
       </c>
       <c r="E222" s="1">
         <v>-0.41499491781832698</v>
@@ -4178,7 +4179,7 @@
         <v>1.0312310346384099</v>
       </c>
       <c r="D223" s="1">
-        <v>1.0226120911018699</v>
+        <v>1.0292547031803501</v>
       </c>
       <c r="E223" s="1">
         <v>1.01876402104333</v>
@@ -4195,7 +4196,7 @@
         <v>7.5700348859297106E-2</v>
       </c>
       <c r="D224" s="1">
-        <v>4.0316585633017502E-2</v>
+        <v>6.1256350830209701E-2</v>
       </c>
       <c r="E224" s="1">
         <v>2.14460823073894E-2</v>
@@ -4212,7 +4213,7 @@
         <v>1.1695861390834701</v>
       </c>
       <c r="D225" s="1">
-        <v>1.16467222314993</v>
+        <v>1.1656071812251201</v>
       </c>
       <c r="E225" s="1">
         <v>1.1643616929206899</v>
@@ -4229,7 +4230,7 @@
         <v>-4.08635228624675E-2</v>
       </c>
       <c r="D226" s="1">
-        <v>-5.5601975792005001E-2</v>
+        <v>-4.4641313653164198E-2</v>
       </c>
       <c r="E226" s="1">
         <v>-6.3458293055406095E-2</v>
@@ -4246,7 +4247,7 @@
         <v>1.03183234434281E-3</v>
       </c>
       <c r="D227" s="1">
-        <v>-1.7483907906651601E-2</v>
+        <v>-5.3052379012533697E-3</v>
       </c>
       <c r="E227" s="1">
         <v>-2.1013643284181999E-2</v>
@@ -4263,7 +4264,7 @@
         <v>2.6279789691670299</v>
       </c>
       <c r="D228" s="1">
-        <v>2.6328914435480599</v>
+        <v>2.6279768168505901</v>
       </c>
       <c r="E228" s="1">
         <v>2.6327328097824401</v>
@@ -4280,7 +4281,7 @@
         <v>-0.57543196967911403</v>
       </c>
       <c r="D229" s="1">
-        <v>-0.59487858718611897</v>
+        <v>-0.58472274322304296</v>
       </c>
       <c r="E229" s="1">
         <v>-0.60877184647039395</v>
@@ -4297,7 +4298,7 @@
         <v>-1.7135914138399999</v>
       </c>
       <c r="D230" s="1">
-        <v>-1.7405246366335301</v>
+        <v>-1.7307853726753</v>
       </c>
       <c r="E230" s="1">
         <v>-1.76390571509299</v>
@@ -4314,7 +4315,7 @@
         <v>-2.3305966130980198</v>
       </c>
       <c r="D231" s="1">
-        <v>-2.31202253658138</v>
+        <v>-2.3251304311302401</v>
       </c>
       <c r="E231" s="1">
         <v>-2.2969389443658299</v>
@@ -4331,7 +4332,7 @@
         <v>0.77312377853434899</v>
       </c>
       <c r="D232" s="1">
-        <v>0.74191473760153404</v>
+        <v>0.76169481360906</v>
       </c>
       <c r="E232" s="1">
         <v>0.72843898950755903</v>
@@ -4348,7 +4349,7 @@
         <v>-1.1754454060627899</v>
       </c>
       <c r="D233" s="1">
-        <v>-1.16487677805309</v>
+        <v>-1.1700188991757901</v>
       </c>
       <c r="E233" s="1">
         <v>-1.1650311622085501</v>
@@ -4365,7 +4366,7 @@
         <v>0.62820794574879801</v>
       </c>
       <c r="D234" s="1">
-        <v>0.62192813264883196</v>
+        <v>0.62452957091389805</v>
       </c>
       <c r="E234" s="1">
         <v>0.622113159958949</v>
@@ -4382,7 +4383,7 @@
         <v>1.1264678399600201</v>
       </c>
       <c r="D235" s="1">
-        <v>1.11720477507086</v>
+        <v>1.12534791188917</v>
       </c>
       <c r="E235" s="1">
         <v>1.1085851068442101</v>
@@ -4399,7 +4400,7 @@
         <v>0.45158252479724098</v>
       </c>
       <c r="D236" s="1">
-        <v>0.46158873765486402</v>
+        <v>0.45382256440191698</v>
       </c>
       <c r="E236" s="1">
         <v>0.470741160930849</v>
@@ -4416,7 +4417,7 @@
         <v>-0.89008600259918602</v>
       </c>
       <c r="D237" s="1">
-        <v>-0.90898180854972199</v>
+        <v>-0.89836160652642405</v>
       </c>
       <c r="E237" s="1">
         <v>-0.92010424474885</v>
@@ -4433,7 +4434,7 @@
         <v>0.15665455629737399</v>
       </c>
       <c r="D238" s="1">
-        <v>0.162003154716441</v>
+        <v>0.16123728090235001</v>
       </c>
       <c r="E238" s="1">
         <v>0.164513854277619</v>
@@ -4450,7 +4451,7 @@
         <v>-0.69571329068931298</v>
       </c>
       <c r="D239" s="1">
-        <v>-0.68640472920870399</v>
+        <v>-0.68861952289341</v>
       </c>
       <c r="E239" s="1">
         <v>-0.67925945393865905</v>
@@ -4467,7 +4468,7 @@
         <v>0.69791651030003599</v>
       </c>
       <c r="D240" s="1">
-        <v>0.72268460353885799</v>
+        <v>0.70867390024735799</v>
       </c>
       <c r="E240" s="1">
         <v>0.73668123532145302</v>
@@ -4484,7 +4485,7 @@
         <v>-1.10827853332058</v>
       </c>
       <c r="D241" s="1">
-        <v>-1.10646010931632</v>
+        <v>-1.10528695706271</v>
       </c>
       <c r="E241" s="1">
         <v>-1.1088056049030099</v>
@@ -4501,7 +4502,7 @@
         <v>1.17633603672527E-3</v>
       </c>
       <c r="D242" s="1">
-        <v>-1.0099366411760499E-2</v>
+        <v>-2.1121158715652201E-3</v>
       </c>
       <c r="E242" s="1">
         <v>-1.52664338165567E-2</v>
@@ -4518,7 +4519,7 @@
         <v>-0.35532148646739398</v>
       </c>
       <c r="D243" s="1">
-        <v>-0.37699560458286402</v>
+        <v>-0.3635632504029</v>
       </c>
       <c r="E243" s="1">
         <v>-0.38490070069625798</v>
@@ -4535,7 +4536,7 @@
         <v>-9.3023640361003204E-2</v>
       </c>
       <c r="D244" s="1">
-        <v>-0.121565023247183</v>
+        <v>-0.10473020004743901</v>
       </c>
       <c r="E244" s="1">
         <v>-0.140746531485062</v>
@@ -4552,7 +4553,7 @@
         <v>-1.1711999260707699</v>
       </c>
       <c r="D245" s="1">
-        <v>-1.16647052703387</v>
+        <v>-1.1682526984532899</v>
       </c>
       <c r="E245" s="1">
         <v>-1.1737216201402301</v>
@@ -4569,7 +4570,7 @@
         <v>-0.51675725795787797</v>
       </c>
       <c r="D246" s="1">
-        <v>-0.51010963992633795</v>
+        <v>-0.51495825021771002</v>
       </c>
       <c r="E246" s="1">
         <v>-0.50005457730553804</v>
@@ -4586,7 +4587,7 @@
         <v>1.7740004345819</v>
       </c>
       <c r="D247" s="1">
-        <v>1.8002799121295401</v>
+        <v>1.7842266059654901</v>
       </c>
       <c r="E247" s="1">
         <v>1.82124139679349</v>
@@ -4603,7 +4604,7 @@
         <v>0.93765863377793901</v>
       </c>
       <c r="D248" s="1">
-        <v>0.95287241717122895</v>
+        <v>0.94961151420384105</v>
       </c>
       <c r="E248" s="1">
         <v>0.96382610597024398</v>
@@ -4620,7 +4621,7 @@
         <v>-1.82911805911231</v>
       </c>
       <c r="D249" s="1">
-        <v>-1.87899051206961</v>
+        <v>-1.85476307783098</v>
       </c>
       <c r="E249" s="1">
         <v>-1.9168600418073101</v>
@@ -4637,7 +4638,7 @@
         <v>-0.66511225133113205</v>
       </c>
       <c r="D250" s="1">
-        <v>-0.661178324540455</v>
+        <v>-0.66614743246927999</v>
       </c>
       <c r="E250" s="1">
         <v>-0.66026194692231799</v>
@@ -4654,7 +4655,7 @@
         <v>-1.1883212928378</v>
       </c>
       <c r="D251" s="1">
-        <v>-1.20289801987268</v>
+        <v>-1.1978409432749699</v>
       </c>
       <c r="E251" s="1">
         <v>-1.21750439887151</v>
@@ -4671,7 +4672,7 @@
         <v>2.2798667168201798</v>
       </c>
       <c r="D252" s="1">
-        <v>2.2900447739814398</v>
+        <v>2.28440316621609</v>
       </c>
       <c r="E252" s="1">
         <v>2.30265088999144</v>
@@ -4688,7 +4689,7 @@
         <v>-0.30328651159231002</v>
       </c>
       <c r="D253" s="1">
-        <v>-0.320570566311355</v>
+        <v>-0.31077193989692498</v>
       </c>
       <c r="E253" s="1">
         <v>-0.32829174764772301</v>
@@ -4705,7 +4706,7 @@
         <v>1.88449941211871</v>
       </c>
       <c r="D254" s="1">
-        <v>1.9081756318445799</v>
+        <v>1.8984417136698599</v>
       </c>
       <c r="E254" s="1">
         <v>1.93225316094557</v>
@@ -4722,7 +4723,7 @@
         <v>-0.185762636659762</v>
       </c>
       <c r="D255" s="1">
-        <v>-0.18608449719186401</v>
+        <v>-0.18485361192046099</v>
       </c>
       <c r="E255" s="1">
         <v>-0.19139295296872999</v>
@@ -4739,7 +4740,7 @@
         <v>0.43112221451821803</v>
       </c>
       <c r="D256" s="1">
-        <v>0.45689237315932202</v>
+        <v>0.44304888524529401</v>
       </c>
       <c r="E256" s="1">
         <v>0.47027758631605898</v>
@@ -4756,7 +4757,7 @@
         <v>-0.53172090875990596</v>
       </c>
       <c r="D257" s="1">
-        <v>-0.54120272665679703</v>
+        <v>-0.53878056206527203</v>
       </c>
       <c r="E257" s="1">
         <v>-0.54320842098709798</v>
@@ -4773,7 +4774,7 @@
         <v>1.0435624003881201</v>
       </c>
       <c r="D258" s="1">
-        <v>1.05998207054308</v>
+        <v>1.0544482281118199</v>
       </c>
       <c r="E258" s="1">
         <v>1.0682026625782</v>
@@ -4790,7 +4791,7 @@
         <v>-0.478399752524371</v>
       </c>
       <c r="D259" s="1">
-        <v>-0.50792431704990904</v>
+        <v>-0.487286186962269</v>
       </c>
       <c r="E259" s="1">
         <v>-0.52109817936121205</v>
@@ -4807,7 +4808,7 @@
         <v>0.27803192314835201</v>
       </c>
       <c r="D260" s="1">
-        <v>0.29110923597849198</v>
+        <v>0.28093955288014799</v>
       </c>
       <c r="E260" s="1">
         <v>0.29441516046989302</v>
@@ -4824,7 +4825,7 @@
         <v>0.48163712454878299</v>
       </c>
       <c r="D261" s="1">
-        <v>0.47849601709474099</v>
+        <v>0.48219451859782703</v>
       </c>
       <c r="E261" s="1">
         <v>0.470135826319726</v>
@@ -4841,7 +4842,7 @@
         <v>0.54801319589943798</v>
       </c>
       <c r="D262" s="1">
-        <v>0.55830711790036502</v>
+        <v>0.55479664452237598</v>
       </c>
       <c r="E262" s="1">
         <v>0.563554334164449</v>
@@ -4858,7 +4859,7 @@
         <v>7.9500186236856396E-2</v>
       </c>
       <c r="D263" s="1">
-        <v>0.102081078742668</v>
+        <v>8.7401447359090598E-2</v>
       </c>
       <c r="E263" s="1">
         <v>0.114628648112619</v>
@@ -4875,7 +4876,7 @@
         <v>-0.51481587021820996</v>
       </c>
       <c r="D264" s="1">
-        <v>-0.53595439379249699</v>
+        <v>-0.52415340129063404</v>
       </c>
       <c r="E264" s="1">
         <v>-0.55473010447105098</v>
@@ -4892,7 +4893,7 @@
         <v>0.31246204168891201</v>
       </c>
       <c r="D265" s="1">
-        <v>0.30637645742672198</v>
+        <v>0.30951517731085898</v>
       </c>
       <c r="E265" s="1">
         <v>0.31066564724722401</v>
@@ -4909,7 +4910,7 @@
         <v>0.95754301321458501</v>
       </c>
       <c r="D266" s="1">
-        <v>0.96864279127709896</v>
+        <v>0.96410577003551001</v>
       </c>
       <c r="E266" s="1">
         <v>0.97222584029763603</v>
@@ -4926,7 +4927,7 @@
         <v>0.44733332849595497</v>
       </c>
       <c r="D267" s="1">
-        <v>0.44787462014122598</v>
+        <v>0.44756962013643597</v>
       </c>
       <c r="E267" s="1">
         <v>0.44057694807333803</v>
@@ -4943,7 +4944,7 @@
         <v>-0.84379200429266199</v>
       </c>
       <c r="D268" s="1">
-        <v>-0.86602277460377297</v>
+        <v>-0.85768371844446201</v>
       </c>
       <c r="E268" s="1">
         <v>-0.878904208791779</v>
@@ -4960,7 +4961,7 @@
         <v>-9.3797963101082404E-3</v>
       </c>
       <c r="D269" s="1">
-        <v>-1.1544788790903499E-2</v>
+        <v>-1.20591225733193E-2</v>
       </c>
       <c r="E269" s="1">
         <v>-1.7440821614445799E-2</v>
@@ -4977,7 +4978,7 @@
         <v>0.78596499304197698</v>
       </c>
       <c r="D270" s="1">
-        <v>0.77362072540841997</v>
+        <v>0.78026076624540697</v>
       </c>
       <c r="E270" s="1">
         <v>0.77237634639109598</v>
@@ -4994,7 +4995,7 @@
         <v>0.932534406113252</v>
       </c>
       <c r="D271" s="1">
-        <v>0.923273018642772</v>
+        <v>0.92604329012759501</v>
       </c>
       <c r="E271" s="1">
         <v>0.93709182711805805</v>
@@ -5011,7 +5012,7 @@
         <v>-0.106141833025961</v>
       </c>
       <c r="D272" s="1">
-        <v>-0.12588930287759101</v>
+        <v>-0.114026178304865</v>
       </c>
       <c r="E272" s="1">
         <v>-0.13799072140153901</v>
@@ -5028,7 +5029,7 @@
         <v>-5.0467630720282798E-2</v>
       </c>
       <c r="D273" s="1">
-        <v>-7.0331263605313402E-2</v>
+        <v>-5.7061063075553302E-2</v>
       </c>
       <c r="E273" s="1">
         <v>-7.9549490073369797E-2</v>
@@ -5045,7 +5046,7 @@
         <v>-0.240531614334034</v>
       </c>
       <c r="D274" s="1">
-        <v>-0.23316737099741</v>
+        <v>-0.235324959835638</v>
       </c>
       <c r="E274" s="1">
         <v>-0.23920227495846999</v>
@@ -5062,7 +5063,7 @@
         <v>0.81600231052832595</v>
       </c>
       <c r="D275" s="1">
-        <v>0.81745986967821405</v>
+        <v>0.82174362497861797</v>
       </c>
       <c r="E275" s="1">
         <v>0.81546998037426999</v>
@@ -5079,7 +5080,7 @@
         <v>4.8898715063156198E-2</v>
       </c>
       <c r="D276" s="1">
-        <v>3.53019083779883E-2</v>
+        <v>4.3511166809928802E-2</v>
       </c>
       <c r="E276" s="1">
         <v>1.5968350844650901E-2</v>
@@ -5096,7 +5097,7 @@
         <v>1.21460163677685</v>
       </c>
       <c r="D277" s="1">
-        <v>1.23410597513343</v>
+        <v>1.2243593312890899</v>
       </c>
       <c r="E277" s="1">
         <v>1.2479880614910701</v>
@@ -5113,7 +5114,7 @@
         <v>0.46667370555249199</v>
       </c>
       <c r="D278" s="1">
-        <v>0.47201878314126</v>
+        <v>0.469168607794481</v>
       </c>
       <c r="E278" s="1">
         <v>0.476657137179685</v>
@@ -5130,7 +5131,7 @@
         <v>4.6604533726573402E-2</v>
       </c>
       <c r="D279" s="1">
-        <v>5.7104879681420598E-2</v>
+        <v>5.0907476477799501E-2</v>
       </c>
       <c r="E279" s="1">
         <v>6.6793744338498995E-2</v>
@@ -5147,7 +5148,7 @@
         <v>0.64871787508068801</v>
       </c>
       <c r="D280" s="1">
-        <v>0.65160902804527498</v>
+        <v>0.64943874905936405</v>
       </c>
       <c r="E280" s="1">
         <v>0.65263007451933597</v>
@@ -5164,7 +5165,7 @@
         <v>2.95177007425876E-2</v>
       </c>
       <c r="D281" s="1">
-        <v>4.4749626321121297E-2</v>
+        <v>3.4456597044748599E-2</v>
       </c>
       <c r="E281" s="1">
         <v>5.6922372226635001E-2</v>
@@ -5181,7 +5182,7 @@
         <v>1.7293664870979299E-3</v>
       </c>
       <c r="D282" s="1">
-        <v>5.4284192461324801E-3</v>
+        <v>-1.39488385856571E-3</v>
       </c>
       <c r="E282" s="1">
         <v>6.5594324482791998E-3</v>
@@ -5198,7 +5199,7 @@
         <v>-0.40287447479749</v>
       </c>
       <c r="D283" s="1">
-        <v>-0.42938363478412001</v>
+        <v>-0.41561208316006898</v>
       </c>
       <c r="E283" s="1">
         <v>-0.45260386713533002</v>
@@ -5215,7 +5216,7 @@
         <v>-0.44738466667486498</v>
       </c>
       <c r="D284" s="1">
-        <v>-0.45209540687527799</v>
+        <v>-0.44587926878463702</v>
       </c>
       <c r="E284" s="1">
         <v>-0.45842431911290998</v>
@@ -5232,7 +5233,7 @@
         <v>0.51604124407056695</v>
       </c>
       <c r="D285" s="1">
-        <v>0.52245081038286301</v>
+        <v>0.52120544887481302</v>
       </c>
       <c r="E285" s="1">
         <v>0.527601182265101</v>
@@ -5249,7 +5250,7 @@
         <v>-0.425915308564006</v>
       </c>
       <c r="D286" s="1">
-        <v>-0.40539405115768801</v>
+        <v>-0.417235103658329</v>
       </c>
       <c r="E286" s="1">
         <v>-0.387985740541406</v>
@@ -5266,7 +5267,7 @@
         <v>-0.72212620596783805</v>
       </c>
       <c r="D287" s="1">
-        <v>-0.75194732191178304</v>
+        <v>-0.73669793489982005</v>
       </c>
       <c r="E287" s="1">
         <v>-0.77365654945316698</v>
@@ -5283,7 +5284,7 @@
         <v>6.07909283530274E-2</v>
       </c>
       <c r="D288" s="1">
-        <v>5.6290674793251297E-2</v>
+        <v>5.7635870705733901E-2</v>
       </c>
       <c r="E288" s="1">
         <v>5.9736628278164998E-2</v>
@@ -5300,7 +5301,7 @@
         <v>0.95586248211746105</v>
       </c>
       <c r="D289" s="1">
-        <v>0.96550121119498</v>
+        <v>0.95704728499187997</v>
       </c>
       <c r="E289" s="1">
         <v>0.98074555937166097</v>
@@ -5317,7 +5318,7 @@
         <v>0.30369745373684298</v>
       </c>
       <c r="D290" s="1">
-        <v>0.31091201196181101</v>
+        <v>0.30685142496567802</v>
       </c>
       <c r="E290" s="1">
         <v>0.31025158391952401</v>
@@ -5334,7 +5335,7 @@
         <v>-0.255226257515976</v>
       </c>
       <c r="D291" s="1">
-        <v>-0.26997660825771402</v>
+        <v>-0.259413041331927</v>
       </c>
       <c r="E291" s="1">
         <v>-0.28166324669806098</v>
@@ -5351,7 +5352,7 @@
         <v>0.90785754245542905</v>
       </c>
       <c r="D292" s="1">
-        <v>0.92156965620995601</v>
+        <v>0.91818177939569701</v>
       </c>
       <c r="E292" s="1">
         <v>0.92234756021215603</v>
@@ -5368,7 +5369,7 @@
         <v>0.73108804695313201</v>
       </c>
       <c r="D293" s="1">
-        <v>0.73868542778415502</v>
+        <v>0.73411679713143696</v>
       </c>
       <c r="E293" s="1">
         <v>0.72977468607848495</v>
@@ -5385,7 +5386,7 @@
         <v>-9.7273370787295099E-3</v>
       </c>
       <c r="D294" s="1">
-        <v>-1.17957118693417E-2</v>
+        <v>-9.3878986655681704E-3</v>
       </c>
       <c r="E294" s="1">
         <v>-1.05579654273443E-2</v>
@@ -5402,7 +5403,7 @@
         <v>0.379404059339917</v>
       </c>
       <c r="D295" s="1">
-        <v>0.37723150456792698</v>
+        <v>0.37608110638493802</v>
       </c>
       <c r="E295" s="1">
         <v>0.36345997011125097</v>
@@ -5419,7 +5420,7 @@
         <v>0.56679468011588396</v>
       </c>
       <c r="D296" s="1">
-        <v>0.574403292375264</v>
+        <v>0.57030976035445202</v>
       </c>
       <c r="E296" s="1">
         <v>0.58534534149681094</v>
@@ -5436,7 +5437,7 @@
         <v>0.31766254836235702</v>
       </c>
       <c r="D297" s="1">
-        <v>0.33184235398829398</v>
+        <v>0.32687943029677702</v>
       </c>
       <c r="E297" s="1">
         <v>0.34387116125247102</v>
@@ -5453,7 +5454,7 @@
         <v>-1.5322378096093801</v>
       </c>
       <c r="D298" s="1">
-        <v>-1.5507146576004001</v>
+        <v>-1.53957806955151</v>
       </c>
       <c r="E298" s="1">
         <v>-1.5582750946142601</v>
@@ -5470,7 +5471,7 @@
         <v>0.77633136972141903</v>
       </c>
       <c r="D299" s="1">
-        <v>0.77849104625724697</v>
+        <v>0.77316245068275502</v>
       </c>
       <c r="E299" s="1">
         <v>0.78125293734872403</v>
@@ -5487,7 +5488,7 @@
         <v>-0.16808901534792201</v>
       </c>
       <c r="D300" s="1">
-        <v>-0.18116469938740101</v>
+        <v>-0.17156007406842599</v>
       </c>
       <c r="E300" s="1">
         <v>-0.186215983331037</v>
@@ -5504,7 +5505,7 @@
         <v>-5.0543059139534101E-2</v>
       </c>
       <c r="D301" s="1">
-        <v>-3.5483106391300097E-2</v>
+        <v>-4.2839226830123901E-2</v>
       </c>
       <c r="E301" s="1">
         <v>-3.1102238524032402E-2</v>
@@ -5521,7 +5522,7 @@
         <v>1.03189216733075</v>
       </c>
       <c r="D302" s="1">
-        <v>1.0466038305049099</v>
+        <v>1.0375692418220399</v>
       </c>
       <c r="E302" s="1">
         <v>1.0627688497797001</v>
@@ -5538,7 +5539,7 @@
         <v>5.5573361986212703E-2</v>
       </c>
       <c r="D303" s="1">
-        <v>5.1270246654846197E-2</v>
+        <v>5.0910928629402101E-2</v>
       </c>
       <c r="E303" s="1">
         <v>5.1691740402408301E-2</v>
@@ -5555,7 +5556,7 @@
         <v>0.44126215880533598</v>
       </c>
       <c r="D304" s="1">
-        <v>0.43992510731760598</v>
+        <v>0.44173502924240399</v>
       </c>
       <c r="E304" s="1">
         <v>0.439935482879108</v>
@@ -5572,7 +5573,7 @@
         <v>0.113518355430398</v>
       </c>
       <c r="D305" s="1">
-        <v>0.100330250123846</v>
+        <v>0.104134739006781</v>
       </c>
       <c r="E305" s="1">
         <v>9.44308196366999E-2</v>
@@ -5589,7 +5590,7 @@
         <v>0.896906005736409</v>
       </c>
       <c r="D306" s="1">
-        <v>0.89837595174139795</v>
+        <v>0.897863562732096</v>
       </c>
       <c r="E306" s="1">
         <v>0.90459922300437701</v>
@@ -5606,7 +5607,7 @@
         <v>0.478238182050366</v>
       </c>
       <c r="D307" s="1">
-        <v>0.48577174538775098</v>
+        <v>0.48174481722009999</v>
       </c>
       <c r="E307" s="1">
         <v>0.49286911094640501</v>
@@ -5623,7 +5624,7 @@
         <v>0.161748444006589</v>
       </c>
       <c r="D308" s="1">
-        <v>0.157791396769664</v>
+        <v>0.15880866938698199</v>
       </c>
       <c r="E308" s="1">
         <v>0.16049569047583201</v>
@@ -5640,7 +5641,7 @@
         <v>-0.56925724973633796</v>
       </c>
       <c r="D309" s="1">
-        <v>-0.56032375673982204</v>
+        <v>-0.56286675911328399</v>
       </c>
       <c r="E309" s="1">
         <v>-0.55567304246565696</v>
@@ -5657,7 +5658,7 @@
         <v>3.0979506863880102E-3</v>
       </c>
       <c r="D310" s="1">
-        <v>2.6316864724913E-2</v>
+        <v>1.49889346541169E-2</v>
       </c>
       <c r="E310" s="1">
         <v>3.1773962108181897E-2</v>
@@ -5674,7 +5675,7 @@
         <v>0.65267600390622704</v>
       </c>
       <c r="D311" s="1">
-        <v>0.63754517174905001</v>
+        <v>0.64542808442512001</v>
       </c>
       <c r="E311" s="1">
         <v>0.63257058112867504</v>
@@ -5691,7 +5692,7 @@
         <v>0.49023861603656099</v>
       </c>
       <c r="D312" s="1">
-        <v>0.50582226633013805</v>
+        <v>0.49665011497714501</v>
       </c>
       <c r="E312" s="1">
         <v>0.52011712599508397</v>
@@ -5708,7 +5709,7 @@
         <v>0.63583914984771694</v>
       </c>
       <c r="D313" s="1">
-        <v>0.636607167281944</v>
+        <v>0.63815554488092896</v>
       </c>
       <c r="E313" s="1">
         <v>0.62328445501263596</v>
@@ -5725,7 +5726,7 @@
         <v>-0.26878022292680998</v>
       </c>
       <c r="D314" s="1">
-        <v>-0.23909333026944701</v>
+        <v>-0.25262628750282501</v>
       </c>
       <c r="E314" s="1">
         <v>-0.217083557551179</v>
@@ -5742,7 +5743,7 @@
         <v>2.3809932792435901E-2</v>
       </c>
       <c r="D315" s="1">
-        <v>5.51243962182654E-3</v>
+        <v>1.41990983173098E-2</v>
       </c>
       <c r="E315" s="1">
         <v>-4.4016851507928303E-3</v>
@@ -5759,7 +5760,7 @@
         <v>0.15661484678055099</v>
       </c>
       <c r="D316" s="1">
-        <v>0.143658694844431</v>
+        <v>0.148342715217818</v>
       </c>
       <c r="E316" s="1">
         <v>0.14078945657858</v>
@@ -5776,7 +5777,7 @@
         <v>0.37998965767613202</v>
       </c>
       <c r="D317" s="1">
-        <v>0.40024181119636898</v>
+        <v>0.38638362695161399</v>
       </c>
       <c r="E317" s="1">
         <v>0.42016368883037097</v>
@@ -5793,7 +5794,7 @@
         <v>3.09744256798456E-2</v>
       </c>
       <c r="D318" s="1">
-        <v>2.3313612833232501E-2</v>
+        <v>3.0601201747483001E-2</v>
       </c>
       <c r="E318" s="1">
         <v>3.4675614845094301E-2</v>
@@ -5810,7 +5811,7 @@
         <v>0.105497039448636</v>
       </c>
       <c r="D319" s="1">
-        <v>0.116674257648354</v>
+        <v>0.11070366456743</v>
       </c>
       <c r="E319" s="1">
         <v>0.116988158238235</v>
@@ -5827,7 +5828,7 @@
         <v>-0.79816713758830204</v>
       </c>
       <c r="D320" s="1">
-        <v>-0.79438118608844299</v>
+        <v>-0.79913789881487296</v>
       </c>
       <c r="E320" s="1">
         <v>-0.78815432939778796</v>
@@ -5844,7 +5845,7 @@
         <v>-6.98488348837039E-2</v>
       </c>
       <c r="D321" s="1">
-        <v>-3.7637019596710598E-2</v>
+        <v>-5.8752137358555598E-2</v>
       </c>
       <c r="E321" s="1">
         <v>-2.9258176990098601E-2</v>
@@ -5861,7 +5862,7 @@
         <v>0.25017369956365398</v>
       </c>
       <c r="D322" s="1">
-        <v>0.23017672147429799</v>
+        <v>0.24072473581543899</v>
       </c>
       <c r="E322" s="1">
         <v>0.21412346199448601</v>
@@ -5878,7 +5879,7 @@
         <v>0.33398548774994902</v>
       </c>
       <c r="D323" s="1">
-        <v>0.32964238451542299</v>
+        <v>0.33011458715898301</v>
       </c>
       <c r="E323" s="1">
         <v>0.324569489976273</v>
@@ -5895,7 +5896,7 @@
         <v>0.87325528366143101</v>
       </c>
       <c r="D324" s="1">
-        <v>0.88140528653183303</v>
+        <v>0.87772504831754605</v>
       </c>
       <c r="E324" s="1">
         <v>0.88358876506857098</v>
@@ -5912,7 +5913,7 @@
         <v>-1.7957768999202599</v>
       </c>
       <c r="D325" s="1">
-        <v>-1.7916690267400599</v>
+        <v>-1.7951794197059701</v>
       </c>
       <c r="E325" s="1">
         <v>-1.7966236389355099</v>
@@ -5929,7 +5930,7 @@
         <v>0.84290837887716097</v>
       </c>
       <c r="D326" s="1">
-        <v>0.84864370976001302</v>
+        <v>0.84846343493147203</v>
       </c>
       <c r="E326" s="1">
         <v>0.85375596963359901</v>
@@ -5946,7 +5947,7 @@
         <v>-0.58967227781758902</v>
       </c>
       <c r="D327" s="1">
-        <v>-0.59339594734386403</v>
+        <v>-0.59127686899390797</v>
       </c>
       <c r="E327" s="1">
         <v>-0.606333065243844</v>
@@ -5963,7 +5964,7 @@
         <v>-1.7640320666517999</v>
       </c>
       <c r="D328" s="1">
-        <v>-1.75820469337778</v>
+        <v>-1.7665445987461901</v>
       </c>
       <c r="E328" s="1">
         <v>-1.7613900167499199</v>
@@ -5980,7 +5981,7 @@
         <v>-0.17959595383447799</v>
       </c>
       <c r="D329" s="1">
-        <v>-0.17213821424039999</v>
+        <v>-0.171277335881346</v>
       </c>
       <c r="E329" s="1">
         <v>-0.16865276202527099</v>
@@ -5997,7 +5998,7 @@
         <v>-1.42496753232469</v>
       </c>
       <c r="D330" s="1">
-        <v>-1.4217749002125599</v>
+        <v>-1.42748480294144</v>
       </c>
       <c r="E330" s="1">
         <v>-1.41233805292973</v>
@@ -6014,7 +6015,7 @@
         <v>-0.408743886991142</v>
       </c>
       <c r="D331" s="1">
-        <v>-0.441147473943796</v>
+        <v>-0.41908778056322898</v>
       </c>
       <c r="E331" s="1">
         <v>-0.46027955289595601</v>
@@ -6031,7 +6032,7 @@
         <v>0.40664255412877398</v>
       </c>
       <c r="D332" s="1">
-        <v>0.396311350785576</v>
+        <v>0.40195530360049903</v>
       </c>
       <c r="E332" s="1">
         <v>0.38250623069879502</v>
@@ -6048,7 +6049,7 @@
         <v>-0.82792498374344203</v>
       </c>
       <c r="D333" s="1">
-        <v>-0.81602727710688405</v>
+        <v>-0.82615765198544899</v>
       </c>
       <c r="E333" s="1">
         <v>-0.81102966653500297</v>
@@ -6065,7 +6066,7 @@
         <v>-0.86736488055164496</v>
       </c>
       <c r="D334" s="1">
-        <v>-0.86074419857141904</v>
+        <v>-0.86646984508823799</v>
       </c>
       <c r="E334" s="1">
         <v>-0.86880409482061605</v>
@@ -6082,7 +6083,7 @@
         <v>0.16243560590311901</v>
       </c>
       <c r="D335" s="1">
-        <v>0.171368557066814</v>
+        <v>0.16494708976420899</v>
       </c>
       <c r="E335" s="1">
         <v>0.18513174897450699</v>
@@ -6099,7 +6100,7 @@
         <v>0.63173208988079699</v>
       </c>
       <c r="D336" s="1">
-        <v>0.61213705500663296</v>
+        <v>0.62702711861487703</v>
       </c>
       <c r="E336" s="1">
         <v>0.59909433955445501</v>
@@ -6116,7 +6117,7 @@
         <v>-7.0528423571450505E-2</v>
       </c>
       <c r="D337" s="1">
-        <v>-6.7092632150468498E-2</v>
+        <v>-6.79896936083208E-2</v>
       </c>
       <c r="E337" s="1">
         <v>-7.6126642741912595E-2</v>
@@ -6133,7 +6134,7 @@
         <v>-1.4466770065683601</v>
       </c>
       <c r="D338" s="1">
-        <v>-1.4594326595209299</v>
+        <v>-1.4553195342078999</v>
       </c>
       <c r="E338" s="1">
         <v>-1.47650064855364</v>
@@ -6150,7 +6151,7 @@
         <v>0.19610155982371799</v>
       </c>
       <c r="D339" s="1">
-        <v>0.189696623084953</v>
+        <v>0.19467576580262999</v>
       </c>
       <c r="E339" s="1">
         <v>0.17622033758158401</v>
@@ -6167,7 +6168,7 @@
         <v>4.5169025303482699E-2</v>
       </c>
       <c r="D340" s="1">
-        <v>2.5421736101058599E-2</v>
+        <v>3.52976058079357E-2</v>
       </c>
       <c r="E340" s="1">
         <v>6.2182843467791099E-3</v>
@@ -6184,7 +6185,7 @@
         <v>-0.24961870209292999</v>
       </c>
       <c r="D341" s="1">
-        <v>-0.258468314025395</v>
+        <v>-0.26068647783300503</v>
       </c>
       <c r="E341" s="1">
         <v>-0.25783935017298498</v>
@@ -6201,7 +6202,7 @@
         <v>-8.8444131806044601E-2</v>
       </c>
       <c r="D342" s="1">
-        <v>-8.66509401027592E-2</v>
+        <v>-8.4360054734293102E-2</v>
       </c>
       <c r="E342" s="1">
         <v>-9.4815034490028399E-2</v>
@@ -6218,7 +6219,7 @@
         <v>0.78856501945483604</v>
       </c>
       <c r="D343" s="1">
-        <v>0.78939424834748295</v>
+        <v>0.79227256276524805</v>
       </c>
       <c r="E343" s="1">
         <v>0.79344017379379805</v>
@@ -6235,7 +6236,7 @@
         <v>1.1452291798863601</v>
       </c>
       <c r="D344" s="1">
-        <v>1.1618101506860901</v>
+        <v>1.15320234501552</v>
       </c>
       <c r="E344" s="1">
         <v>1.18064825907787</v>
@@ -6252,7 +6253,7 @@
         <v>8.9123032656604498E-2</v>
       </c>
       <c r="D345" s="1">
-        <v>0.115581640863719</v>
+        <v>0.101535035270323</v>
       </c>
       <c r="E345" s="1">
         <v>0.127413102127202</v>
@@ -6269,7 +6270,7 @@
         <v>-0.70636931941144498</v>
       </c>
       <c r="D346" s="1">
-        <v>-0.72109502509608103</v>
+        <v>-0.71648531583807396</v>
       </c>
       <c r="E346" s="1">
         <v>-0.72803579455490697</v>
@@ -6286,7 +6287,7 @@
         <v>0.32418001675647501</v>
       </c>
       <c r="D347" s="1">
-        <v>0.32568958810924598</v>
+        <v>0.32024748195396202</v>
       </c>
       <c r="E347" s="1">
         <v>0.32804061139788199</v>
@@ -6303,7 +6304,7 @@
         <v>-0.50247269085883794</v>
       </c>
       <c r="D348" s="1">
-        <v>-0.49738802816561201</v>
+        <v>-0.49864375119651499</v>
       </c>
       <c r="E348" s="1">
         <v>-0.50034367622079801</v>
@@ -6320,7 +6321,7 @@
         <v>1.5704163957842801</v>
       </c>
       <c r="D349" s="1">
-        <v>1.58142892523867</v>
+        <v>1.5779312906067799</v>
       </c>
       <c r="E349" s="1">
         <v>1.5978440043622899</v>
@@ -6337,7 +6338,7 @@
         <v>0.38624203005522301</v>
       </c>
       <c r="D350" s="1">
-        <v>0.38796853444567803</v>
+        <v>0.385108527252783</v>
       </c>
       <c r="E350" s="1">
         <v>0.39234447376194298</v>
@@ -6354,7 +6355,7 @@
         <v>7.3296592838751506E-2</v>
       </c>
       <c r="D351" s="1">
-        <v>6.7293881310401593E-2</v>
+        <v>6.9558308429458801E-2</v>
       </c>
       <c r="E351" s="1">
         <v>6.76173408451822E-2</v>
@@ -6371,7 +6372,7 @@
         <v>-0.53082767318420099</v>
       </c>
       <c r="D352" s="1">
-        <v>-0.54854292924986603</v>
+        <v>-0.54073566066660095</v>
       </c>
       <c r="E352" s="1">
         <v>-0.557940347554162</v>
@@ -6388,7 +6389,7 @@
         <v>-0.36057139664746202</v>
       </c>
       <c r="D353" s="1">
-        <v>-0.37182235074577502</v>
+        <v>-0.36713684617536402</v>
       </c>
       <c r="E353" s="1">
         <v>-0.38080791516021101</v>
@@ -6405,7 +6406,7 @@
         <v>5.3905747580259698E-2</v>
       </c>
       <c r="D354" s="1">
-        <v>4.6076424827357902E-2</v>
+        <v>5.4203877140436799E-2</v>
       </c>
       <c r="E354" s="1">
         <v>3.5925619107761403E-2</v>
@@ -6422,7 +6423,7 @@
         <v>0.39857495599230203</v>
       </c>
       <c r="D355" s="1">
-        <v>0.42604809867035198</v>
+        <v>0.41220102078665399</v>
       </c>
       <c r="E355" s="1">
         <v>0.44254540193860997</v>
@@ -6439,7 +6440,7 @@
         <v>2.0446469315531299</v>
       </c>
       <c r="D356" s="1">
-        <v>2.0776230826095601</v>
+        <v>2.0605067298686799</v>
       </c>
       <c r="E356" s="1">
         <v>2.0943761589732102</v>
@@ -6456,7 +6457,7 @@
         <v>0.20360629969187299</v>
       </c>
       <c r="D357" s="1">
-        <v>0.18329815666240501</v>
+        <v>0.19941426015479499</v>
       </c>
       <c r="E357" s="1">
         <v>0.18012911744569299</v>
@@ -6473,7 +6474,7 @@
         <v>0.193754550439145</v>
       </c>
       <c r="D358" s="1">
-        <v>0.210851762301968</v>
+        <v>0.1983157867608</v>
       </c>
       <c r="E358" s="1">
         <v>0.22208333729142801</v>
@@ -6490,7 +6491,7 @@
         <v>0.419181829402411</v>
       </c>
       <c r="D359" s="1">
-        <v>0.41528353055668998</v>
+        <v>0.41936090442875901</v>
       </c>
       <c r="E359" s="1">
         <v>0.41717927824497197</v>
@@ -6507,7 +6508,7 @@
         <v>-0.67610859887824004</v>
       </c>
       <c r="D360" s="1">
-        <v>-0.67780697692356795</v>
+        <v>-0.67869190453329398</v>
       </c>
       <c r="E360" s="1">
         <v>-0.68123921149834399</v>
@@ -6524,7 +6525,7 @@
         <v>-0.41945730355112198</v>
       </c>
       <c r="D361" s="1">
-        <v>-0.433191548900621</v>
+        <v>-0.42719944774879198</v>
       </c>
       <c r="E361" s="1">
         <v>-0.44381140470418501</v>
@@ -6541,7 +6542,7 @@
         <v>1.2024514249970799</v>
       </c>
       <c r="D362" s="1">
-        <v>1.22661068491281</v>
+        <v>1.21525597074376</v>
       </c>
       <c r="E362" s="1">
         <v>1.2461427823973801</v>
@@ -6558,7 +6559,7 @@
         <v>-0.43122648819619103</v>
       </c>
       <c r="D363" s="1">
-        <v>-0.43903349269981701</v>
+        <v>-0.43709758996596398</v>
       </c>
       <c r="E363" s="1">
         <v>-0.44216681331769497</v>
@@ -6575,7 +6576,7 @@
         <v>1.71248424648644</v>
       </c>
       <c r="D364" s="1">
-        <v>1.7291212228961299</v>
+        <v>1.72176048647193</v>
       </c>
       <c r="E364" s="1">
         <v>1.7514720388196201</v>
@@ -6592,7 +6593,7 @@
         <v>-0.109567183269118</v>
       </c>
       <c r="D365" s="1">
-        <v>-0.12895114339335201</v>
+        <v>-0.118008794479803</v>
       </c>
       <c r="E365" s="1">
         <v>-0.143066070433084</v>
@@ -6609,7 +6610,7 @@
         <v>-1.0049029939741301</v>
       </c>
       <c r="D366" s="1">
-        <v>-1.0259493702726801</v>
+        <v>-1.01339474956335</v>
       </c>
       <c r="E366" s="1">
         <v>-1.0414957553161801</v>
@@ -6626,7 +6627,7 @@
         <v>0.47812362133479402</v>
       </c>
       <c r="D367" s="1">
-        <v>0.47383229494406298</v>
+        <v>0.47638764880846601</v>
       </c>
       <c r="E367" s="1">
         <v>0.47487585294638301</v>
@@ -6643,7 +6644,7 @@
         <v>9.7933561033453395E-2</v>
       </c>
       <c r="D368" s="1">
-        <v>8.58711153894961E-2</v>
+        <v>9.0108538131034102E-2</v>
       </c>
       <c r="E368" s="1">
         <v>8.9867665517846196E-2</v>
@@ -6660,7 +6661,7 @@
         <v>-0.18918609481239201</v>
       </c>
       <c r="D369" s="1">
-        <v>-0.19271843264560001</v>
+        <v>-0.19434228503855</v>
       </c>
       <c r="E369" s="1">
         <v>-0.186101423732351</v>
@@ -6677,7 +6678,7 @@
         <v>-0.33378489430379499</v>
       </c>
       <c r="D370" s="1">
-        <v>-0.34150162281413998</v>
+        <v>-0.33899115578517203</v>
       </c>
       <c r="E370" s="1">
         <v>-0.34880730726757703</v>
@@ -6694,7 +6695,7 @@
         <v>0.96628630937938298</v>
       </c>
       <c r="D371" s="1">
-        <v>0.98190096582652897</v>
+        <v>0.97266127228476595</v>
       </c>
       <c r="E371" s="1">
         <v>0.99467627445659101</v>
@@ -6711,7 +6712,7 @@
         <v>0.57473168066635805</v>
       </c>
       <c r="D372" s="1">
-        <v>0.58949821941998304</v>
+        <v>0.58092606838708705</v>
       </c>
       <c r="E372" s="1">
         <v>0.59937880074935501</v>
@@ -6728,7 +6729,7 @@
         <v>-0.16621131210934501</v>
       </c>
       <c r="D373" s="1">
-        <v>-0.18479985654214201</v>
+        <v>-0.17500239745187501</v>
       </c>
       <c r="E373" s="1">
         <v>-0.193475394912586</v>
@@ -6745,7 +6746,7 @@
         <v>0.60016034341617397</v>
       </c>
       <c r="D374" s="1">
-        <v>0.60981445134135404</v>
+        <v>0.60858533456806096</v>
       </c>
       <c r="E374" s="1">
         <v>0.62683050004052698</v>
@@ -6762,7 +6763,7 @@
         <v>0.20512101675498801</v>
       </c>
       <c r="D375" s="1">
-        <v>0.20944543107604899</v>
+        <v>0.20885622916183699</v>
       </c>
       <c r="E375" s="1">
         <v>0.20577961785756599</v>
@@ -6779,7 +6780,7 @@
         <v>-0.53787698793607397</v>
       </c>
       <c r="D376" s="1">
-        <v>-0.55431754618752005</v>
+        <v>-0.54152090970702804</v>
       </c>
       <c r="E376" s="1">
         <v>-0.571697445759353</v>
@@ -6796,7 +6797,7 @@
         <v>-0.22538146109229901</v>
       </c>
       <c r="D377" s="1">
-        <v>-0.21453037526626101</v>
+        <v>-0.222368162476593</v>
       </c>
       <c r="E377" s="1">
         <v>-0.209648073482474</v>
@@ -6813,7 +6814,7 @@
         <v>0.73283843997185305</v>
       </c>
       <c r="D378" s="1">
-        <v>0.73820164021726997</v>
+        <v>0.73284230924570204</v>
       </c>
       <c r="E378" s="1">
         <v>0.74508201080051895</v>
@@ -6830,7 +6831,7 @@
         <v>0.732713030327663</v>
       </c>
       <c r="D379" s="1">
-        <v>0.74546920210773304</v>
+        <v>0.73932529369864297</v>
       </c>
       <c r="E379" s="1">
         <v>0.75281980458589703</v>
@@ -6847,7 +6848,7 @@
         <v>7.2343088054407201E-2</v>
       </c>
       <c r="D380" s="1">
-        <v>7.4608412496579998E-2</v>
+        <v>7.4487411493615693E-2</v>
       </c>
       <c r="E380" s="1">
         <v>7.1248015807552606E-2</v>
@@ -6864,7 +6865,7 @@
         <v>-6.7384655329709206E-2</v>
       </c>
       <c r="D381" s="1">
-        <v>-8.0253065917977401E-2</v>
+        <v>-6.9433077314494995E-2</v>
       </c>
       <c r="E381" s="1">
         <v>-8.9694824604118706E-2</v>
@@ -6881,7 +6882,7 @@
         <v>0.46106259544746803</v>
       </c>
       <c r="D382" s="1">
-        <v>0.46293050952706699</v>
+        <v>0.463390951509839</v>
       </c>
       <c r="E382" s="1">
         <v>0.462310382601609</v>
@@ -6898,7 +6899,7 @@
         <v>-0.46468947368033198</v>
       </c>
       <c r="D383" s="1">
-        <v>-0.48632486995490698</v>
+        <v>-0.47718537302659197</v>
       </c>
       <c r="E383" s="1">
         <v>-0.50128577419381204</v>
@@ -6915,7 +6916,7 @@
         <v>-7.6353262044548502E-3</v>
       </c>
       <c r="D384" s="1">
-        <v>-1.12646881514943E-2</v>
+        <v>-1.35006125558181E-2</v>
       </c>
       <c r="E384" s="1">
         <v>-1.1207172472092601E-2</v>
@@ -6932,7 +6933,7 @@
         <v>-0.47385104502800302</v>
       </c>
       <c r="D385" s="1">
-        <v>-0.445848369249496</v>
+        <v>-0.46549036076292599</v>
       </c>
       <c r="E385" s="1">
         <v>-0.43039955920342599</v>
@@ -6949,7 +6950,7 @@
         <v>-4.59418375908564E-4</v>
       </c>
       <c r="D386" s="1">
-        <v>-1.08992761594023E-2</v>
+        <v>-7.2211523175001102E-3</v>
       </c>
       <c r="E386" s="1">
         <v>-1.18807690140969E-2</v>
@@ -6966,7 +6967,7 @@
         <v>-0.77167871247462705</v>
       </c>
       <c r="D387" s="1">
-        <v>-0.78828478428334003</v>
+        <v>-0.77590819333689198</v>
       </c>
       <c r="E387" s="1">
         <v>-0.79282009430378197</v>
@@ -6983,7 +6984,7 @@
         <v>-1.71338577573353</v>
       </c>
       <c r="D388" s="1">
-        <v>-1.7179172797336599</v>
+        <v>-1.7199120600787501</v>
       </c>
       <c r="E388" s="1">
         <v>-1.7247459584610101</v>
@@ -7000,7 +7001,7 @@
         <v>-1.17563266464433</v>
       </c>
       <c r="D389" s="1">
-        <v>-1.16343217912082</v>
+        <v>-1.1694748290975201</v>
       </c>
       <c r="E389" s="1">
         <v>-1.1671533063277499</v>
@@ -7017,7 +7018,7 @@
         <v>-0.21694294589619301</v>
       </c>
       <c r="D390" s="1">
-        <v>-0.228909891189403</v>
+        <v>-0.21791237909907099</v>
       </c>
       <c r="E390" s="1">
         <v>-0.22708016100939701</v>
@@ -7034,7 +7035,7 @@
         <v>-6.2645690521282604E-2</v>
       </c>
       <c r="D391" s="1">
-        <v>-6.1759379818960097E-2</v>
+        <v>-6.7686161831247302E-2</v>
       </c>
       <c r="E391" s="1">
         <v>-6.1139000861646801E-2</v>
@@ -7051,7 +7052,7 @@
         <v>1.09884911948035</v>
       </c>
       <c r="D392" s="1">
-        <v>1.08951171052395</v>
+        <v>1.09029475517916</v>
       </c>
       <c r="E392" s="1">
         <v>1.0896188843266299</v>
@@ -7068,7 +7069,7 @@
         <v>-0.105173046156328</v>
       </c>
       <c r="D393" s="1">
-        <v>-0.12853581316804499</v>
+        <v>-0.116231019071607</v>
       </c>
       <c r="E393" s="1">
         <v>-0.13506418400706999</v>
@@ -7085,7 +7086,7 @@
         <v>-0.98285420203113605</v>
       </c>
       <c r="D394" s="1">
-        <v>-0.99715410323895903</v>
+        <v>-0.99188216529431195</v>
       </c>
       <c r="E394" s="1">
         <v>-1.0094242121678001</v>
@@ -7102,7 +7103,7 @@
         <v>0.70318299575896404</v>
       </c>
       <c r="D395" s="1">
-        <v>0.70362146113099899</v>
+        <v>0.70360215668361004</v>
       </c>
       <c r="E395" s="1">
         <v>0.72133808259183296</v>
@@ -7119,7 +7120,7 @@
         <v>-0.97089821022936196</v>
       </c>
       <c r="D396" s="1">
-        <v>-0.98241262734760604</v>
+        <v>-0.97982504395539405</v>
       </c>
       <c r="E396" s="1">
         <v>-0.99179761306368797</v>
@@ -7136,7 +7137,7 @@
         <v>0.910321033164747</v>
       </c>
       <c r="D397" s="1">
-        <v>0.90303445193352605</v>
+        <v>0.90657004229637395</v>
       </c>
       <c r="E397" s="1">
         <v>0.904041886509102</v>
@@ -7153,7 +7154,7 @@
         <v>0.65204437224874101</v>
       </c>
       <c r="D398" s="1">
-        <v>0.65498006988879298</v>
+        <v>0.65105542618064005</v>
       </c>
       <c r="E398" s="1">
         <v>0.65179341523565804</v>
@@ -7170,7 +7171,7 @@
         <v>0.361426599776147</v>
       </c>
       <c r="D399" s="1">
-        <v>0.361594148232533</v>
+        <v>0.36274874499830301</v>
       </c>
       <c r="E399" s="1">
         <v>0.36997434764604697</v>
@@ -7187,7 +7188,7 @@
         <v>1.72574800660852E-3</v>
       </c>
       <c r="D400" s="1">
-        <v>-2.2436324581011399E-2</v>
+        <v>-1.2500610440518801E-2</v>
       </c>
       <c r="E400" s="1">
         <v>-3.73070810985369E-2</v>
@@ -7204,7 +7205,7 @@
         <v>4.3933122119489798E-2</v>
       </c>
       <c r="D401" s="1">
-        <v>4.9258085513957398E-2</v>
+        <v>4.9606569422309399E-2</v>
       </c>
       <c r="E401" s="1">
         <v>4.3094119947636497E-2</v>
@@ -7221,7 +7222,7 @@
         <v>9.7934401986433703E-2</v>
       </c>
       <c r="D402" s="1">
-        <v>0.11063969733689399</v>
+        <v>0.106212563591117</v>
       </c>
       <c r="E402" s="1">
         <v>0.111717763907716</v>
@@ -7238,7 +7239,7 @@
         <v>-1.6855828180902499</v>
       </c>
       <c r="D403" s="1">
-        <v>-1.68248915762977</v>
+        <v>-1.68485458807093</v>
       </c>
       <c r="E403" s="1">
         <v>-1.68922806556422</v>
@@ -7255,7 +7256,7 @@
         <v>0.32476923103614502</v>
       </c>
       <c r="D404" s="1">
-        <v>0.310847762004688</v>
+        <v>0.31701542974757801</v>
       </c>
       <c r="E404" s="1">
         <v>0.31250944816811999</v>
@@ -7272,7 +7273,7 @@
         <v>0.49159554910637399</v>
       </c>
       <c r="D405" s="1">
-        <v>0.49517754503910499</v>
+        <v>0.49537271083979001</v>
       </c>
       <c r="E405" s="1">
         <v>0.49705731274723502</v>
@@ -7289,7 +7290,7 @@
         <v>0.30479605344694</v>
       </c>
       <c r="D406" s="1">
-        <v>0.305096727272885</v>
+        <v>0.30490908470103101</v>
       </c>
       <c r="E406" s="1">
         <v>0.29879192093888501</v>
@@ -7306,7 +7307,7 @@
         <v>1.5421986998847399</v>
       </c>
       <c r="D407" s="1">
-        <v>1.5830945699776799</v>
+        <v>1.5604540853525199</v>
       </c>
       <c r="E407" s="1">
         <v>1.6045178780149201</v>
@@ -7323,7 +7324,7 @@
         <v>0.151571577152292</v>
       </c>
       <c r="D408" s="1">
-        <v>0.124153094992865</v>
+        <v>0.14056266429383399</v>
       </c>
       <c r="E408" s="1">
         <v>9.7993241990453797E-2</v>
@@ -7340,7 +7341,7 @@
         <v>-0.75443752706644096</v>
       </c>
       <c r="D409" s="1">
-        <v>-0.77344280026654499</v>
+        <v>-0.76285179876568299</v>
       </c>
       <c r="E409" s="1">
         <v>-0.78941945924224199</v>
@@ -7357,7 +7358,7 @@
         <v>0.96223280045478299</v>
       </c>
       <c r="D410" s="1">
-        <v>0.97248310573686303</v>
+        <v>0.96922099834997399</v>
       </c>
       <c r="E410" s="1">
         <v>0.96909351457029902</v>
@@ -7374,7 +7375,7 @@
         <v>1.0016969102200901</v>
       </c>
       <c r="D411" s="1">
-        <v>1.0296901253346</v>
+        <v>1.0094028121199501</v>
       </c>
       <c r="E411" s="1">
         <v>1.0523243772177699</v>
@@ -7391,7 +7392,7 @@
         <v>0.236102843031752</v>
       </c>
       <c r="D412" s="1">
-        <v>0.257243676395155</v>
+        <v>0.24305653893641199</v>
       </c>
       <c r="E412" s="1">
         <v>0.25802105643194201</v>
@@ -7408,7 +7409,7 @@
         <v>0.198349284074296</v>
       </c>
       <c r="D413" s="1">
-        <v>0.223686695990507</v>
+        <v>0.208797751740632</v>
       </c>
       <c r="E413" s="1">
         <v>0.24108825668414199</v>
@@ -7425,7 +7426,7 @@
         <v>-0.46123279506902298</v>
       </c>
       <c r="D414" s="1">
-        <v>-0.474610628776437</v>
+        <v>-0.46602611241818198</v>
       </c>
       <c r="E414" s="1">
         <v>-0.48076379328632501</v>
@@ -7442,7 +7443,7 @@
         <v>0.34329224113016799</v>
       </c>
       <c r="D415" s="1">
-        <v>0.34880143052146301</v>
+        <v>0.34355773382369698</v>
       </c>
       <c r="E415" s="1">
         <v>0.36094903005098899</v>
@@ -7459,7 +7460,7 @@
         <v>0.34734327129355502</v>
       </c>
       <c r="D416" s="1">
-        <v>0.34884775773965798</v>
+        <v>0.34835236666675401</v>
       </c>
       <c r="E416" s="1">
         <v>0.34348792819555002</v>
@@ -7476,7 +7477,7 @@
         <v>0.72660559777142097</v>
       </c>
       <c r="D417" s="1">
-        <v>0.75635124375850604</v>
+        <v>0.73534910119841101</v>
       </c>
       <c r="E417" s="1">
         <v>0.77766014224806601</v>
@@ -7493,7 +7494,7 @@
         <v>-0.224826498732491</v>
       </c>
       <c r="D418" s="1">
-        <v>-0.224760877957218</v>
+        <v>-0.22614582065213701</v>
       </c>
       <c r="E418" s="1">
         <v>-0.22555204453460001</v>
@@ -7510,7 +7511,7 @@
         <v>0.49976214857039902</v>
       </c>
       <c r="D419" s="1">
-        <v>0.50807655086729697</v>
+        <v>0.50093027898067199</v>
       </c>
       <c r="E419" s="1">
         <v>0.50611209312262395</v>
@@ -7527,7 +7528,7 @@
         <v>-0.15174325050690099</v>
       </c>
       <c r="D420" s="1">
-        <v>-0.16684006589842201</v>
+        <v>-0.15746777295904299</v>
       </c>
       <c r="E420" s="1">
         <v>-0.168038793481945</v>
@@ -7544,7 +7545,7 @@
         <v>0.32301688760131297</v>
       </c>
       <c r="D421" s="1">
-        <v>0.31780071726175102</v>
+        <v>0.31677694236154302</v>
       </c>
       <c r="E421" s="1">
         <v>0.31677550507660801</v>
@@ -7561,7 +7562,7 @@
         <v>-0.11128371350199701</v>
       </c>
       <c r="D422" s="1">
-        <v>-0.12700483314118</v>
+        <v>-0.118359523723656</v>
       </c>
       <c r="E422" s="1">
         <v>-0.14071405139492399</v>
@@ -7578,7 +7579,7 @@
         <v>-1.16813816415469E-2</v>
       </c>
       <c r="D423" s="1">
-        <v>1.4880279482964E-3</v>
+        <v>-4.16532929592773E-3</v>
       </c>
       <c r="E423" s="1">
         <v>1.0980567830938001E-2</v>
@@ -7595,7 +7596,7 @@
         <v>-0.39979007908740299</v>
       </c>
       <c r="D424" s="1">
-        <v>-0.39739887417905401</v>
+        <v>-0.40332703828036898</v>
       </c>
       <c r="E424" s="1">
         <v>-0.39199934974827699</v>
@@ -7612,7 +7613,7 @@
         <v>-3.58036418400481E-3</v>
       </c>
       <c r="D425" s="1">
-        <v>4.8664077262061496E-3</v>
+        <v>6.9040853656090497E-4</v>
       </c>
       <c r="E425" s="1">
         <v>1.27455109871256E-2</v>
@@ -7629,7 +7630,7 @@
         <v>-0.35580937499374099</v>
       </c>
       <c r="D426" s="1">
-        <v>-0.33033126636643401</v>
+        <v>-0.34396892721488997</v>
       </c>
       <c r="E426" s="1">
         <v>-0.30912069779469098</v>
@@ -7646,7 +7647,7 @@
         <v>1.3588373055945799</v>
       </c>
       <c r="D427" s="1">
-        <v>1.39105868119707</v>
+        <v>1.3747539322409299</v>
       </c>
       <c r="E427" s="1">
         <v>1.39395568252156</v>
@@ -7663,7 +7664,7 @@
         <v>-0.188309434114317</v>
       </c>
       <c r="D428" s="1">
-        <v>-0.20831022402709001</v>
+        <v>-0.19766595547858001</v>
       </c>
       <c r="E428" s="1">
         <v>-0.22467222689938299</v>
@@ -7680,7 +7681,7 @@
         <v>-0.68059626096733195</v>
       </c>
       <c r="D429" s="1">
-        <v>-0.70996068811685298</v>
+        <v>-0.69123594170546399</v>
       </c>
       <c r="E429" s="1">
         <v>-0.727516639387358</v>
@@ -7697,7 +7698,7 @@
         <v>0.19500380541595899</v>
       </c>
       <c r="D430" s="1">
-        <v>0.201921021950144</v>
+        <v>0.19797915143658201</v>
       </c>
       <c r="E430" s="1">
         <v>0.20723742664573899</v>
@@ -7714,7 +7715,7 @@
         <v>0.37409388662239401</v>
       </c>
       <c r="D431" s="1">
-        <v>0.38500462865217999</v>
+        <v>0.37879685779821598</v>
       </c>
       <c r="E431" s="1">
         <v>0.39594118704294601</v>
@@ -7731,7 +7732,7 @@
         <v>0.79352234982342995</v>
       </c>
       <c r="D432" s="1">
-        <v>0.83195124746287297</v>
+        <v>0.81029509281145196</v>
       </c>
       <c r="E432" s="1">
         <v>0.84792008485182702</v>
@@ -7748,7 +7749,7 @@
         <v>-1.2074555672032901</v>
       </c>
       <c r="D433" s="1">
-        <v>-1.2260829409429299</v>
+        <v>-1.2176007382810301</v>
       </c>
       <c r="E433" s="1">
         <v>-1.2467516690785501</v>
@@ -7765,7 +7766,7 @@
         <v>1.67824952522422</v>
       </c>
       <c r="D434" s="1">
-        <v>1.69473483672208</v>
+        <v>1.6866480005533899</v>
       </c>
       <c r="E434" s="1">
         <v>1.70658666527818</v>
@@ -7782,7 +7783,7 @@
         <v>0.40699757190138602</v>
       </c>
       <c r="D435" s="1">
-        <v>0.40107670835590897</v>
+        <v>0.40281772470372601</v>
       </c>
       <c r="E435" s="1">
         <v>0.40321998925885999</v>
@@ -7799,7 +7800,7 @@
         <v>0.45394557244122502</v>
       </c>
       <c r="D436" s="1">
-        <v>0.46251380020184901</v>
+        <v>0.45981738117936999</v>
       </c>
       <c r="E436" s="1">
         <v>0.458198695848828</v>
@@ -7816,7 +7817,7 @@
         <v>0.20522265111144999</v>
       </c>
       <c r="D437" s="1">
-        <v>0.185421530488391</v>
+        <v>0.196639324172008</v>
       </c>
       <c r="E437" s="1">
         <v>0.18479856879304299</v>
@@ -7833,7 +7834,7 @@
         <v>-6.2602058096826799E-2</v>
       </c>
       <c r="D438" s="1">
-        <v>-7.1991629637743595E-2</v>
+        <v>-6.2699992433310994E-2</v>
       </c>
       <c r="E438" s="1">
         <v>-8.0345634982870798E-2</v>
@@ -7850,7 +7851,7 @@
         <v>1.14755086828475E-2</v>
       </c>
       <c r="D439" s="1">
-        <v>-4.8923618782004104E-3</v>
+        <v>3.2511380012813199E-3</v>
       </c>
       <c r="E439" s="1">
         <v>-2.0893275263837399E-2</v>
@@ -7867,7 +7868,7 @@
         <v>0.80005987699324699</v>
       </c>
       <c r="D440" s="1">
-        <v>0.82035842626211397</v>
+        <v>0.81053750463039198</v>
       </c>
       <c r="E440" s="1">
         <v>0.84385015756806403</v>
@@ -7884,7 +7885,7 @@
         <v>-0.28878216248365102</v>
       </c>
       <c r="D441" s="1">
-        <v>-0.28749319310251897</v>
+        <v>-0.29039657918307499</v>
       </c>
       <c r="E441" s="1">
         <v>-0.28948005425768902</v>
@@ -7901,7 +7902,7 @@
         <v>0.72996384655715896</v>
       </c>
       <c r="D442" s="1">
-        <v>0.727665605824794</v>
+        <v>0.73277160900147797</v>
       </c>
       <c r="E442" s="1">
         <v>0.72028216619202001</v>
@@ -7918,7 +7919,7 @@
         <v>-0.210694771283053</v>
       </c>
       <c r="D443" s="1">
-        <v>-0.20241201422420499</v>
+        <v>-0.206613508338643</v>
       </c>
       <c r="E443" s="1">
         <v>-0.199784760982985</v>
@@ -7935,7 +7936,7 @@
         <v>0.16544239234983699</v>
       </c>
       <c r="D444" s="1">
-        <v>0.169673203769899</v>
+        <v>0.16984517578998201</v>
       </c>
       <c r="E444" s="1">
         <v>0.17446454777339199</v>
@@ -7952,7 +7953,7 @@
         <v>0.200391996419372</v>
       </c>
       <c r="D445" s="1">
-        <v>0.23001843809039399</v>
+        <v>0.21545041198699499</v>
       </c>
       <c r="E445" s="1">
         <v>0.252205699047514</v>
@@ -7969,7 +7970,7 @@
         <v>0.41367509457469898</v>
       </c>
       <c r="D446" s="1">
-        <v>0.40172202091809001</v>
+        <v>0.40884480143975399</v>
       </c>
       <c r="E446" s="1">
         <v>0.398216593041466</v>
@@ -7986,7 +7987,7 @@
         <v>-0.17128098671457201</v>
       </c>
       <c r="D447" s="1">
-        <v>-0.156048833702636</v>
+        <v>-0.16611953054287801</v>
       </c>
       <c r="E447" s="1">
         <v>-0.14448358035429101</v>
@@ -8003,7 +8004,7 @@
         <v>0.38813151419042702</v>
       </c>
       <c r="D448" s="1">
-        <v>0.39383346394451002</v>
+        <v>0.38944744624168998</v>
       </c>
       <c r="E448" s="1">
         <v>0.392929383184564</v>
@@ -8020,7 +8021,7 @@
         <v>1.4411301472352001</v>
       </c>
       <c r="D449" s="1">
-        <v>1.4719613710744599</v>
+        <v>1.45678871297567</v>
       </c>
       <c r="E449" s="1">
         <v>1.4958470558014401</v>
@@ -8037,7 +8038,7 @@
         <v>0.79260931370612497</v>
       </c>
       <c r="D450" s="1">
-        <v>0.81659657208122005</v>
+        <v>0.80590250758001503</v>
       </c>
       <c r="E450" s="1">
         <v>0.82689011100532195</v>
@@ -8054,7 +8055,7 @@
         <v>8.5296967814351393E-2</v>
       </c>
       <c r="D451" s="1">
-        <v>9.3001380686438997E-2</v>
+        <v>8.7226579176819197E-2</v>
       </c>
       <c r="E451" s="1">
         <v>0.106781778437312</v>
@@ -8071,7 +8072,7 @@
         <v>-0.40344618298678497</v>
       </c>
       <c r="D452" s="1">
-        <v>-0.39671296189213001</v>
+        <v>-0.39903178797002897</v>
       </c>
       <c r="E452" s="1">
         <v>-0.39650955640907398</v>
@@ -8088,7 +8089,7 @@
         <v>-0.25145022031603198</v>
       </c>
       <c r="D453" s="1">
-        <v>-0.25867277964837398</v>
+        <v>-0.25449493720169097</v>
       </c>
       <c r="E453" s="1">
         <v>-0.266051813805319</v>
@@ -8105,7 +8106,7 @@
         <v>-1.3054569356882699</v>
       </c>
       <c r="D454" s="1">
-        <v>-1.28623721846515</v>
+        <v>-1.2948009656297399</v>
       </c>
       <c r="E454" s="1">
         <v>-1.2815378292487101</v>
@@ -8122,7 +8123,7 @@
         <v>0.82697685823054601</v>
       </c>
       <c r="D455" s="1">
-        <v>0.82965653525593197</v>
+        <v>0.82516364601716796</v>
       </c>
       <c r="E455" s="1">
         <v>0.82843217356163001</v>
@@ -8139,7 +8140,7 @@
         <v>-0.48904620582904801</v>
       </c>
       <c r="D456" s="1">
-        <v>-0.50560731237454504</v>
+        <v>-0.49623289498940798</v>
       </c>
       <c r="E456" s="1">
         <v>-0.51812319278406005</v>
@@ -8156,7 +8157,7 @@
         <v>-0.16100206392557201</v>
       </c>
       <c r="D457" s="1">
-        <v>-0.15381175384159701</v>
+        <v>-0.15566295437491801</v>
       </c>
       <c r="E457" s="1">
         <v>-0.15327053149537301</v>
@@ -8173,7 +8174,7 @@
         <v>0.68677828605289903</v>
       </c>
       <c r="D458" s="1">
-        <v>0.69795250769522499</v>
+        <v>0.68876826954493298</v>
       </c>
       <c r="E458" s="1">
         <v>0.70696463738645299</v>
@@ -8190,7 +8191,7 @@
         <v>0.66633879536459495</v>
       </c>
       <c r="D459" s="1">
-        <v>0.67750243234361995</v>
+        <v>0.66869685818848801</v>
       </c>
       <c r="E459" s="1">
         <v>0.68588030651722698</v>
@@ -8207,7 +8208,7 @@
         <v>0.520783436619495</v>
       </c>
       <c r="D460" s="1">
-        <v>0.529727721674771</v>
+        <v>0.52575501302260697</v>
       </c>
       <c r="E460" s="1">
         <v>0.54430060558041504</v>
@@ -8224,7 +8225,7 @@
         <v>-0.231649851888939</v>
       </c>
       <c r="D461" s="1">
-        <v>-0.23514285345704899</v>
+        <v>-0.23435240285494299</v>
       </c>
       <c r="E461" s="1">
         <v>-0.238158252500553</v>
@@ -8241,7 +8242,7 @@
         <v>-0.649520950054855</v>
       </c>
       <c r="D462" s="1">
-        <v>-0.66608427803562598</v>
+        <v>-0.65887921175314001</v>
       </c>
       <c r="E462" s="1">
         <v>-0.67613536528644602</v>
@@ -8258,7 +8259,7 @@
         <v>5.8922228406263301E-2</v>
       </c>
       <c r="D463" s="1">
-        <v>5.9324332903437201E-2</v>
+        <v>6.0427360429979302E-2</v>
       </c>
       <c r="E463" s="1">
         <v>5.9364755109642599E-2</v>
@@ -8275,7 +8276,7 @@
         <v>-6.58672574248967E-2</v>
       </c>
       <c r="D464" s="1">
-        <v>-7.8852308404664201E-2</v>
+        <v>-7.1878658910544305E-2</v>
       </c>
       <c r="E464" s="1">
         <v>-9.3683893033705501E-2</v>
@@ -8292,7 +8293,7 @@
         <v>0.13586980702058801</v>
       </c>
       <c r="D465" s="1">
-        <v>0.129140911012152</v>
+        <v>0.12861080990419399</v>
       </c>
       <c r="E465" s="1">
         <v>0.115670268120154</v>
@@ -8309,7 +8310,7 @@
         <v>0.61403241682116505</v>
       </c>
       <c r="D466" s="1">
-        <v>0.62449867415140403</v>
+        <v>0.61747989297532102</v>
       </c>
       <c r="E466" s="1">
         <v>0.63539828751840499</v>
@@ -8326,7 +8327,7 @@
         <v>-0.279560083243796</v>
       </c>
       <c r="D467" s="1">
-        <v>-0.28365309574519998</v>
+        <v>-0.28064785814416099</v>
       </c>
       <c r="E467" s="1">
         <v>-0.28917979025399598</v>
@@ -8343,7 +8344,7 @@
         <v>-1.1165897652416501</v>
       </c>
       <c r="D468" s="1">
-        <v>-1.1270911226901399</v>
+        <v>-1.1181343546082101</v>
       </c>
       <c r="E468" s="1">
         <v>-1.1383385437529401</v>
@@ -8360,7 +8361,7 @@
         <v>0.156806646018194</v>
       </c>
       <c r="D469" s="1">
-        <v>0.17587838359843699</v>
+        <v>0.17014082384085599</v>
       </c>
       <c r="E469" s="1">
         <v>0.19130973055704301</v>
@@ -8377,7 +8378,7 @@
         <v>0.228722339831198</v>
       </c>
       <c r="D470" s="1">
-        <v>0.22610961926381201</v>
+        <v>0.228564210763118</v>
       </c>
       <c r="E470" s="1">
         <v>0.225459341107415</v>
@@ -8394,7 +8395,7 @@
         <v>-0.18688007776988899</v>
       </c>
       <c r="D471" s="1">
-        <v>-0.19202744637098801</v>
+        <v>-0.188580702174831</v>
       </c>
       <c r="E471" s="1">
         <v>-0.19188987759538101</v>
@@ -8411,7 +8412,7 @@
         <v>0.75010579845834402</v>
       </c>
       <c r="D472" s="1">
-        <v>0.75834647497895502</v>
+        <v>0.75230161381461802</v>
       </c>
       <c r="E472" s="1">
         <v>0.76679516895736999</v>
@@ -8428,7 +8429,7 @@
         <v>0.121290047435458</v>
       </c>
       <c r="D473" s="1">
-        <v>0.11816754991049599</v>
+        <v>0.119769624170306</v>
       </c>
       <c r="E473" s="1">
         <v>0.111379199887028</v>
@@ -8445,7 +8446,7 @@
         <v>0.45316441921802297</v>
       </c>
       <c r="D474" s="1">
-        <v>0.46512485537902298</v>
+        <v>0.45935781154420302</v>
       </c>
       <c r="E474" s="1">
         <v>0.475469109895435</v>
@@ -8462,7 +8463,7 @@
         <v>-0.30159483536307402</v>
       </c>
       <c r="D475" s="1">
-        <v>-0.31707983439452703</v>
+        <v>-0.30551118148915002</v>
       </c>
       <c r="E475" s="1">
         <v>-0.32926092877274699</v>
@@ -8479,7 +8480,7 @@
         <v>0.64908300273563002</v>
       </c>
       <c r="D476" s="1">
-        <v>0.668880753248285</v>
+        <v>0.65877429117099995</v>
       </c>
       <c r="E476" s="1">
         <v>0.67198025527083005</v>
@@ -8496,7 +8497,7 @@
         <v>1.2390646595933199</v>
       </c>
       <c r="D477" s="1">
-        <v>1.2700941983529299</v>
+        <v>1.24905870234772</v>
       </c>
       <c r="E477" s="1">
         <v>1.2865541754957901</v>
@@ -8513,7 +8514,7 @@
         <v>0.83129914593789</v>
       </c>
       <c r="D478" s="1">
-        <v>0.86789828849758299</v>
+        <v>0.84998447983295999</v>
       </c>
       <c r="E478" s="1">
         <v>0.89967857483823099</v>
@@ -8530,7 +8531,7 @@
         <v>5.70329946552426E-2</v>
       </c>
       <c r="D479" s="1">
-        <v>3.2095558549805697E-2</v>
+        <v>4.5003910530081598E-2</v>
       </c>
       <c r="E479" s="1">
         <v>1.1713882626410601E-2</v>
@@ -8547,7 +8548,7 @@
         <v>1.36121164965273</v>
       </c>
       <c r="D480" s="1">
-        <v>1.3917422835696101</v>
+        <v>1.3749587090693001</v>
       </c>
       <c r="E480" s="1">
         <v>1.4098945233426301</v>
@@ -8564,7 +8565,7 @@
         <v>0.19964465553873501</v>
       </c>
       <c r="D481" s="1">
-        <v>0.19091575149048601</v>
+        <v>0.19302419009872501</v>
       </c>
       <c r="E481" s="1">
         <v>0.190561684220346</v>
@@ -8581,7 +8582,7 @@
         <v>-0.70316037107549001</v>
       </c>
       <c r="D482" s="1">
-        <v>-0.720690824993382</v>
+        <v>-0.71306479130664002</v>
       </c>
       <c r="E482" s="1">
         <v>-0.733952987366013</v>
@@ -8598,7 +8599,7 @@
         <v>-0.51770091567780196</v>
       </c>
       <c r="D483" s="1">
-        <v>-0.52375415606962605</v>
+        <v>-0.52257312686597401</v>
       </c>
       <c r="E483" s="1">
         <v>-0.52357992130195397</v>
@@ -8615,7 +8616,7 @@
         <v>0.57174664710325396</v>
       </c>
       <c r="D484" s="1">
-        <v>0.59531378310105199</v>
+        <v>0.58225634598521103</v>
       </c>
       <c r="E484" s="1">
         <v>0.60933985204053398</v>
@@ -8632,7 +8633,7 @@
         <v>-0.416557977886861</v>
       </c>
       <c r="D485" s="1">
-        <v>-0.42698894836856899</v>
+        <v>-0.42299201657123697</v>
       </c>
       <c r="E485" s="1">
         <v>-0.43564230942416099</v>
@@ -8649,7 +8650,7 @@
         <v>0.245808272976934</v>
       </c>
       <c r="D486" s="1">
-        <v>0.24268592091167901</v>
+        <v>0.24272581523447001</v>
       </c>
       <c r="E486" s="1">
         <v>0.23717403379781499</v>
@@ -8666,7 +8667,7 @@
         <v>-6.7521112492542903E-2</v>
       </c>
       <c r="D487" s="1">
-        <v>-7.2256918054806302E-2</v>
+        <v>-7.0294271893004107E-2</v>
       </c>
       <c r="E487" s="1">
         <v>-7.3643464485348406E-2</v>
@@ -8683,7 +8684,7 @@
         <v>0.77723290953847701</v>
       </c>
       <c r="D488" s="1">
-        <v>0.79090395459497898</v>
+        <v>0.78079344641083404</v>
       </c>
       <c r="E488" s="1">
         <v>0.78845054459858999</v>
@@ -8700,7 +8701,7 @@
         <v>-0.34168115293692802</v>
       </c>
       <c r="D489" s="1">
-        <v>-0.35254369784183698</v>
+        <v>-0.34618588676099299</v>
       </c>
       <c r="E489" s="1">
         <v>-0.35978267479196302</v>
@@ -8717,7 +8718,7 @@
         <v>-0.493033522940863</v>
       </c>
       <c r="D490" s="1">
-        <v>-0.51009851127530104</v>
+        <v>-0.49907789636757099</v>
       </c>
       <c r="E490" s="1">
         <v>-0.52481184783115498</v>
@@ -8734,7 +8735,7 @@
         <v>0.89156556612556803</v>
       </c>
       <c r="D491" s="1">
-        <v>0.88570537437489405</v>
+        <v>0.888203264744028</v>
       </c>
       <c r="E491" s="1">
         <v>0.88455520206836902</v>
@@ -8751,7 +8752,7 @@
         <v>0.117260324930801</v>
       </c>
       <c r="D492" s="1">
-        <v>0.13583877837505101</v>
+        <v>0.128365983639398</v>
       </c>
       <c r="E492" s="1">
         <v>0.15492665608337799</v>
@@ -8768,7 +8769,7 @@
         <v>-1.3343876931059999</v>
       </c>
       <c r="D493" s="1">
-        <v>-1.34278186449759</v>
+        <v>-1.3359918439685701</v>
       </c>
       <c r="E493" s="1">
         <v>-1.3495501020357701</v>
@@ -8785,7 +8786,7 @@
         <v>-0.61088106325645797</v>
       </c>
       <c r="D494" s="1">
-        <v>-0.61071450411838202</v>
+        <v>-0.60782599370400203</v>
       </c>
       <c r="E494" s="1">
         <v>-0.61447034683088597</v>
@@ -8802,7 +8803,7 @@
         <v>-0.53033235833927195</v>
       </c>
       <c r="D495" s="1">
-        <v>-0.51429586972756103</v>
+        <v>-0.52308848206022596</v>
       </c>
       <c r="E495" s="1">
         <v>-0.50888075585163295</v>
@@ -8819,7 +8820,7 @@
         <v>1.3360365162841801</v>
       </c>
       <c r="D496" s="1">
-        <v>1.3523296692119999</v>
+        <v>1.3416388691385901</v>
       </c>
       <c r="E496" s="1">
         <v>1.3645741317544999</v>
@@ -8836,7 +8837,7 @@
         <v>0.45991316536611598</v>
       </c>
       <c r="D497" s="1">
-        <v>0.463229299254245</v>
+        <v>0.46527287937536499</v>
       </c>
       <c r="E497" s="1">
         <v>0.46338083790891998</v>
@@ -8853,7 +8854,7 @@
         <v>0.74454366062406996</v>
       </c>
       <c r="D498" s="1">
-        <v>0.74389244178199398</v>
+        <v>0.74291289439862696</v>
       </c>
       <c r="E498" s="1">
         <v>0.735814506420161</v>
@@ -8870,7 +8871,7 @@
         <v>0.55314599269768405</v>
       </c>
       <c r="D499" s="1">
-        <v>0.55868817383292202</v>
+        <v>0.55666691267804502</v>
       </c>
       <c r="E499" s="1">
         <v>0.56736872109216896</v>
@@ -8887,7 +8888,7 @@
         <v>-0.75817076439935205</v>
       </c>
       <c r="D500" s="1">
-        <v>-0.78163982386987096</v>
+        <v>-0.76421043827638402</v>
       </c>
       <c r="E500" s="1">
         <v>-0.79209939469795199</v>
@@ -8904,7 +8905,7 @@
         <v>-0.23707696854864099</v>
       </c>
       <c r="D501" s="1">
-        <v>-0.261397232797838</v>
+        <v>-0.244726628779278</v>
       </c>
       <c r="E501" s="1">
         <v>-0.27551581275463699</v>
@@ -8921,7 +8922,7 @@
         <v>0.194390532204851</v>
       </c>
       <c r="D502" s="1">
-        <v>0.19969058132390899</v>
+        <v>0.19435851690024999</v>
       </c>
       <c r="E502" s="1">
         <v>0.2088444111277</v>
@@ -8938,7 +8939,7 @@
         <v>0.213797840871465</v>
       </c>
       <c r="D503" s="1">
-        <v>0.21102781675945201</v>
+        <v>0.21451446863545801</v>
       </c>
       <c r="E503" s="1">
         <v>0.214215771254997</v>
@@ -8955,7 +8956,7 @@
         <v>-5.7614303925755301</v>
       </c>
       <c r="D504" s="1">
-        <v>-5.7399050608123998</v>
+        <v>-5.7462509273596298</v>
       </c>
       <c r="E504" s="1">
         <v>-5.74045395294727</v>
@@ -8972,7 +8973,7 @@
         <v>0.66077389684063603</v>
       </c>
       <c r="D505" s="1">
-        <v>0.67353997516531705</v>
+        <v>0.67237766453373304</v>
       </c>
       <c r="E505" s="1">
         <v>0.684481535089009</v>
@@ -8989,7 +8990,7 @@
         <v>-1.1340522355399301</v>
       </c>
       <c r="D506" s="1">
-        <v>-1.1003451133448401</v>
+        <v>-1.1215710452368199</v>
       </c>
       <c r="E506" s="1">
         <v>-1.0796059777573901</v>
@@ -9006,7 +9007,7 @@
         <v>1.78763936989301</v>
       </c>
       <c r="D507" s="1">
-        <v>1.7962011443805399</v>
+        <v>1.79330067312844</v>
       </c>
       <c r="E507" s="1">
         <v>1.8071422898709499</v>
@@ -9023,7 +9024,7 @@
         <v>0.16488346724038999</v>
       </c>
       <c r="D508" s="1">
-        <v>0.173444356930157</v>
+        <v>0.170255882685212</v>
       </c>
       <c r="E508" s="1">
         <v>0.185605962575145</v>
@@ -9040,7 +9041,7 @@
         <v>1.5371530608342201</v>
       </c>
       <c r="D509" s="1">
-        <v>1.5349450891843499</v>
+        <v>1.5373906656683201</v>
       </c>
       <c r="E509" s="1">
         <v>1.5343262739555199</v>
@@ -9057,7 +9058,7 @@
         <v>-1.1598677093530101</v>
       </c>
       <c r="D510" s="1">
-        <v>-1.1576844664875101</v>
+        <v>-1.1584673416878599</v>
       </c>
       <c r="E510" s="1">
         <v>-1.1457315491754601</v>
@@ -9074,7 +9075,7 @@
         <v>-0.31627246810054499</v>
       </c>
       <c r="D511" s="1">
-        <v>-0.31040749691151998</v>
+        <v>-0.31668071897352901</v>
       </c>
       <c r="E511" s="1">
         <v>-0.30768480050357599</v>
@@ -9091,7 +9092,7 @@
         <v>0.77089528145655095</v>
       </c>
       <c r="D512" s="1">
-        <v>0.76939018930913705</v>
+        <v>0.77356128000255597</v>
       </c>
       <c r="E512" s="1">
         <v>0.76592510553538495</v>
@@ -9108,7 +9109,7 @@
         <v>0.95540022385774803</v>
       </c>
       <c r="D513" s="1">
-        <v>0.95854939744696799</v>
+        <v>0.95658790866853405</v>
       </c>
       <c r="E513" s="1">
         <v>0.96177667122892097</v>
@@ -9125,7 +9126,7 @@
         <v>0.16498888107048501</v>
       </c>
       <c r="D514" s="1">
-        <v>0.166878071536119</v>
+        <v>0.16404633207651101</v>
       </c>
       <c r="E514" s="1">
         <v>0.16914840758260599</v>
@@ -9142,7 +9143,7 @@
         <v>0.18814277359664999</v>
       </c>
       <c r="D515" s="1">
-        <v>0.16987834898954801</v>
+        <v>0.179518718380275</v>
       </c>
       <c r="E515" s="1">
         <v>0.16218948087200299</v>
@@ -9159,7 +9160,7 @@
         <v>-0.45433322471401899</v>
       </c>
       <c r="D516" s="1">
-        <v>-0.46631962318346099</v>
+        <v>-0.45934733439479503</v>
       </c>
       <c r="E516" s="1">
         <v>-0.47099811701806998</v>
@@ -9176,7 +9177,7 @@
         <v>-1.025244686982</v>
       </c>
       <c r="D517" s="1">
-        <v>-1.05189630985029</v>
+        <v>-1.03533848854684</v>
       </c>
       <c r="E517" s="1">
         <v>-1.0637377636026999</v>
@@ -9193,7 +9194,7 @@
         <v>0.96325815668092196</v>
       </c>
       <c r="D518" s="1">
-        <v>0.96402254732139703</v>
+        <v>0.96626069806181902</v>
       </c>
       <c r="E518" s="1">
         <v>0.97090987581852894</v>
@@ -9210,7 +9211,7 @@
         <v>-0.30709536155741501</v>
       </c>
       <c r="D519" s="1">
-        <v>-0.31356862889097797</v>
+        <v>-0.31234189983114902</v>
       </c>
       <c r="E519" s="1">
         <v>-0.32882213474322503</v>
@@ -9227,7 +9228,7 @@
         <v>-0.34342200477666202</v>
       </c>
       <c r="D520" s="1">
-        <v>-0.34816572085144998</v>
+        <v>-0.34768163143655201</v>
       </c>
       <c r="E520" s="1">
         <v>-0.343282667199105</v>
@@ -9244,7 +9245,7 @@
         <v>-1.3264381729231101</v>
       </c>
       <c r="D521" s="1">
-        <v>-1.33950024300415</v>
+        <v>-1.33132929843642</v>
       </c>
       <c r="E521" s="1">
         <v>-1.3437204945478001</v>
@@ -9261,7 +9262,7 @@
         <v>6.9953745866176004E-2</v>
       </c>
       <c r="D522" s="1">
-        <v>8.0425151185595498E-2</v>
+        <v>7.4399648347270794E-2</v>
       </c>
       <c r="E522" s="1">
         <v>8.0451434487736104E-2</v>
@@ -9278,7 +9279,7 @@
         <v>-0.96639722307659404</v>
       </c>
       <c r="D523" s="1">
-        <v>-0.99567607999354102</v>
+        <v>-0.98232063676625003</v>
       </c>
       <c r="E523" s="1">
         <v>-1.0072368511810501</v>
@@ -9295,7 +9296,7 @@
         <v>-1.20325815133784</v>
       </c>
       <c r="D524" s="1">
-        <v>-1.18069577803887</v>
+        <v>-1.19122050503528</v>
       </c>
       <c r="E524" s="1">
         <v>-1.1711172269947501</v>
@@ -9312,7 +9313,7 @@
         <v>-1.1027700926708</v>
       </c>
       <c r="D525" s="1">
-        <v>-1.13244886451383</v>
+        <v>-1.1180853463182101</v>
       </c>
       <c r="E525" s="1">
         <v>-1.1508007073962501</v>
@@ -9329,7 +9330,7 @@
         <v>1.43494402329273</v>
       </c>
       <c r="D526" s="1">
-        <v>1.4338499729563801</v>
+        <v>1.4354911254114</v>
       </c>
       <c r="E526" s="1">
         <v>1.43782878974527</v>
@@ -9346,7 +9347,7 @@
         <v>0.60800264065629395</v>
       </c>
       <c r="D527" s="1">
-        <v>0.63371010159527197</v>
+        <v>0.61769402250446004</v>
       </c>
       <c r="E527" s="1">
         <v>0.65384416405905399</v>
@@ -9363,7 +9364,7 @@
         <v>1.0713939960921599</v>
       </c>
       <c r="D528" s="1">
-        <v>1.07022890171604</v>
+        <v>1.06991679011378</v>
       </c>
       <c r="E528" s="1">
         <v>1.07494595553088</v>
@@ -9380,7 +9381,7 @@
         <v>-1.7448287198739101</v>
       </c>
       <c r="D529" s="1">
-        <v>-1.78652058801573</v>
+        <v>-1.76302387964577</v>
       </c>
       <c r="E529" s="1">
         <v>-1.8175011945348301</v>
@@ -9397,7 +9398,7 @@
         <v>-3.0315696307381499</v>
       </c>
       <c r="D530" s="1">
-        <v>-3.0233053302477799</v>
+        <v>-3.0287431557517599</v>
       </c>
       <c r="E530" s="1">
         <v>-3.0141543147148302</v>
@@ -9414,7 +9415,7 @@
         <v>0.25404271340194301</v>
       </c>
       <c r="D531" s="1">
-        <v>0.25824022590962498</v>
+        <v>0.25618144482039801</v>
       </c>
       <c r="E531" s="1">
         <v>0.25631793677098302</v>
@@ -9431,7 +9432,7 @@
         <v>-1.0045200338437601</v>
       </c>
       <c r="D532" s="1">
-        <v>-1.00394568021491</v>
+        <v>-1.0046713134227401</v>
       </c>
       <c r="E532" s="1">
         <v>-0.99871730930285496</v>
@@ -9448,7 +9449,7 @@
         <v>-4.2527298822148296</v>
       </c>
       <c r="D533" s="1">
-        <v>-4.2128920059545196</v>
+        <v>-4.2390648672439397</v>
       </c>
       <c r="E533" s="1">
         <v>-4.1957553708289401</v>
@@ -9465,7 +9466,7 @@
         <v>-2.6808600298375702</v>
       </c>
       <c r="D534" s="1">
-        <v>-2.6027472027490299</v>
+        <v>-2.6458389214743598</v>
       </c>
       <c r="E534" s="1">
         <v>-2.55117935473517</v>
@@ -9482,7 +9483,7 @@
         <v>-4.08272951356874</v>
       </c>
       <c r="D535" s="1">
-        <v>-4.0982786556275599</v>
+        <v>-4.0928982411458597</v>
       </c>
       <c r="E535" s="1">
         <v>-4.1226343340241103</v>
@@ -9499,7 +9500,7 @@
         <v>-2.8197327142156698</v>
       </c>
       <c r="D536" s="1">
-        <v>-2.7919476615560601</v>
+        <v>-2.8009758582305699</v>
       </c>
       <c r="E536" s="1">
         <v>-2.78232174625898</v>
@@ -9516,7 +9517,7 @@
         <v>-2.3785645765705601</v>
       </c>
       <c r="D537" s="1">
-        <v>-2.3839062080054298</v>
+        <v>-2.37868669411891</v>
       </c>
       <c r="E537" s="1">
         <v>-2.3943478726378</v>
@@ -9533,7 +9534,7 @@
         <v>-5.4851943619833996</v>
       </c>
       <c r="D538" s="1">
-        <v>-5.4089172600737498</v>
+        <v>-5.4493955582321103</v>
       </c>
       <c r="E538" s="1">
         <v>-5.3716272078365996</v>
@@ -9550,7 +9551,7 @@
         <v>6.3888755663576298</v>
       </c>
       <c r="D539" s="1">
-        <v>6.3943590703643496</v>
+        <v>6.3926870535795102</v>
       </c>
       <c r="E539" s="1">
         <v>6.4174272010690299</v>
@@ -9567,7 +9568,7 @@
         <v>-3.7867296843380198</v>
       </c>
       <c r="D540" s="1">
-        <v>-3.8317416946199301</v>
+        <v>-3.8079616704274502</v>
       </c>
       <c r="E540" s="1">
         <v>-3.8640807324603799</v>
@@ -9584,7 +9585,7 @@
         <v>4.5081472212350704</v>
       </c>
       <c r="D541" s="1">
-        <v>4.5241536877600499</v>
+        <v>4.5126573810669699</v>
       </c>
       <c r="E541" s="1">
         <v>4.5404215221190398</v>
@@ -9601,7 +9602,7 @@
         <v>3.8825122146015199</v>
       </c>
       <c r="D542" s="1">
-        <v>3.8799825927029601</v>
+        <v>3.8786311739505002</v>
       </c>
       <c r="E542" s="1">
         <v>3.8753579079189899</v>
@@ -9618,7 +9619,7 @@
         <v>0.92618188355966802</v>
       </c>
       <c r="D543" s="1">
-        <v>0.92699021814405902</v>
+        <v>0.924577966297363</v>
       </c>
       <c r="E543" s="1">
         <v>0.92076405792855098</v>
@@ -9635,7 +9636,7 @@
         <v>-0.44173600079834002</v>
       </c>
       <c r="D544" s="1">
-        <v>-0.45763916012543399</v>
+        <v>-0.45232743773822798</v>
       </c>
       <c r="E544" s="1">
         <v>-0.47076189139772001</v>
@@ -9652,7 +9653,7 @@
         <v>-0.76608861108706705</v>
       </c>
       <c r="D545" s="1">
-        <v>-0.80197589969770899</v>
+        <v>-0.78322530789963396</v>
       </c>
       <c r="E545" s="1">
         <v>-0.82850896848494004</v>
@@ -9669,7 +9670,7 @@
         <v>0.84352500721308299</v>
       </c>
       <c r="D546" s="1">
-        <v>0.84525609848472605</v>
+        <v>0.84848789979142503</v>
       </c>
       <c r="E546" s="1">
         <v>0.85157643375092795</v>
@@ -9686,7 +9687,7 @@
         <v>-0.49068493604996299</v>
       </c>
       <c r="D547" s="1">
-        <v>-0.52720973380751701</v>
+        <v>-0.51003069101332399</v>
       </c>
       <c r="E547" s="1">
         <v>-0.54354261706894902</v>
@@ -9703,7 +9704,7 @@
         <v>1.6237881073549201</v>
       </c>
       <c r="D548" s="1">
-        <v>1.63394599074231</v>
+        <v>1.62928124454416</v>
       </c>
       <c r="E548" s="1">
         <v>1.65005143310114</v>
@@ -9720,7 +9721,7 @@
         <v>1.7857546278529599</v>
       </c>
       <c r="D549" s="1">
-        <v>1.78098829505137</v>
+        <v>1.7903573320274999</v>
       </c>
       <c r="E549" s="1">
         <v>1.77690715247222</v>
@@ -9737,7 +9738,7 @@
         <v>1.36582334787328</v>
       </c>
       <c r="D550" s="1">
-        <v>1.3360688531837901</v>
+        <v>1.3574610653827299</v>
       </c>
       <c r="E550" s="1">
         <v>1.3187383531888099</v>
@@ -9754,7 +9755,7 @@
         <v>-0.16138151826338501</v>
       </c>
       <c r="D551" s="1">
-        <v>-0.17975963317511301</v>
+        <v>-0.17111497411297699</v>
       </c>
       <c r="E551" s="1">
         <v>-0.19043239758812</v>
@@ -9771,7 +9772,7 @@
         <v>0.325326818682106</v>
       </c>
       <c r="D552" s="1">
-        <v>0.30060268710486798</v>
+        <v>0.31210201855691699</v>
       </c>
       <c r="E552" s="1">
         <v>0.29185691154334398</v>
@@ -9788,7 +9789,7 @@
         <v>-0.599942311885866</v>
       </c>
       <c r="D553" s="1">
-        <v>-0.61988822996491799</v>
+        <v>-0.60972517993453101</v>
       </c>
       <c r="E553" s="1">
         <v>-0.63202615199488799</v>
@@ -9805,7 +9806,7 @@
         <v>2.3098275111865298</v>
       </c>
       <c r="D554" s="1">
-        <v>2.3161497771687798</v>
+        <v>2.3151950999273101</v>
       </c>
       <c r="E554" s="1">
         <v>2.3276073357156801</v>
@@ -9822,7 +9823,7 @@
         <v>1.07357055366557</v>
       </c>
       <c r="D555" s="1">
-        <v>1.05919953843096</v>
+        <v>1.06692836523514</v>
       </c>
       <c r="E555" s="1">
         <v>1.03848768533388</v>
@@ -9839,7 +9840,7 @@
         <v>-0.72423605149884995</v>
       </c>
       <c r="D556" s="1">
-        <v>-0.74954498705672601</v>
+        <v>-0.73065999884696597</v>
       </c>
       <c r="E556" s="1">
         <v>-0.76752417135903905</v>
@@ -9856,7 +9857,7 @@
         <v>2.2463193021125698</v>
       </c>
       <c r="D557" s="1">
-        <v>2.3164323241396798</v>
+        <v>2.2760467418655801</v>
       </c>
       <c r="E557" s="1">
         <v>2.3642595426352799</v>
@@ -9873,7 +9874,7 @@
         <v>-0.13279288548302201</v>
       </c>
       <c r="D558" s="1">
-        <v>-0.16040337429680299</v>
+        <v>-0.13697175441530199</v>
       </c>
       <c r="E558" s="1">
         <v>-0.18188255182101001</v>
@@ -9890,7 +9891,7 @@
         <v>-2.8147835649052899</v>
       </c>
       <c r="D559" s="1">
-        <v>-2.8140189184171298</v>
+        <v>-2.8156772260454401</v>
       </c>
       <c r="E559" s="1">
         <v>-2.81250560091395</v>
@@ -9907,7 +9908,7 @@
         <v>0.14037186653550501</v>
       </c>
       <c r="D560" s="1">
-        <v>0.115954792290063</v>
+        <v>0.12826941330373701</v>
       </c>
       <c r="E560" s="1">
         <v>0.102878644784191</v>
@@ -9924,7 +9925,7 @@
         <v>0.55927714414350405</v>
       </c>
       <c r="D561" s="1">
-        <v>0.54921665132220299</v>
+        <v>0.55440369734636996</v>
       </c>
       <c r="E561" s="1">
         <v>0.54387141454892196</v>
@@ -9941,7 +9942,7 @@
         <v>-0.21947351770580101</v>
       </c>
       <c r="D562" s="1">
-        <v>-0.229510813037477</v>
+        <v>-0.22487282447974599</v>
       </c>
       <c r="E562" s="1">
         <v>-0.242798547352751</v>
@@ -9958,7 +9959,7 @@
         <v>2.1163256585007901</v>
       </c>
       <c r="D563" s="1">
-        <v>2.1099070095117201</v>
+        <v>2.1163910975672802</v>
       </c>
       <c r="E563" s="1">
         <v>2.1122288161477898</v>
@@ -9975,7 +9976,7 @@
         <v>0.46225515990475202</v>
       </c>
       <c r="D564" s="1">
-        <v>0.44634808699123901</v>
+        <v>0.45629555465289001</v>
       </c>
       <c r="E564" s="1">
         <v>0.43212628164446798</v>
@@ -9992,7 +9993,7 @@
         <v>1.4739456469952601</v>
       </c>
       <c r="D565" s="1">
-        <v>1.47207254665575</v>
+        <v>1.4717545411571999</v>
       </c>
       <c r="E565" s="1">
         <v>1.47635331021631</v>
@@ -10009,7 +10010,7 @@
         <v>2.0693753613355699</v>
       </c>
       <c r="D566" s="1">
-        <v>2.0918234854556199</v>
+        <v>2.0730937816219899</v>
       </c>
       <c r="E566" s="1">
         <v>2.09994592593416</v>
@@ -10026,7 +10027,7 @@
         <v>-2.5151197723263801</v>
       </c>
       <c r="D567" s="1">
-        <v>-2.5640590320091299</v>
+        <v>-2.5450773433502798</v>
       </c>
       <c r="E567" s="1">
         <v>-2.59138560497273</v>
@@ -10043,7 +10044,7 @@
         <v>0.48518333718918599</v>
       </c>
       <c r="D568" s="1">
-        <v>0.46131933896755101</v>
+        <v>0.47488111318196302</v>
       </c>
       <c r="E568" s="1">
         <v>0.45129371255631301</v>
@@ -10060,7 +10061,7 @@
         <v>-2.37002028515633E-3</v>
       </c>
       <c r="D569" s="1">
-        <v>-1.04027661739064E-2</v>
+        <v>-8.83783200978257E-4</v>
       </c>
       <c r="E569" s="1">
         <v>-5.3832651135841698E-3</v>
@@ -10077,7 +10078,7 @@
         <v>0.595023268377327</v>
       </c>
       <c r="D570" s="1">
-        <v>0.55964919671008695</v>
+        <v>0.58299274699850701</v>
       </c>
       <c r="E570" s="1">
         <v>0.53594056376999299</v>
@@ -10094,7 +10095,7 @@
         <v>0.57984169620995896</v>
       </c>
       <c r="D571" s="1">
-        <v>0.61112706591370702</v>
+        <v>0.59674959659796301</v>
       </c>
       <c r="E571" s="1">
         <v>0.62257975628001705</v>
@@ -10111,7 +10112,7 @@
         <v>1.0396977983598501</v>
       </c>
       <c r="D572" s="1">
-        <v>1.0624707761719401</v>
+        <v>1.0433563075586301</v>
       </c>
       <c r="E572" s="1">
         <v>1.07375801956095</v>
@@ -10128,7 +10129,7 @@
         <v>-1.2612457993419</v>
       </c>
       <c r="D573" s="1">
-        <v>-1.2869023433112901</v>
+        <v>-1.2751666652037299</v>
       </c>
       <c r="E573" s="1">
         <v>-1.30530748594829</v>
@@ -10145,7 +10146,7 @@
         <v>0.56016188507435205</v>
       </c>
       <c r="D574" s="1">
-        <v>0.56568064667872897</v>
+        <v>0.56524166727809499</v>
       </c>
       <c r="E574" s="1">
         <v>0.56185482563997102</v>
@@ -10162,7 +10163,7 @@
         <v>-1.4040480521737499</v>
       </c>
       <c r="D575" s="1">
-        <v>-1.38154369325889</v>
+        <v>-1.3958483006307001</v>
       </c>
       <c r="E575" s="1">
         <v>-1.3647248146238999</v>
@@ -10179,7 +10180,7 @@
         <v>0.36323654057700699</v>
       </c>
       <c r="D576" s="1">
-        <v>0.38550697151608798</v>
+        <v>0.381467480726491</v>
       </c>
       <c r="E576" s="1">
         <v>0.39003623979041402</v>
@@ -10196,7 +10197,7 @@
         <v>-0.72756815460167401</v>
       </c>
       <c r="D577" s="1">
-        <v>-0.75918479953154105</v>
+        <v>-0.74447800170253497</v>
       </c>
       <c r="E577" s="1">
         <v>-0.78267431426445699</v>
@@ -10213,7 +10214,7 @@
         <v>1.13187239572681</v>
       </c>
       <c r="D578" s="1">
-        <v>1.1240180340000701</v>
+        <v>1.1358186007242801</v>
       </c>
       <c r="E578" s="1">
         <v>1.1148629596356101</v>
@@ -10230,7 +10231,7 @@
         <v>0.44192429888540802</v>
       </c>
       <c r="D579" s="1">
-        <v>0.43785349265604201</v>
+        <v>0.44203357454591902</v>
       </c>
       <c r="E579" s="1">
         <v>0.43679965024219303</v>
@@ -10247,7 +10248,7 @@
         <v>0.92614866678251595</v>
       </c>
       <c r="D580" s="1">
-        <v>0.91728870288612896</v>
+        <v>0.92299052034756601</v>
       </c>
       <c r="E580" s="1">
         <v>0.91153202964441904</v>
@@ -10264,7 +10265,7 @@
         <v>-1.82779912367191</v>
       </c>
       <c r="D581" s="1">
-        <v>-1.8531400209336</v>
+        <v>-1.8398973825475</v>
       </c>
       <c r="E581" s="1">
         <v>-1.8667419732028501</v>
@@ -10281,7 +10282,7 @@
         <v>0.53678388432920499</v>
       </c>
       <c r="D582" s="1">
-        <v>0.52321675938483703</v>
+        <v>0.53225073434966796</v>
       </c>
       <c r="E582" s="1">
         <v>0.49745368779657301</v>
@@ -10298,7 +10299,7 @@
         <v>1.1837996382838001</v>
       </c>
       <c r="D583" s="1">
-        <v>1.2160791570591201</v>
+        <v>1.19827864673943</v>
       </c>
       <c r="E583" s="1">
         <v>1.22940216479994</v>
@@ -10315,7 +10316,7 @@
         <v>0.15197897363763199</v>
       </c>
       <c r="D584" s="1">
-        <v>0.15613320640523601</v>
+        <v>0.150482196632689</v>
       </c>
       <c r="E584" s="1">
         <v>0.15423812289372199</v>
@@ -10332,7 +10333,7 @@
         <v>-0.64067336832534805</v>
       </c>
       <c r="D585" s="1">
-        <v>-0.64939565561312296</v>
+        <v>-0.64610715974110799</v>
       </c>
       <c r="E585" s="1">
         <v>-0.64709661649901495</v>
@@ -10349,7 +10350,7 @@
         <v>-5.5484513110521799E-2</v>
       </c>
       <c r="D586" s="1">
-        <v>-6.3314541322560397E-2</v>
+        <v>-6.10804625762165E-2</v>
       </c>
       <c r="E586" s="1">
         <v>-6.9407046173256798E-2</v>
@@ -10366,7 +10367,7 @@
         <v>1.2865773177575499</v>
       </c>
       <c r="D587" s="1">
-        <v>1.2874752031238299</v>
+        <v>1.28722390606377</v>
       </c>
       <c r="E587" s="1">
         <v>1.2817505669934599</v>
@@ -10383,7 +10384,7 @@
         <v>0.46638362291242802</v>
       </c>
       <c r="D588" s="1">
-        <v>0.476179754570622</v>
+        <v>0.46942629533320501</v>
       </c>
       <c r="E588" s="1">
         <v>0.48653599005634302</v>
@@ -10400,7 +10401,7 @@
         <v>1.7472921130300001</v>
       </c>
       <c r="D589" s="1">
-        <v>1.7596791918497401</v>
+        <v>1.75294972370696</v>
       </c>
       <c r="E589" s="1">
         <v>1.77701590884689</v>
@@ -10417,7 +10418,7 @@
         <v>0.65285851011780505</v>
       </c>
       <c r="D590" s="1">
-        <v>0.65582614153552399</v>
+        <v>0.65372159454187295</v>
       </c>
       <c r="E590" s="1">
         <v>0.66403067263757298</v>
@@ -10434,7 +10435,7 @@
         <v>0.73178584043602402</v>
       </c>
       <c r="D591" s="1">
-        <v>0.72729600776451597</v>
+        <v>0.72972625461074303</v>
       </c>
       <c r="E591" s="1">
         <v>0.73247312219840999</v>
@@ -10451,7 +10452,7 @@
         <v>1.1733968773625201</v>
       </c>
       <c r="D592" s="1">
-        <v>1.2055775137306199</v>
+        <v>1.18522335838115</v>
       </c>
       <c r="E592" s="1">
         <v>1.22586311674531</v>
@@ -10468,7 +10469,7 @@
         <v>0.24063309469539099</v>
       </c>
       <c r="D593" s="1">
-        <v>0.24528875893569299</v>
+        <v>0.24779064466343201</v>
       </c>
       <c r="E593" s="1">
         <v>0.25186929758924498</v>
@@ -10485,7 +10486,7 @@
         <v>0.76038866093248403</v>
       </c>
       <c r="D594" s="1">
-        <v>0.78330954123584295</v>
+        <v>0.76615283487292796</v>
       </c>
       <c r="E594" s="1">
         <v>0.78755925407985194</v>
@@ -10502,7 +10503,7 @@
         <v>-1.49711695326353</v>
       </c>
       <c r="D595" s="1">
-        <v>-1.47214654293448</v>
+        <v>-1.4849475947267401</v>
       </c>
       <c r="E595" s="1">
         <v>-1.4487484352095099</v>
@@ -10519,7 +10520,7 @@
         <v>-0.92987694359829498</v>
       </c>
       <c r="D596" s="1">
-        <v>-0.94162261938144698</v>
+        <v>-0.934008477552001</v>
       </c>
       <c r="E596" s="1">
         <v>-0.95364287317623997</v>
@@ -10536,7 +10537,7 @@
         <v>-1.1414434733455301</v>
       </c>
       <c r="D597" s="1">
-        <v>-1.1649271701244599</v>
+        <v>-1.1543461459153099</v>
       </c>
       <c r="E597" s="1">
         <v>-1.18731723745447</v>
@@ -10553,7 +10554,7 @@
         <v>1.82382336317759</v>
       </c>
       <c r="D598" s="1">
-        <v>1.8257820951619299</v>
+        <v>1.82485274997535</v>
       </c>
       <c r="E598" s="1">
         <v>1.8231761044111501</v>
@@ -10570,7 +10571,7 @@
         <v>0.22839537232462701</v>
       </c>
       <c r="D599" s="1">
-        <v>0.22262582729405</v>
+        <v>0.226212383541118</v>
       </c>
       <c r="E599" s="1">
         <v>0.21487134461121199</v>
@@ -10587,7 +10588,7 @@
         <v>0.26406240160739303</v>
       </c>
       <c r="D600" s="1">
-        <v>0.25727275679064798</v>
+        <v>0.26588345282161702</v>
       </c>
       <c r="E600" s="1">
         <v>0.25210725538537099</v>
@@ -10604,7 +10605,7 @@
         <v>8.0298740181183603E-3</v>
       </c>
       <c r="D601" s="1">
-        <v>1.6256650880674701E-2</v>
+        <v>1.4066305311380201E-2</v>
       </c>
       <c r="E601" s="1">
         <v>9.4200383445771103E-3</v>
@@ -10621,7 +10622,7 @@
         <v>0.213333231105201</v>
       </c>
       <c r="D602" s="1">
-        <v>0.19766964223928399</v>
+        <v>0.208837249534676</v>
       </c>
       <c r="E602" s="1">
         <v>0.200082262381648</v>
@@ -10638,7 +10639,7 @@
         <v>0.44840056870949202</v>
       </c>
       <c r="D603" s="1">
-        <v>0.46705198857855801</v>
+        <v>0.45585846276127401</v>
       </c>
       <c r="E603" s="1">
         <v>0.48596124743669999</v>
@@ -10655,7 +10656,7 @@
         <v>0.488134001256809</v>
       </c>
       <c r="D604" s="1">
-        <v>0.50078403689834305</v>
+        <v>0.49352798332778902</v>
       </c>
       <c r="E604" s="1">
         <v>0.50411525852025096</v>
@@ -10672,7 +10673,7 @@
         <v>-0.99212463462217904</v>
       </c>
       <c r="D605" s="1">
-        <v>-1.00792740463104</v>
+        <v>-1.0064466857094101</v>
       </c>
       <c r="E605" s="1">
         <v>-1.00991432471112</v>
@@ -10689,7 +10690,7 @@
         <v>0.695628826153603</v>
       </c>
       <c r="D606" s="1">
-        <v>0.69413120416163898</v>
+        <v>0.69689539080092999</v>
       </c>
       <c r="E606" s="1">
         <v>0.69558946223059204</v>
@@ -10706,7 +10707,7 @@
         <v>0.95312163412473205</v>
       </c>
       <c r="D607" s="1">
-        <v>0.95511629433591205</v>
+        <v>0.95201607871203398</v>
       </c>
       <c r="E607" s="1">
         <v>0.95547858292307697</v>
@@ -10723,7 +10724,7 @@
         <v>1.1459128351800401</v>
       </c>
       <c r="D608" s="1">
-        <v>1.1507610838008799</v>
+        <v>1.14510483338806</v>
       </c>
       <c r="E608" s="1">
         <v>1.15127837522941</v>
@@ -10740,7 +10741,7 @@
         <v>0.90725573277558502</v>
       </c>
       <c r="D609" s="1">
-        <v>0.91348572218864099</v>
+        <v>0.90945502949675705</v>
       </c>
       <c r="E609" s="1">
         <v>0.93345474207413703</v>
@@ -10757,7 +10758,7 @@
         <v>1.82853793908565</v>
       </c>
       <c r="D610" s="1">
-        <v>1.830333054252</v>
+        <v>1.8292102606149001</v>
       </c>
       <c r="E610" s="1">
         <v>1.82769790560302</v>
@@ -10774,7 +10775,7 @@
         <v>-9.0765802992524694E-2</v>
       </c>
       <c r="D611" s="1">
-        <v>-7.8966290928672397E-2</v>
+        <v>-8.9308105986873498E-2</v>
       </c>
       <c r="E611" s="1">
         <v>-8.0452979281278994E-2</v>
@@ -10791,7 +10792,7 @@
         <v>0.66459202437891496</v>
       </c>
       <c r="D612" s="1">
-        <v>0.64491209710942599</v>
+        <v>0.65333564877439698</v>
       </c>
       <c r="E612" s="1">
         <v>0.62310915365291097</v>
@@ -10808,7 +10809,7 @@
         <v>0.23268921915027799</v>
       </c>
       <c r="D613" s="1">
-        <v>0.233782390649378</v>
+        <v>0.234734716187006</v>
       </c>
       <c r="E613" s="1">
         <v>0.24121335570102301</v>
@@ -10825,7 +10826,7 @@
         <v>-0.94045161195475901</v>
       </c>
       <c r="D614" s="1">
-        <v>-0.92313329741366901</v>
+        <v>-0.93059768106926699</v>
       </c>
       <c r="E614" s="1">
         <v>-0.90513777124259198</v>
@@ -10842,7 +10843,7 @@
         <v>1.2766307055718999</v>
       </c>
       <c r="D615" s="1">
-        <v>1.2793646246582799</v>
+        <v>1.2771042451955199</v>
       </c>
       <c r="E615" s="1">
         <v>1.27594804221891</v>
@@ -10859,7 +10860,7 @@
         <v>7.9752326582975402E-2</v>
       </c>
       <c r="D616" s="1">
-        <v>0.111922389940421</v>
+        <v>9.0264628719028406E-2</v>
       </c>
       <c r="E616" s="1">
         <v>0.13612627648158401</v>
@@ -10876,7 +10877,7 @@
         <v>5.2172340749224999E-2</v>
       </c>
       <c r="D617" s="1">
-        <v>6.8801551162776295E-2</v>
+        <v>5.6852924780011103E-2</v>
       </c>
       <c r="E617" s="1">
         <v>7.2905500262951894E-2</v>
@@ -10893,7 +10894,7 @@
         <v>-0.33158467050942397</v>
       </c>
       <c r="D618" s="1">
-        <v>-0.354550157477934</v>
+        <v>-0.338120420259099</v>
       </c>
       <c r="E618" s="1">
         <v>-0.37236256062177397</v>
@@ -10910,7 +10911,7 @@
         <v>0.35907837521149599</v>
       </c>
       <c r="D619" s="1">
-        <v>0.42041213065790101</v>
+        <v>0.39169114687141798</v>
       </c>
       <c r="E619" s="1">
         <v>0.47258868815911098</v>
@@ -10927,7 +10928,7 @@
         <v>-5.1939322411890497E-2</v>
       </c>
       <c r="D620" s="1">
-        <v>-6.05100483391625E-2</v>
+        <v>-5.4050584969178403E-2</v>
       </c>
       <c r="E620" s="1">
         <v>-7.0928511639108197E-2</v>
@@ -10944,7 +10945,7 @@
         <v>1.87440200061024</v>
       </c>
       <c r="D621" s="1">
-        <v>1.896716664043</v>
+        <v>1.8837043930980799</v>
       </c>
       <c r="E621" s="1">
         <v>1.90429027200382</v>
@@ -10961,7 +10962,7 @@
         <v>0.60883027189224204</v>
       </c>
       <c r="D622" s="1">
-        <v>0.60396770623704799</v>
+        <v>0.60525870941978699</v>
       </c>
       <c r="E622" s="1">
         <v>0.59694660247891995</v>
@@ -10978,7 +10979,7 @@
         <v>-0.24291984757879201</v>
       </c>
       <c r="D623" s="1">
-        <v>-0.24805025268190101</v>
+        <v>-0.242336241032961</v>
       </c>
       <c r="E623" s="1">
         <v>-0.25813030860839598</v>
@@ -10995,7 +10996,7 @@
         <v>-0.79853094438782801</v>
       </c>
       <c r="D624" s="1">
-        <v>-0.76910854928623196</v>
+        <v>-0.78379527427897699</v>
       </c>
       <c r="E624" s="1">
         <v>-0.74733980754178497</v>
@@ -11012,7 +11013,7 @@
         <v>2.50037086250626</v>
       </c>
       <c r="D625" s="1">
-        <v>2.6075310634200699</v>
+        <v>2.5496012968214901</v>
       </c>
       <c r="E625" s="1">
         <v>2.70325711636786</v>
@@ -11029,7 +11030,7 @@
         <v>7.9684819332864004E-2</v>
       </c>
       <c r="D626" s="1">
-        <v>0.13077972281620401</v>
+        <v>0.10532261277628301</v>
       </c>
       <c r="E626" s="1">
         <v>0.16777239325620699</v>
@@ -11046,7 +11047,7 @@
         <v>-0.44755987078068499</v>
       </c>
       <c r="D627" s="1">
-        <v>-0.49889237790968699</v>
+        <v>-0.47149733530415999</v>
       </c>
       <c r="E627" s="1">
         <v>-0.53823943650097605</v>
@@ -11063,7 +11064,7 @@
         <v>1.48700898583001</v>
       </c>
       <c r="D628" s="1">
-        <v>1.4955097914692701</v>
+        <v>1.48779802328015</v>
       </c>
       <c r="E628" s="1">
         <v>1.5156929011812199</v>
@@ -11080,7 +11081,7 @@
         <v>-0.47687836724396898</v>
       </c>
       <c r="D629" s="1">
-        <v>-0.50124918432475596</v>
+        <v>-0.486480411766887</v>
       </c>
       <c r="E629" s="1">
         <v>-0.52092995047159896</v>
@@ -11097,7 +11098,7 @@
         <v>-1.19891836685149</v>
       </c>
       <c r="D630" s="1">
-        <v>-1.2262987749188199</v>
+        <v>-1.2131338576432</v>
       </c>
       <c r="E630" s="1">
         <v>-1.2572073495626499</v>
@@ -11114,7 +11115,7 @@
         <v>1.6359904950540001</v>
       </c>
       <c r="D631" s="1">
-        <v>1.65857874555172</v>
+        <v>1.64687419157062</v>
       </c>
       <c r="E631" s="1">
         <v>1.6748289010559401</v>
@@ -11131,7 +11132,7 @@
         <v>0.75846716194425401</v>
       </c>
       <c r="D632" s="1">
-        <v>0.75231365296588704</v>
+        <v>0.75564621621908701</v>
       </c>
       <c r="E632" s="1">
         <v>0.74208052492952803</v>
@@ -11148,7 +11149,7 @@
         <v>0.94429880753592799</v>
       </c>
       <c r="D633" s="1">
-        <v>0.96205490644735303</v>
+        <v>0.95199336284821701</v>
       </c>
       <c r="E633" s="1">
         <v>0.97601921978828299</v>
@@ -11165,7 +11166,7 @@
         <v>-0.64981033045304704</v>
       </c>
       <c r="D634" s="1">
-        <v>-0.664063168193055</v>
+        <v>-0.65926362552218198</v>
       </c>
       <c r="E634" s="1">
         <v>-0.67475585200182597</v>
@@ -11182,7 +11183,7 @@
         <v>0.52102088158297</v>
       </c>
       <c r="D635" s="1">
-        <v>0.52030371791708296</v>
+        <v>0.520141071113426</v>
       </c>
       <c r="E635" s="1">
         <v>0.52176920803525895</v>
@@ -11199,7 +11200,7 @@
         <v>-0.83006605559188695</v>
       </c>
       <c r="D636" s="1">
-        <v>-0.83214183596486102</v>
+        <v>-0.82636456854815599</v>
       </c>
       <c r="E636" s="1">
         <v>-0.834587167062391</v>
@@ -11216,7 +11217,7 @@
         <v>-0.81036716358148397</v>
       </c>
       <c r="D637" s="1">
-        <v>-0.84738572688244995</v>
+        <v>-0.82769024313637296</v>
       </c>
       <c r="E637" s="1">
         <v>-0.85934356992648298</v>
@@ -11233,7 +11234,7 @@
         <v>0.88692393093530197</v>
       </c>
       <c r="D638" s="1">
-        <v>0.90756869474995705</v>
+        <v>0.89473978969228996</v>
       </c>
       <c r="E638" s="1">
         <v>0.92372285603292503</v>
@@ -11250,7 +11251,7 @@
         <v>0.21164085421883599</v>
       </c>
       <c r="D639" s="1">
-        <v>0.184455276287528</v>
+        <v>0.19499299406335099</v>
       </c>
       <c r="E639" s="1">
         <v>0.166184503124129</v>
@@ -11267,7 +11268,7 @@
         <v>1.2646836209180901</v>
       </c>
       <c r="D640" s="1">
-        <v>1.2442816657957501</v>
+        <v>1.25489599889968</v>
       </c>
       <c r="E640" s="1">
         <v>1.2251344057254601</v>
@@ -11284,7 +11285,7 @@
         <v>-0.66837238946935695</v>
       </c>
       <c r="D641" s="1">
-        <v>-0.69093413200186105</v>
+        <v>-0.67463577758418602</v>
       </c>
       <c r="E641" s="1">
         <v>-0.71346681540016799</v>
@@ -11301,7 +11302,7 @@
         <v>-0.727732857756476</v>
       </c>
       <c r="D642" s="1">
-        <v>-0.73775964416982398</v>
+        <v>-0.73426688387558003</v>
       </c>
       <c r="E642" s="1">
         <v>-0.75189410204766005</v>
@@ -11318,7 +11319,7 @@
         <v>-3.2228030560871601</v>
       </c>
       <c r="D643" s="1">
-        <v>-3.2035621385315398</v>
+        <v>-3.2120792507164899</v>
       </c>
       <c r="E643" s="1">
         <v>-3.19262310446718</v>
@@ -11335,7 +11336,7 @@
         <v>1.9878271126800999</v>
       </c>
       <c r="D644" s="1">
-        <v>1.9809553266175199</v>
+        <v>1.98473658578846</v>
       </c>
       <c r="E644" s="1">
         <v>1.97618988371728</v>
@@ -11352,7 +11353,7 @@
         <v>0.30410843377667601</v>
       </c>
       <c r="D645" s="1">
-        <v>0.29708197598159503</v>
+        <v>0.30475777735330301</v>
       </c>
       <c r="E645" s="1">
         <v>0.301942368796214</v>
@@ -11369,7 +11370,7 @@
         <v>0.87730107175787897</v>
       </c>
       <c r="D646" s="1">
-        <v>0.87729212000479995</v>
+        <v>0.87553584678694596</v>
       </c>
       <c r="E646" s="1">
         <v>0.87404357019842105</v>
@@ -11386,7 +11387,7 @@
         <v>0.58432243741463596</v>
       </c>
       <c r="D647" s="1">
-        <v>0.58751991037648199</v>
+        <v>0.58395691042168196</v>
       </c>
       <c r="E647" s="1">
         <v>0.58700762479290203</v>
@@ -11403,7 +11404,7 @@
         <v>-0.271397498449162</v>
       </c>
       <c r="D648" s="1">
-        <v>-0.27468840432064001</v>
+        <v>-0.27418579555145001</v>
       </c>
       <c r="E648" s="1">
         <v>-0.27906584832711701</v>
@@ -11420,7 +11421,7 @@
         <v>-0.56862534142374899</v>
       </c>
       <c r="D649" s="1">
-        <v>-0.59660915975261097</v>
+        <v>-0.58298753350532095</v>
       </c>
       <c r="E649" s="1">
         <v>-0.61740593720395198</v>
@@ -11437,7 +11438,7 @@
         <v>-1.1709203446033201</v>
       </c>
       <c r="D650" s="1">
-        <v>-1.22931267417558</v>
+        <v>-1.1944931887616399</v>
       </c>
       <c r="E650" s="1">
         <v>-1.2611466005488901</v>
@@ -11454,7 +11455,7 @@
         <v>0.95948570338942296</v>
       </c>
       <c r="D651" s="1">
-        <v>0.98751697551198603</v>
+        <v>0.97175873123401402</v>
       </c>
       <c r="E651" s="1">
         <v>1.00364755548046</v>
@@ -11471,7 +11472,7 @@
         <v>-5.8507603212983803E-2</v>
       </c>
       <c r="D652" s="1">
-        <v>-7.4523306808792697E-2</v>
+        <v>-6.3942652800558303E-2</v>
       </c>
       <c r="E652" s="1">
         <v>-9.2558965356081102E-2</v>
@@ -11488,7 +11489,7 @@
         <v>0.49072838519740097</v>
       </c>
       <c r="D653" s="1">
-        <v>0.48771584770758197</v>
+        <v>0.48931165325496001</v>
       </c>
       <c r="E653" s="1">
         <v>0.486235290867159</v>
@@ -11505,7 +11506,7 @@
         <v>-0.98673748415204798</v>
       </c>
       <c r="D654" s="1">
-        <v>-1.00192061339452</v>
+        <v>-0.99639357863348799</v>
       </c>
       <c r="E654" s="1">
         <v>-1.01613712659872</v>
@@ -11522,7 +11523,7 @@
         <v>-0.30038289794114598</v>
       </c>
       <c r="D655" s="1">
-        <v>-0.31958181388227103</v>
+        <v>-0.31256945050215501</v>
       </c>
       <c r="E655" s="1">
         <v>-0.32653019235923503</v>
@@ -11539,7 +11540,7 @@
         <v>0.552957913174144</v>
       </c>
       <c r="D656" s="1">
-        <v>0.58042146336016598</v>
+        <v>0.56417333675466497</v>
       </c>
       <c r="E656" s="1">
         <v>0.59685037130433904</v>
@@ -11556,7 +11557,7 @@
         <v>-0.47846332921691898</v>
       </c>
       <c r="D657" s="1">
-        <v>-0.49933316661343902</v>
+        <v>-0.49012379719260701</v>
       </c>
       <c r="E657" s="1">
         <v>-0.52304245181096998</v>
@@ -11573,7 +11574,7 @@
         <v>0.69501672771636402</v>
       </c>
       <c r="D658" s="1">
-        <v>0.71275059174081001</v>
+        <v>0.70280677274876302</v>
       </c>
       <c r="E658" s="1">
         <v>0.73455663283953099</v>
@@ -11590,7 +11591,7 @@
         <v>-7.6212858589678398E-2</v>
       </c>
       <c r="D659" s="1">
-        <v>-3.92057203270227E-2</v>
+        <v>-6.3687630246153704E-2</v>
       </c>
       <c r="E659" s="1">
         <v>-4.1978649200672099E-3</v>
@@ -11607,7 +11608,7 @@
         <v>0.89347822628012097</v>
       </c>
       <c r="D660" s="1">
-        <v>0.89614937293127295</v>
+        <v>0.89793027112291302</v>
       </c>
       <c r="E660" s="1">
         <v>0.88771704006874697</v>
@@ -11624,7 +11625,7 @@
         <v>0.45109986992649398</v>
       </c>
       <c r="D661" s="1">
-        <v>0.44566410130432699</v>
+        <v>0.45033370117814497</v>
       </c>
       <c r="E661" s="1">
         <v>0.44618203819611701</v>
@@ -11641,7 +11642,7 @@
         <v>1.0725794856604101</v>
       </c>
       <c r="D662" s="1">
-        <v>1.0963250485862901</v>
+        <v>1.0791243607268901</v>
       </c>
       <c r="E662" s="1">
         <v>1.1084338271704499</v>
@@ -11658,7 +11659,7 @@
         <v>-0.69111111288139304</v>
       </c>
       <c r="D663" s="1">
-        <v>-0.73249015765328995</v>
+        <v>-0.71124970804737198</v>
       </c>
       <c r="E663" s="1">
         <v>-0.76097254144838</v>
@@ -11675,7 +11676,7 @@
         <v>-1.25470295883952E-2</v>
       </c>
       <c r="D664" s="1">
-        <v>-2.9543526616713198E-2</v>
+        <v>-2.3188993464594E-2</v>
       </c>
       <c r="E664" s="1">
         <v>-3.1961584073574301E-2</v>
@@ -11692,7 +11693,7 @@
         <v>-0.659241266574492</v>
       </c>
       <c r="D665" s="1">
-        <v>-0.66717381825913302</v>
+        <v>-0.666236013253245</v>
       </c>
       <c r="E665" s="1">
         <v>-0.67900964483954895</v>
@@ -11709,7 +11710,7 @@
         <v>-1.17100410271113</v>
       </c>
       <c r="D666" s="1">
-        <v>-1.1622210055564099</v>
+        <v>-1.16665935692958</v>
       </c>
       <c r="E666" s="1">
         <v>-1.1596721435400701</v>
@@ -11726,7 +11727,7 @@
         <v>-0.470726259310566</v>
       </c>
       <c r="D667" s="1">
-        <v>-0.455914031659374</v>
+        <v>-0.463640394600353</v>
       </c>
       <c r="E667" s="1">
         <v>-0.45535608326676502</v>
@@ -11743,7 +11744,7 @@
         <v>-2.5438257662658099</v>
       </c>
       <c r="D668" s="1">
-        <v>-2.5390694742800202</v>
+        <v>-2.5415761002098902</v>
       </c>
       <c r="E668" s="1">
         <v>-2.53237841439514</v>
@@ -11760,7 +11761,7 @@
         <v>-0.18282159635606501</v>
       </c>
       <c r="D669" s="1">
-        <v>-0.14749529120962099</v>
+        <v>-0.16978785643974101</v>
       </c>
       <c r="E669" s="1">
         <v>-0.112402531133646</v>
@@ -11777,7 +11778,7 @@
         <v>1.9062630215432199</v>
       </c>
       <c r="D670" s="1">
-        <v>1.91170708393926</v>
+        <v>1.91246852288146</v>
       </c>
       <c r="E670" s="1">
         <v>1.91162364084058</v>
@@ -11794,7 +11795,7 @@
         <v>5.44734540192503E-2</v>
       </c>
       <c r="D671" s="1">
-        <v>6.3751403989503894E-2</v>
+        <v>5.6815758873736202E-2</v>
       </c>
       <c r="E671" s="1">
         <v>7.5966250283471801E-2</v>
@@ -11811,7 +11812,7 @@
         <v>0.37312353654133901</v>
       </c>
       <c r="D672" s="1">
-        <v>0.36607476041653397</v>
+        <v>0.36902746225650102</v>
       </c>
       <c r="E672" s="1">
         <v>0.35585135394433198</v>
@@ -11828,7 +11829,7 @@
         <v>0.24768892203267501</v>
       </c>
       <c r="D673" s="1">
-        <v>0.22072784572326001</v>
+        <v>0.23335944679092399</v>
       </c>
       <c r="E673" s="1">
         <v>0.19409949974471999</v>
@@ -11845,7 +11846,7 @@
         <v>1.2356082447850301</v>
       </c>
       <c r="D674" s="1">
-        <v>1.24208731259009</v>
+        <v>1.2404158825284699</v>
       </c>
       <c r="E674" s="1">
         <v>1.2368841149284699</v>
@@ -11862,7 +11863,7 @@
         <v>0.33718555139185702</v>
       </c>
       <c r="D675" s="1">
-        <v>0.33442376648135702</v>
+        <v>0.33950759920771401</v>
       </c>
       <c r="E675" s="1">
         <v>0.32692699697280803</v>
@@ -11879,7 +11880,7 @@
         <v>1.149311495878</v>
       </c>
       <c r="D676" s="1">
-        <v>1.1849558544908401</v>
+        <v>1.16901917864183</v>
       </c>
       <c r="E676" s="1">
         <v>1.2120176679127299</v>
@@ -11896,7 +11897,7 @@
         <v>0.59139991673144698</v>
       </c>
       <c r="D677" s="1">
-        <v>0.62254854541514704</v>
+        <v>0.61635133037229894</v>
       </c>
       <c r="E677" s="1">
         <v>0.63621778277531105</v>
@@ -11913,7 +11914,7 @@
         <v>-7.4846261428624203E-2</v>
       </c>
       <c r="D678" s="1">
-        <v>-8.0637025236579105E-2</v>
+        <v>-7.7760106070156904E-2</v>
       </c>
       <c r="E678" s="1">
         <v>-8.6783166171833098E-2</v>
@@ -11930,7 +11931,7 @@
         <v>-0.26830310740768698</v>
       </c>
       <c r="D679" s="1">
-        <v>-0.28962413388559799</v>
+        <v>-0.27727036017158901</v>
       </c>
       <c r="E679" s="1">
         <v>-0.30782632793915499</v>
@@ -11947,7 +11948,7 @@
         <v>-0.74438875027231199</v>
       </c>
       <c r="D680" s="1">
-        <v>-0.75355162998937897</v>
+        <v>-0.74937990848641201</v>
       </c>
       <c r="E680" s="1">
         <v>-0.76149279316337803</v>
@@ -11964,7 +11965,7 @@
         <v>-0.59971237721456105</v>
       </c>
       <c r="D681" s="1">
-        <v>-0.59861018570230395</v>
+        <v>-0.60203730069954697</v>
       </c>
       <c r="E681" s="1">
         <v>-0.60399698765209398</v>
@@ -11981,7 +11982,7 @@
         <v>1.2357800653175</v>
       </c>
       <c r="D682" s="1">
-        <v>1.23882267841364</v>
+        <v>1.2380036423485401</v>
       </c>
       <c r="E682" s="1">
         <v>1.2356635066719199</v>
@@ -11998,7 +11999,7 @@
         <v>-0.35588122490753299</v>
       </c>
       <c r="D683" s="1">
-        <v>-0.35894213181095502</v>
+        <v>-0.36078836869120701</v>
       </c>
       <c r="E683" s="1">
         <v>-0.36769199883529802</v>
@@ -12015,7 +12016,7 @@
         <v>0.103888858970731</v>
       </c>
       <c r="D684" s="1">
-        <v>9.3299883327793404E-2</v>
+        <v>9.9047438071681995E-2</v>
       </c>
       <c r="E684" s="1">
         <v>8.1902241419403402E-2</v>
@@ -12032,7 +12033,7 @@
         <v>0.34545997663924</v>
       </c>
       <c r="D685" s="1">
-        <v>0.37431642911440499</v>
+        <v>0.359488346429229</v>
       </c>
       <c r="E685" s="1">
         <v>0.38967980125995999</v>
@@ -12049,7 +12050,7 @@
         <v>-0.16568181521667799</v>
       </c>
       <c r="D686" s="1">
-        <v>-0.186873532143982</v>
+        <v>-0.17704569396171499</v>
       </c>
       <c r="E686" s="1">
         <v>-0.198619653343347</v>
@@ -12066,7 +12067,7 @@
         <v>8.7213017095978396E-2</v>
       </c>
       <c r="D687" s="1">
-        <v>9.5964633920807799E-2</v>
+        <v>8.70081603280487E-2</v>
       </c>
       <c r="E687" s="1">
         <v>0.103696191697847</v>
@@ -12083,7 +12084,7 @@
         <v>-0.26523073985927598</v>
       </c>
       <c r="D688" s="1">
-        <v>-0.28112267726082302</v>
+        <v>-0.27414649476249497</v>
       </c>
       <c r="E688" s="1">
         <v>-0.29060013328078999</v>
@@ -12100,7 +12101,7 @@
         <v>-0.61308321983449998</v>
       </c>
       <c r="D689" s="1">
-        <v>-0.61678850689477904</v>
+        <v>-0.61301245089821998</v>
       </c>
       <c r="E689" s="1">
         <v>-0.61506745727620205</v>
@@ -12117,7 +12118,7 @@
         <v>-1.05287091617843</v>
       </c>
       <c r="D690" s="1">
-        <v>-1.07792086428497</v>
+        <v>-1.06256675158548</v>
       </c>
       <c r="E690" s="1">
         <v>-1.0956414917245301</v>
@@ -12134,7 +12135,7 @@
         <v>-0.92365406577479503</v>
       </c>
       <c r="D691" s="1">
-        <v>-0.91406101264211903</v>
+        <v>-0.91922536601876204</v>
       </c>
       <c r="E691" s="1">
         <v>-0.90550767889379802</v>
@@ -12151,7 +12152,7 @@
         <v>0.40899040028801398</v>
       </c>
       <c r="D692" s="1">
-        <v>0.42008858944841798</v>
+        <v>0.41784158208801597</v>
       </c>
       <c r="E692" s="1">
         <v>0.43920097175054801</v>
@@ -12168,7 +12169,7 @@
         <v>1.14561806636827</v>
       </c>
       <c r="D693" s="1">
-        <v>1.1455145080750999</v>
+        <v>1.14057505732279</v>
       </c>
       <c r="E693" s="1">
         <v>1.13923380271997</v>
@@ -12185,7 +12186,7 @@
         <v>1.06811395616046</v>
       </c>
       <c r="D694" s="1">
-        <v>1.0881870644415299</v>
+        <v>1.0725061828173399</v>
       </c>
       <c r="E694" s="1">
         <v>1.09930678978049</v>
@@ -12202,7 +12203,7 @@
         <v>0.40029764703745402</v>
       </c>
       <c r="D695" s="1">
-        <v>0.41126564412859001</v>
+        <v>0.404031483742679</v>
       </c>
       <c r="E695" s="1">
         <v>0.41605146522146103</v>
@@ -12219,7 +12220,7 @@
         <v>0.44411473559460102</v>
       </c>
       <c r="D696" s="1">
-        <v>0.45549152076650401</v>
+        <v>0.44750253154970798</v>
       </c>
       <c r="E696" s="1">
         <v>0.45703873965733199</v>
@@ -12236,7 +12237,7 @@
         <v>1.2022578774928001</v>
       </c>
       <c r="D697" s="1">
-        <v>1.1994370909311001</v>
+        <v>1.19950147395093</v>
       </c>
       <c r="E697" s="1">
         <v>1.1950603476518</v>
@@ -12253,7 +12254,7 @@
         <v>-0.35594600173551</v>
       </c>
       <c r="D698" s="1">
-        <v>-0.35885685253800598</v>
+        <v>-0.35723756323230399</v>
       </c>
       <c r="E698" s="1">
         <v>-0.35685933815213799</v>
@@ -12270,7 +12271,7 @@
         <v>1.39981309358628</v>
       </c>
       <c r="D699" s="1">
-        <v>1.4085677634215501</v>
+        <v>1.40483421716215</v>
       </c>
       <c r="E699" s="1">
         <v>1.4109562604424799</v>
@@ -12287,7 +12288,7 @@
         <v>-0.30913814219480601</v>
       </c>
       <c r="D700" s="1">
-        <v>-0.29314888451584298</v>
+        <v>-0.30666969754258699</v>
       </c>
       <c r="E700" s="1">
         <v>-0.296529037826812</v>
@@ -12304,7 +12305,7 @@
         <v>0.389510212411668</v>
       </c>
       <c r="D701" s="1">
-        <v>0.38970877047757402</v>
+        <v>0.39044870457119801</v>
       </c>
       <c r="E701" s="1">
         <v>0.384857087253759</v>
@@ -12321,7 +12322,7 @@
         <v>2.1819603568277199</v>
       </c>
       <c r="D702" s="1">
-        <v>2.2325449343909498</v>
+        <v>2.2045701757186098</v>
       </c>
       <c r="E702" s="1">
         <v>2.25836953406457</v>
@@ -12338,7 +12339,7 @@
         <v>0.30295189855819898</v>
       </c>
       <c r="D703" s="1">
-        <v>0.30789781066706601</v>
+        <v>0.29959155740008397</v>
       </c>
       <c r="E703" s="1">
         <v>0.30911959610682899</v>
@@ -12355,7 +12356,7 @@
         <v>1.3533542061075201</v>
       </c>
       <c r="D704" s="1">
-        <v>1.3784319182609901</v>
+        <v>1.3633219286840199</v>
       </c>
       <c r="E704" s="1">
         <v>1.3866959050086001</v>
@@ -12372,7 +12373,7 @@
         <v>-0.4211577470799</v>
       </c>
       <c r="D705" s="1">
-        <v>-0.43875263873261899</v>
+        <v>-0.42907052616128999</v>
       </c>
       <c r="E705" s="1">
         <v>-0.45292363974375099</v>
@@ -12389,7 +12390,7 @@
         <v>-5.7840990028622599E-2</v>
       </c>
       <c r="D706" s="1">
-        <v>-7.0594224523090707E-2</v>
+        <v>-6.2213876574122202E-2</v>
       </c>
       <c r="E706" s="1">
         <v>-8.4371745778118401E-2</v>
@@ -12406,7 +12407,7 @@
         <v>1.1929936152006499</v>
       </c>
       <c r="D707" s="1">
-        <v>1.19567815205543</v>
+        <v>1.1978613261616899</v>
       </c>
       <c r="E707" s="1">
         <v>1.2049330289970199</v>
@@ -12423,7 +12424,7 @@
         <v>-0.52819920093009898</v>
       </c>
       <c r="D708" s="1">
-        <v>-0.531940967100753</v>
+        <v>-0.52744248612097699</v>
       </c>
       <c r="E708" s="1">
         <v>-0.54912691946047798</v>
@@ -12440,7 +12441,7 @@
         <v>-0.53514203482348999</v>
       </c>
       <c r="D709" s="1">
-        <v>-0.56022326305966397</v>
+        <v>-0.54562571558060002</v>
       </c>
       <c r="E709" s="1">
         <v>-0.57757865012096699</v>
@@ -12457,7 +12458,7 @@
         <v>0.76233419569065697</v>
       </c>
       <c r="D710" s="1">
-        <v>0.75028242497611297</v>
+        <v>0.76031974799972601</v>
       </c>
       <c r="E710" s="1">
         <v>0.75087933491901504</v>
@@ -12474,7 +12475,7 @@
         <v>0.122526137687227</v>
       </c>
       <c r="D711" s="1">
-        <v>0.103794180087459</v>
+        <v>0.115118446171645</v>
       </c>
       <c r="E711" s="1">
         <v>9.3221158990427502E-2</v>
@@ -12491,7 +12492,7 @@
         <v>-1.1338488284278101</v>
       </c>
       <c r="D712" s="1">
-        <v>-1.18356283310982</v>
+        <v>-1.1527420222436899</v>
       </c>
       <c r="E712" s="1">
         <v>-1.2178440909796</v>
@@ -12508,7 +12509,7 @@
         <v>1.2653624595544799</v>
       </c>
       <c r="D713" s="1">
-        <v>1.29933339290662</v>
+        <v>1.27712018282174</v>
       </c>
       <c r="E713" s="1">
         <v>1.3217004830802399</v>
@@ -12525,7 +12526,7 @@
         <v>0.77319393748208998</v>
       </c>
       <c r="D714" s="1">
-        <v>0.80704131018380598</v>
+        <v>0.784317321213581</v>
       </c>
       <c r="E714" s="1">
         <v>0.82263743412078405</v>
@@ -12542,7 +12543,7 @@
         <v>-6.03308754276244E-2</v>
       </c>
       <c r="D715" s="1">
-        <v>-6.1583527603907E-2</v>
+        <v>-6.7840889137667795E-2</v>
       </c>
       <c r="E715" s="1">
         <v>-6.6928757229004196E-2</v>
@@ -12559,7 +12560,7 @@
         <v>1.1510684780404199</v>
       </c>
       <c r="D716" s="1">
-        <v>1.15971957131876</v>
+        <v>1.1540891503670201</v>
       </c>
       <c r="E716" s="1">
         <v>1.17620005045458</v>
@@ -12576,7 +12577,7 @@
         <v>0.92623429422345704</v>
       </c>
       <c r="D717" s="1">
-        <v>0.95434654983270695</v>
+        <v>0.936249379476641</v>
       </c>
       <c r="E717" s="1">
         <v>0.97176164061822801</v>
@@ -12593,7 +12594,7 @@
         <v>0.74985239850461205</v>
       </c>
       <c r="D718" s="1">
-        <v>0.775170252970387</v>
+        <v>0.76267108197406797</v>
       </c>
       <c r="E718" s="1">
         <v>0.78428249401722705</v>
@@ -12610,7 +12611,7 @@
         <v>0.19117226675929</v>
       </c>
       <c r="D719" s="1">
-        <v>0.185874282132895</v>
+        <v>0.18964677498980501</v>
       </c>
       <c r="E719" s="1">
         <v>0.17812078887597799</v>
@@ -12627,7 +12628,7 @@
         <v>-0.99408552396315297</v>
       </c>
       <c r="D720" s="1">
-        <v>-1.0042002989613501</v>
+        <v>-0.99451981439937398</v>
       </c>
       <c r="E720" s="1">
         <v>-1.0101928230783499</v>
@@ -12644,7 +12645,7 @@
         <v>0.12991380059845301</v>
       </c>
       <c r="D721" s="1">
-        <v>0.16333390579477799</v>
+        <v>0.146900169214084</v>
       </c>
       <c r="E721" s="1">
         <v>0.19274569607449299</v>
@@ -12661,7 +12662,7 @@
         <v>-0.42267793770220602</v>
       </c>
       <c r="D722" s="1">
-        <v>-0.45157951848288402</v>
+        <v>-0.43994798000733398</v>
       </c>
       <c r="E722" s="1">
         <v>-0.477125438452568</v>
@@ -12678,7 +12679,7 @@
         <v>-0.98564078585847203</v>
       </c>
       <c r="D723" s="1">
-        <v>-0.96522442623884097</v>
+        <v>-0.97473764841192301</v>
       </c>
       <c r="E723" s="1">
         <v>-0.95371297889863804</v>
@@ -12695,7 +12696,7 @@
         <v>1.6826708958008201</v>
       </c>
       <c r="D724" s="1">
-        <v>1.6765601884794501</v>
+        <v>1.67836117027203</v>
       </c>
       <c r="E724" s="1">
         <v>1.67594628845752</v>
@@ -12712,7 +12713,7 @@
         <v>-0.187006096401065</v>
       </c>
       <c r="D725" s="1">
-        <v>-0.196200523438325</v>
+        <v>-0.19481727766608201</v>
       </c>
       <c r="E725" s="1">
         <v>-0.20020319143856399</v>
@@ -12729,7 +12730,7 @@
         <v>-5.9537164700405501E-2</v>
       </c>
       <c r="D726" s="1">
-        <v>-6.3713709009174599E-2</v>
+        <v>-5.9534361097762001E-2</v>
       </c>
       <c r="E726" s="1">
         <v>-6.1800566742460997E-2</v>
@@ -12746,7 +12747,7 @@
         <v>0.96958237233410505</v>
       </c>
       <c r="D727" s="1">
-        <v>0.98247191968248204</v>
+        <v>0.98034864576991299</v>
       </c>
       <c r="E727" s="1">
         <v>0.98370909497513803</v>
@@ -12763,7 +12764,7 @@
         <v>-1.4542689714179899</v>
       </c>
       <c r="D728" s="1">
-        <v>-1.45959737706904</v>
+        <v>-1.4546664295235601</v>
       </c>
       <c r="E728" s="1">
         <v>-1.4604275723086</v>
@@ -12780,7 +12781,7 @@
         <v>0.28208394249683899</v>
       </c>
       <c r="D729" s="1">
-        <v>0.26865275539925199</v>
+        <v>0.27594395393468102</v>
       </c>
       <c r="E729" s="1">
         <v>0.250211278865342</v>
@@ -12797,7 +12798,7 @@
         <v>0.37919569207159298</v>
       </c>
       <c r="D730" s="1">
-        <v>0.37345482353092702</v>
+        <v>0.37830425765403303</v>
       </c>
       <c r="E730" s="1">
         <v>0.36206502782518601</v>
@@ -12814,7 +12815,7 @@
         <v>0.362190762389343</v>
       </c>
       <c r="D731" s="1">
-        <v>0.359287260030623</v>
+        <v>0.35915345080642302</v>
       </c>
       <c r="E731" s="1">
         <v>0.36080691072910798</v>
@@ -12831,7 +12832,7 @@
         <v>1.06029484788319</v>
       </c>
       <c r="D732" s="1">
-        <v>1.0638305159114601</v>
+        <v>1.0592687521176301</v>
       </c>
       <c r="E732" s="1">
         <v>1.05541208539605</v>
@@ -12848,7 +12849,7 @@
         <v>-7.8821816683079096E-2</v>
       </c>
       <c r="D733" s="1">
-        <v>-8.7199630809945902E-2</v>
+        <v>-7.7602502082347494E-2</v>
       </c>
       <c r="E733" s="1">
         <v>-9.0075819002704394E-2</v>
@@ -12865,7 +12866,7 @@
         <v>1.54143470619811</v>
       </c>
       <c r="D734" s="1">
-        <v>1.5725536730553</v>
+        <v>1.5554783140672801</v>
       </c>
       <c r="E734" s="1">
         <v>1.5972674751392999</v>
@@ -12882,7 +12883,7 @@
         <v>0.292741897353264</v>
       </c>
       <c r="D735" s="1">
-        <v>0.29689968069321698</v>
+        <v>0.29594421563805701</v>
       </c>
       <c r="E735" s="1">
         <v>0.29734148984262498</v>
